--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="213">
   <si>
     <t>ID</t>
   </si>
@@ -230,7 +230,7 @@
     <t>1. Открывается Filter news по категориям, датам, активности</t>
   </si>
   <si>
-    <t>! Переодически не появляются новости по выбранным критериям.</t>
+    <t>Элементы категорий не кликабельны, нет возможности теста. Переодически не появляются новости по выбранным критериям.</t>
   </si>
   <si>
     <t xml:space="preserve">2. В поле категорий выбрать категорию из выпадающего списка </t>
@@ -260,7 +260,7 @@
     <t>Фильтрация новостей по категориям из выпадающего списка</t>
   </si>
   <si>
-    <t>Результат как при фильтации по валидным данным</t>
+    <t>Элементы категорий не кликабельны, нет возможности теста. Результат как при фильтации по валидным данным</t>
   </si>
   <si>
     <t>3. Нажать Filter</t>
@@ -276,6 +276,9 @@
   </si>
   <si>
     <t>Фильтрация новостей по валидному периоду</t>
+  </si>
+  <si>
+    <t>Результат как при фильтации по валидным данным</t>
   </si>
   <si>
     <t>2. В поле Дата для начала периода выбрать дату в выпадающем окне календаря и нажать ОК</t>
@@ -386,13 +389,16 @@
     <t>Фильтарция событий по категории, дате и активности</t>
   </si>
   <si>
+    <t>Элементы категорий не кликабельны, нет возможности теста.</t>
+  </si>
+  <si>
     <t>5. Переход на страницу Control panel со списком событий по заданным критериям</t>
   </si>
   <si>
     <t>Фильтарция событий по категории из выпадающего списка</t>
   </si>
   <si>
-    <t>Результат как при фильтрации по валидным данным</t>
+    <t>Элементы категорий не кликабельны, нет возможности теста.Результат как при фильтрации по валидным данным</t>
   </si>
   <si>
     <t>3. Переход на страницу Control panel со списком событий по заданным критериям</t>
@@ -848,7 +854,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -954,6 +960,9 @@
     </xf>
     <xf borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -2547,8 +2556,8 @@
       <c r="G38" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="H38" s="18" t="s">
-        <v>15</v>
+      <c r="H38" s="34" t="s">
+        <v>67</v>
       </c>
       <c r="I38" s="14" t="s">
         <v>72</v>
@@ -2950,7 +2959,7 @@
         <v>67</v>
       </c>
       <c r="I49" s="14" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
@@ -2978,10 +2987,10 @@
       <c r="D50" s="20"/>
       <c r="E50" s="20"/>
       <c r="F50" s="17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H50" s="20"/>
       <c r="I50" s="20"/>
@@ -3011,10 +3020,10 @@
       <c r="D51" s="20"/>
       <c r="E51" s="20"/>
       <c r="F51" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
@@ -3044,10 +3053,10 @@
       <c r="D52" s="21"/>
       <c r="E52" s="21"/>
       <c r="F52" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G52" s="17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H52" s="21"/>
       <c r="I52" s="21"/>
@@ -3075,7 +3084,7 @@
         <v>16.0</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="26" t="s">
@@ -3094,7 +3103,7 @@
         <v>67</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
@@ -3122,10 +3131,10 @@
       <c r="D54" s="20"/>
       <c r="E54" s="36"/>
       <c r="F54" s="17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H54" s="20"/>
       <c r="I54" s="20"/>
@@ -3158,7 +3167,7 @@
         <v>83</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H55" s="21"/>
       <c r="I55" s="21"/>
@@ -3186,7 +3195,7 @@
         <v>16.0</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C56" s="15"/>
       <c r="D56" s="37" t="s">
@@ -3231,10 +3240,10 @@
       <c r="D57" s="20"/>
       <c r="E57" s="29"/>
       <c r="F57" s="17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G57" s="17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H57" s="21"/>
       <c r="I57" s="19"/>
@@ -3262,7 +3271,7 @@
         <v>17.0</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="38" t="s">
@@ -3272,10 +3281,10 @@
         <v>59</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G58" s="17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H58" s="39" t="s">
         <v>15</v>
@@ -3302,7 +3311,7 @@
     </row>
     <row r="59">
       <c r="A59" s="23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -3336,20 +3345,20 @@
         <v>18.0</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C60" s="15"/>
       <c r="D60" s="26" t="s">
         <v>49</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F60" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G60" s="17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H60" s="18" t="s">
         <v>15</v>
@@ -3381,10 +3390,10 @@
       <c r="D61" s="21"/>
       <c r="E61" s="21"/>
       <c r="F61" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G61" s="17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H61" s="21"/>
       <c r="I61" s="19"/>
@@ -3412,20 +3421,20 @@
         <v>19.0</v>
       </c>
       <c r="B62" s="35" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C62" s="15"/>
       <c r="D62" s="26" t="s">
         <v>11</v>
       </c>
       <c r="E62" s="35" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F62" s="17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G62" s="17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H62" s="18" t="s">
         <v>15</v>
@@ -3457,10 +3466,10 @@
       <c r="D63" s="21"/>
       <c r="E63" s="29"/>
       <c r="F63" s="17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G63" s="17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H63" s="21"/>
       <c r="I63" s="19"/>
@@ -3488,20 +3497,20 @@
         <v>20.0</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C64" s="15"/>
       <c r="D64" s="26" t="s">
         <v>11</v>
       </c>
       <c r="E64" s="35" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F64" s="17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G64" s="17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H64" s="18" t="s">
         <v>15</v>
@@ -3533,10 +3542,10 @@
       <c r="D65" s="20"/>
       <c r="E65" s="36"/>
       <c r="F65" s="17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G65" s="17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H65" s="20"/>
       <c r="I65" s="19"/>
@@ -3566,10 +3575,10 @@
       <c r="D66" s="21"/>
       <c r="E66" s="29"/>
       <c r="F66" s="17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G66" s="17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H66" s="21"/>
       <c r="I66" s="19"/>
@@ -3597,20 +3606,20 @@
         <v>21.0</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C67" s="19"/>
       <c r="D67" s="38" t="s">
         <v>49</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F67" s="17" t="s">
         <v>65</v>
       </c>
       <c r="G67" s="17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H67" s="33" t="s">
         <v>67</v>
@@ -3642,14 +3651,14 @@
         <v>22.0</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C68" s="15"/>
       <c r="D68" s="26" t="s">
         <v>11</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F68" s="17" t="s">
         <v>70</v>
@@ -3657,10 +3666,12 @@
       <c r="G68" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="H68" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="I68" s="19"/>
+      <c r="H68" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="I68" s="40" t="s">
+        <v>125</v>
+      </c>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c r="L68" s="9"/>
@@ -3693,7 +3704,7 @@
         <v>74</v>
       </c>
       <c r="H69" s="20"/>
-      <c r="I69" s="19"/>
+      <c r="I69" s="36"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c r="L69" s="9"/>
@@ -3726,7 +3737,7 @@
         <v>76</v>
       </c>
       <c r="H70" s="20"/>
-      <c r="I70" s="19"/>
+      <c r="I70" s="36"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c r="L70" s="9"/>
@@ -3759,7 +3770,7 @@
         <v>78</v>
       </c>
       <c r="H71" s="20"/>
-      <c r="I71" s="19"/>
+      <c r="I71" s="36"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c r="L71" s="9"/>
@@ -3789,10 +3800,10 @@
         <v>79</v>
       </c>
       <c r="G72" s="17" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H72" s="21"/>
-      <c r="I72" s="19"/>
+      <c r="I72" s="29"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c r="L72" s="9"/>
@@ -3817,14 +3828,14 @@
         <v>23.0</v>
       </c>
       <c r="B73" s="35" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C73" s="15"/>
       <c r="D73" s="26" t="s">
         <v>11</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F73" s="17" t="s">
         <v>70</v>
@@ -3836,7 +3847,7 @@
         <v>67</v>
       </c>
       <c r="I73" s="14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
@@ -3900,7 +3911,7 @@
         <v>83</v>
       </c>
       <c r="G75" s="17" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H75" s="21"/>
       <c r="I75" s="21"/>
@@ -3928,14 +3939,14 @@
         <v>24.0</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C76" s="15"/>
       <c r="D76" s="26" t="s">
         <v>49</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F76" s="17" t="s">
         <v>70</v>
@@ -3947,7 +3958,7 @@
         <v>67</v>
       </c>
       <c r="I76" s="14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
@@ -4011,7 +4022,7 @@
         <v>83</v>
       </c>
       <c r="G78" s="17" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H78" s="21"/>
       <c r="I78" s="21"/>
@@ -4039,14 +4050,14 @@
         <v>25.0</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C79" s="15"/>
       <c r="D79" s="26" t="s">
         <v>11</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F79" s="17" t="s">
         <v>70</v>
@@ -4058,7 +4069,7 @@
         <v>67</v>
       </c>
       <c r="I79" s="14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
@@ -4086,10 +4097,10 @@
       <c r="D80" s="20"/>
       <c r="E80" s="20"/>
       <c r="F80" s="17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G80" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H80" s="20"/>
       <c r="I80" s="20"/>
@@ -4119,10 +4130,10 @@
       <c r="D81" s="20"/>
       <c r="E81" s="20"/>
       <c r="F81" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G81" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H81" s="20"/>
       <c r="I81" s="20"/>
@@ -4152,10 +4163,10 @@
       <c r="D82" s="21"/>
       <c r="E82" s="21"/>
       <c r="F82" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G82" s="17" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H82" s="21"/>
       <c r="I82" s="21"/>
@@ -4183,14 +4194,14 @@
         <v>26.0</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C83" s="15"/>
       <c r="D83" s="26" t="s">
         <v>49</v>
       </c>
       <c r="E83" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F83" s="17" t="s">
         <v>70</v>
@@ -4201,9 +4212,7 @@
       <c r="H83" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="I83" s="14" t="s">
-        <v>126</v>
-      </c>
+      <c r="I83" s="14"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c r="L83" s="9"/>
@@ -4230,10 +4239,10 @@
       <c r="D84" s="20"/>
       <c r="E84" s="20"/>
       <c r="F84" s="17" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G84" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H84" s="20"/>
       <c r="I84" s="20"/>
@@ -4266,7 +4275,7 @@
         <v>83</v>
       </c>
       <c r="G85" s="17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H85" s="21"/>
       <c r="I85" s="21"/>
@@ -4294,14 +4303,14 @@
         <v>27.0</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C86" s="15"/>
       <c r="D86" s="26" t="s">
         <v>49</v>
       </c>
       <c r="E86" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F86" s="17" t="s">
         <v>70</v>
@@ -4312,9 +4321,7 @@
       <c r="H86" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="I86" s="14" t="s">
-        <v>126</v>
-      </c>
+      <c r="I86" s="14"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c r="L86" s="9"/>
@@ -4341,10 +4348,10 @@
       <c r="D87" s="20"/>
       <c r="E87" s="20"/>
       <c r="F87" s="17" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G87" s="17" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H87" s="20"/>
       <c r="I87" s="20"/>
@@ -4377,7 +4384,7 @@
         <v>83</v>
       </c>
       <c r="G88" s="17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H88" s="21"/>
       <c r="I88" s="21"/>
@@ -4405,14 +4412,14 @@
         <v>28.0</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C89" s="15"/>
       <c r="D89" s="26" t="s">
         <v>11</v>
       </c>
       <c r="E89" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F89" s="17" t="s">
         <v>70</v>
@@ -4423,9 +4430,7 @@
       <c r="H89" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="I89" s="14" t="s">
-        <v>126</v>
-      </c>
+      <c r="I89" s="14"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c r="L89" s="9"/>
@@ -4452,10 +4457,10 @@
       <c r="D90" s="20"/>
       <c r="E90" s="20"/>
       <c r="F90" s="17" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G90" s="17" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H90" s="20"/>
       <c r="I90" s="20"/>
@@ -4488,7 +4493,7 @@
         <v>83</v>
       </c>
       <c r="G91" s="17" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H91" s="21"/>
       <c r="I91" s="21"/>
@@ -4516,14 +4521,14 @@
         <v>29.0</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C92" s="15"/>
       <c r="D92" s="26" t="s">
         <v>11</v>
       </c>
       <c r="E92" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F92" s="17" t="s">
         <v>70</v>
@@ -4534,9 +4539,7 @@
       <c r="H92" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="I92" s="14" t="s">
-        <v>126</v>
-      </c>
+      <c r="I92" s="14"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c r="L92" s="9"/>
@@ -4563,10 +4566,10 @@
       <c r="D93" s="20"/>
       <c r="E93" s="20"/>
       <c r="F93" s="17" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G93" s="17" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H93" s="20"/>
       <c r="I93" s="20"/>
@@ -4599,7 +4602,7 @@
         <v>83</v>
       </c>
       <c r="G94" s="17" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H94" s="21"/>
       <c r="I94" s="21"/>
@@ -4627,20 +4630,20 @@
         <v>30.0</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C95" s="15"/>
       <c r="D95" s="26" t="s">
         <v>11</v>
       </c>
       <c r="E95" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F95" s="17" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G95" s="17" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H95" s="18" t="s">
         <v>15</v>
@@ -4672,10 +4675,10 @@
       <c r="D96" s="20"/>
       <c r="E96" s="20"/>
       <c r="F96" s="17" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G96" s="17" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H96" s="20"/>
       <c r="I96" s="19"/>
@@ -4705,10 +4708,10 @@
       <c r="D97" s="20"/>
       <c r="E97" s="20"/>
       <c r="F97" s="17" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G97" s="17" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H97" s="20"/>
       <c r="I97" s="19"/>
@@ -4738,10 +4741,10 @@
       <c r="D98" s="20"/>
       <c r="E98" s="20"/>
       <c r="F98" s="17" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G98" s="17" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H98" s="20"/>
       <c r="I98" s="19"/>
@@ -4771,10 +4774,10 @@
       <c r="D99" s="20"/>
       <c r="E99" s="20"/>
       <c r="F99" s="17" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G99" s="17" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H99" s="20"/>
       <c r="I99" s="19"/>
@@ -4804,10 +4807,10 @@
       <c r="D100" s="20"/>
       <c r="E100" s="20"/>
       <c r="F100" s="17" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G100" s="17" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H100" s="20"/>
       <c r="I100" s="19"/>
@@ -4837,10 +4840,10 @@
       <c r="D101" s="21"/>
       <c r="E101" s="21"/>
       <c r="F101" s="17" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G101" s="17" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H101" s="21"/>
       <c r="I101" s="19"/>
@@ -4868,20 +4871,20 @@
         <v>31.0</v>
       </c>
       <c r="B102" s="35" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C102" s="15"/>
       <c r="D102" s="26" t="s">
         <v>11</v>
       </c>
       <c r="E102" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F102" s="17" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G102" s="17" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H102" s="18" t="s">
         <v>15</v>
@@ -4913,10 +4916,10 @@
       <c r="D103" s="21"/>
       <c r="E103" s="21"/>
       <c r="F103" s="17" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G103" s="17" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H103" s="21"/>
       <c r="I103" s="19"/>
@@ -4944,26 +4947,26 @@
         <v>32.0</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C104" s="15"/>
       <c r="D104" s="26" t="s">
         <v>11</v>
       </c>
       <c r="E104" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F104" s="17" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G104" s="17" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H104" s="34" t="s">
         <v>67</v>
       </c>
       <c r="I104" s="14" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
@@ -4991,10 +4994,10 @@
       <c r="D105" s="20"/>
       <c r="E105" s="20"/>
       <c r="F105" s="17" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G105" s="17" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H105" s="20"/>
       <c r="I105" s="20"/>
@@ -5024,10 +5027,10 @@
       <c r="D106" s="20"/>
       <c r="E106" s="20"/>
       <c r="F106" s="17" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G106" s="17" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H106" s="20"/>
       <c r="I106" s="20"/>
@@ -5057,10 +5060,10 @@
       <c r="D107" s="20"/>
       <c r="E107" s="20"/>
       <c r="F107" s="17" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G107" s="17" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H107" s="20"/>
       <c r="I107" s="20"/>
@@ -5090,10 +5093,10 @@
       <c r="D108" s="20"/>
       <c r="E108" s="20"/>
       <c r="F108" s="17" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G108" s="17" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H108" s="20"/>
       <c r="I108" s="20"/>
@@ -5123,10 +5126,10 @@
       <c r="D109" s="21"/>
       <c r="E109" s="21"/>
       <c r="F109" s="17" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G109" s="17" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H109" s="21"/>
       <c r="I109" s="21"/>
@@ -5154,26 +5157,26 @@
         <v>33.0</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C110" s="15"/>
       <c r="D110" s="26" t="s">
         <v>11</v>
       </c>
       <c r="E110" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F110" s="17" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G110" s="17" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H110" s="34" t="s">
         <v>67</v>
       </c>
       <c r="I110" s="14" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
@@ -5201,10 +5204,10 @@
       <c r="D111" s="20"/>
       <c r="E111" s="20"/>
       <c r="F111" s="17" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G111" s="17" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H111" s="20"/>
       <c r="I111" s="20"/>
@@ -5234,10 +5237,10 @@
       <c r="D112" s="20"/>
       <c r="E112" s="20"/>
       <c r="F112" s="17" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G112" s="17" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H112" s="20"/>
       <c r="I112" s="20"/>
@@ -5267,10 +5270,10 @@
       <c r="D113" s="20"/>
       <c r="E113" s="20"/>
       <c r="F113" s="17" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G113" s="17" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H113" s="20"/>
       <c r="I113" s="20"/>
@@ -5300,10 +5303,10 @@
       <c r="D114" s="20"/>
       <c r="E114" s="20"/>
       <c r="F114" s="17" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G114" s="17" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H114" s="20"/>
       <c r="I114" s="20"/>
@@ -5333,10 +5336,10 @@
       <c r="D115" s="21"/>
       <c r="E115" s="21"/>
       <c r="F115" s="17" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G115" s="17" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H115" s="21"/>
       <c r="I115" s="21"/>
@@ -5364,26 +5367,26 @@
         <v>34.0</v>
       </c>
       <c r="B116" s="14" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C116" s="15"/>
       <c r="D116" s="26" t="s">
         <v>11</v>
       </c>
       <c r="E116" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F116" s="17" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G116" s="17" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H116" s="34" t="s">
         <v>67</v>
       </c>
       <c r="I116" s="14" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
@@ -5411,10 +5414,10 @@
       <c r="D117" s="20"/>
       <c r="E117" s="20"/>
       <c r="F117" s="17" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G117" s="17" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H117" s="20"/>
       <c r="I117" s="20"/>
@@ -5444,10 +5447,10 @@
       <c r="D118" s="20"/>
       <c r="E118" s="20"/>
       <c r="F118" s="17" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G118" s="17" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H118" s="20"/>
       <c r="I118" s="20"/>
@@ -5477,10 +5480,10 @@
       <c r="D119" s="20"/>
       <c r="E119" s="20"/>
       <c r="F119" s="17" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G119" s="17" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H119" s="20"/>
       <c r="I119" s="20"/>
@@ -5510,10 +5513,10 @@
       <c r="D120" s="20"/>
       <c r="E120" s="20"/>
       <c r="F120" s="17" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G120" s="17" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H120" s="20"/>
       <c r="I120" s="20"/>
@@ -5543,10 +5546,10 @@
       <c r="D121" s="21"/>
       <c r="E121" s="21"/>
       <c r="F121" s="17" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G121" s="17" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H121" s="21"/>
       <c r="I121" s="21"/>
@@ -5574,26 +5577,26 @@
         <v>35.0</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C122" s="15"/>
       <c r="D122" s="26" t="s">
         <v>11</v>
       </c>
       <c r="E122" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F122" s="17" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G122" s="17" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H122" s="34" t="s">
         <v>67</v>
       </c>
       <c r="I122" s="14" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
@@ -5621,10 +5624,10 @@
       <c r="D123" s="20"/>
       <c r="E123" s="20"/>
       <c r="F123" s="17" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G123" s="17" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H123" s="20"/>
       <c r="I123" s="20"/>
@@ -5654,10 +5657,10 @@
       <c r="D124" s="20"/>
       <c r="E124" s="20"/>
       <c r="F124" s="17" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G124" s="17" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H124" s="20"/>
       <c r="I124" s="20"/>
@@ -5687,10 +5690,10 @@
       <c r="D125" s="20"/>
       <c r="E125" s="20"/>
       <c r="F125" s="17" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G125" s="17" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H125" s="20"/>
       <c r="I125" s="20"/>
@@ -5720,10 +5723,10 @@
       <c r="D126" s="20"/>
       <c r="E126" s="20"/>
       <c r="F126" s="17" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G126" s="17" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H126" s="20"/>
       <c r="I126" s="20"/>
@@ -5753,10 +5756,10 @@
       <c r="D127" s="21"/>
       <c r="E127" s="21"/>
       <c r="F127" s="17" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G127" s="17" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H127" s="21"/>
       <c r="I127" s="21"/>
@@ -5784,26 +5787,26 @@
         <v>36.0</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C128" s="15"/>
       <c r="D128" s="26" t="s">
         <v>11</v>
       </c>
       <c r="E128" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F128" s="17" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G128" s="17" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H128" s="34" t="s">
         <v>67</v>
       </c>
       <c r="I128" s="14" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
@@ -5831,10 +5834,10 @@
       <c r="D129" s="20"/>
       <c r="E129" s="20"/>
       <c r="F129" s="17" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G129" s="17" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H129" s="20"/>
       <c r="I129" s="20"/>
@@ -5864,10 +5867,10 @@
       <c r="D130" s="20"/>
       <c r="E130" s="20"/>
       <c r="F130" s="17" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G130" s="17" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H130" s="20"/>
       <c r="I130" s="20"/>
@@ -5897,10 +5900,10 @@
       <c r="D131" s="20"/>
       <c r="E131" s="20"/>
       <c r="F131" s="17" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G131" s="17" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H131" s="20"/>
       <c r="I131" s="20"/>
@@ -5930,10 +5933,10 @@
       <c r="D132" s="20"/>
       <c r="E132" s="20"/>
       <c r="F132" s="17" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G132" s="17" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H132" s="20"/>
       <c r="I132" s="20"/>
@@ -5963,10 +5966,10 @@
       <c r="D133" s="21"/>
       <c r="E133" s="21"/>
       <c r="F133" s="17" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G133" s="17" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H133" s="21"/>
       <c r="I133" s="21"/>
@@ -5994,20 +5997,20 @@
         <v>37.0</v>
       </c>
       <c r="B134" s="14" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C134" s="15"/>
       <c r="D134" s="37" t="s">
         <v>11</v>
       </c>
       <c r="E134" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F134" s="17" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G134" s="17" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H134" s="18" t="s">
         <v>15</v>
@@ -6039,10 +6042,10 @@
       <c r="D135" s="20"/>
       <c r="E135" s="20"/>
       <c r="F135" s="17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G135" s="17" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H135" s="20"/>
       <c r="I135" s="19"/>
@@ -6072,10 +6075,10 @@
       <c r="D136" s="21"/>
       <c r="E136" s="21"/>
       <c r="F136" s="17" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G136" s="17" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H136" s="21"/>
       <c r="I136" s="19"/>
@@ -6099,8 +6102,8 @@
       <c r="AA136" s="9"/>
     </row>
     <row r="137">
-      <c r="A137" s="40" t="s">
-        <v>183</v>
+      <c r="A137" s="41" t="s">
+        <v>185</v>
       </c>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
@@ -6134,7 +6137,7 @@
         <v>38.0</v>
       </c>
       <c r="B138" s="14" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C138" s="15"/>
       <c r="D138" s="26" t="s">
@@ -6147,7 +6150,7 @@
         <v>54</v>
       </c>
       <c r="G138" s="17" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H138" s="34" t="s">
         <v>67</v>
@@ -6179,10 +6182,10 @@
       <c r="D139" s="20"/>
       <c r="E139" s="20"/>
       <c r="F139" s="17" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G139" s="17" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H139" s="20"/>
       <c r="I139" s="19"/>
@@ -6212,14 +6215,14 @@
       <c r="D140" s="21"/>
       <c r="E140" s="21"/>
       <c r="F140" s="17" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G140" s="17" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H140" s="21"/>
       <c r="I140" s="17" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J140" s="9"/>
       <c r="K140" s="9"/>
@@ -6245,7 +6248,7 @@
         <v>39.0</v>
       </c>
       <c r="B141" s="14" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C141" s="15"/>
       <c r="D141" s="26" t="s">
@@ -6258,7 +6261,7 @@
         <v>54</v>
       </c>
       <c r="G141" s="17" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H141" s="34" t="s">
         <v>67</v>
@@ -6290,10 +6293,10 @@
       <c r="D142" s="20"/>
       <c r="E142" s="20"/>
       <c r="F142" s="17" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G142" s="17" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H142" s="20"/>
       <c r="I142" s="19"/>
@@ -6323,14 +6326,14 @@
       <c r="D143" s="21"/>
       <c r="E143" s="21"/>
       <c r="F143" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G143" s="17" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H143" s="21"/>
       <c r="I143" s="17" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J143" s="9"/>
       <c r="K143" s="9"/>
@@ -6356,7 +6359,7 @@
         <v>40.0</v>
       </c>
       <c r="B144" s="14" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C144" s="15"/>
       <c r="D144" s="26" t="s">
@@ -6369,7 +6372,7 @@
         <v>54</v>
       </c>
       <c r="G144" s="17" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H144" s="18" t="s">
         <v>15</v>
@@ -6401,10 +6404,10 @@
       <c r="D145" s="20"/>
       <c r="E145" s="20"/>
       <c r="F145" s="17" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G145" s="17" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H145" s="20"/>
       <c r="I145" s="19"/>
@@ -6434,10 +6437,10 @@
       <c r="D146" s="21"/>
       <c r="E146" s="21"/>
       <c r="F146" s="17" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G146" s="17" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H146" s="21"/>
       <c r="I146" s="19"/>
@@ -6462,7 +6465,7 @@
     </row>
     <row r="147">
       <c r="A147" s="10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
@@ -6496,7 +6499,7 @@
         <v>41.0</v>
       </c>
       <c r="B148" s="14" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C148" s="15"/>
       <c r="D148" s="26" t="s">
@@ -6506,10 +6509,10 @@
         <v>38</v>
       </c>
       <c r="F148" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G148" s="17" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H148" s="18" t="s">
         <v>15</v>
@@ -6541,10 +6544,10 @@
       <c r="D149" s="20"/>
       <c r="E149" s="20"/>
       <c r="F149" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G149" s="17" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H149" s="20"/>
       <c r="I149" s="19"/>
@@ -6574,10 +6577,10 @@
       <c r="D150" s="21"/>
       <c r="E150" s="21"/>
       <c r="F150" s="17" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G150" s="17" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H150" s="21"/>
       <c r="I150" s="19"/>
@@ -6602,7 +6605,7 @@
     </row>
     <row r="151">
       <c r="A151" s="10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
@@ -6636,7 +6639,7 @@
         <v>42.0</v>
       </c>
       <c r="B152" s="14" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C152" s="15"/>
       <c r="D152" s="26" t="s">
@@ -6646,10 +6649,10 @@
         <v>38</v>
       </c>
       <c r="F152" s="17" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G152" s="17" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H152" s="18" t="s">
         <v>15</v>
@@ -6681,10 +6684,10 @@
       <c r="D153" s="21"/>
       <c r="E153" s="21"/>
       <c r="F153" s="17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G153" s="17" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H153" s="21"/>
       <c r="I153" s="19"/>
@@ -6737,7 +6740,7 @@
       <c r="AA154" s="9"/>
     </row>
     <row r="155">
-      <c r="A155" s="41"/>
+      <c r="A155" s="42"/>
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
@@ -6766,7 +6769,7 @@
       <c r="AA155" s="9"/>
     </row>
     <row r="156">
-      <c r="A156" s="41"/>
+      <c r="A156" s="42"/>
       <c r="B156" s="9"/>
       <c r="C156" s="9"/>
       <c r="D156" s="9"/>
@@ -6795,7 +6798,7 @@
       <c r="AA156" s="9"/>
     </row>
     <row r="157">
-      <c r="A157" s="41"/>
+      <c r="A157" s="42"/>
       <c r="B157" s="9"/>
       <c r="C157" s="9"/>
       <c r="D157" s="9"/>
@@ -6824,7 +6827,7 @@
       <c r="AA157" s="9"/>
     </row>
     <row r="158">
-      <c r="A158" s="41"/>
+      <c r="A158" s="42"/>
       <c r="B158" s="9"/>
       <c r="C158" s="9"/>
       <c r="D158" s="9"/>
@@ -6853,7 +6856,7 @@
       <c r="AA158" s="9"/>
     </row>
     <row r="159">
-      <c r="A159" s="41"/>
+      <c r="A159" s="42"/>
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
       <c r="D159" s="9"/>
@@ -6882,7 +6885,7 @@
       <c r="AA159" s="9"/>
     </row>
     <row r="160">
-      <c r="A160" s="41"/>
+      <c r="A160" s="42"/>
       <c r="B160" s="9"/>
       <c r="C160" s="9"/>
       <c r="D160" s="9"/>
@@ -6911,7 +6914,7 @@
       <c r="AA160" s="9"/>
     </row>
     <row r="161">
-      <c r="A161" s="41"/>
+      <c r="A161" s="42"/>
       <c r="B161" s="9"/>
       <c r="C161" s="9"/>
       <c r="D161" s="9"/>
@@ -6940,7 +6943,7 @@
       <c r="AA161" s="9"/>
     </row>
     <row r="162">
-      <c r="A162" s="41"/>
+      <c r="A162" s="42"/>
       <c r="B162" s="9"/>
       <c r="C162" s="9"/>
       <c r="D162" s="9"/>
@@ -6969,7 +6972,7 @@
       <c r="AA162" s="9"/>
     </row>
     <row r="163">
-      <c r="A163" s="41"/>
+      <c r="A163" s="42"/>
       <c r="B163" s="9"/>
       <c r="C163" s="9"/>
       <c r="D163" s="9"/>
@@ -6998,7 +7001,7 @@
       <c r="AA163" s="9"/>
     </row>
     <row r="164">
-      <c r="A164" s="41"/>
+      <c r="A164" s="42"/>
       <c r="B164" s="9"/>
       <c r="C164" s="9"/>
       <c r="D164" s="9"/>
@@ -7027,7 +7030,7 @@
       <c r="AA164" s="9"/>
     </row>
     <row r="165">
-      <c r="A165" s="41"/>
+      <c r="A165" s="42"/>
       <c r="B165" s="9"/>
       <c r="C165" s="9"/>
       <c r="D165" s="9"/>
@@ -7056,7 +7059,7 @@
       <c r="AA165" s="9"/>
     </row>
     <row r="166">
-      <c r="A166" s="41"/>
+      <c r="A166" s="42"/>
       <c r="B166" s="9"/>
       <c r="C166" s="9"/>
       <c r="D166" s="9"/>
@@ -7085,7 +7088,7 @@
       <c r="AA166" s="9"/>
     </row>
     <row r="167">
-      <c r="A167" s="41"/>
+      <c r="A167" s="42"/>
       <c r="B167" s="9"/>
       <c r="C167" s="9"/>
       <c r="D167" s="9"/>
@@ -7114,7 +7117,7 @@
       <c r="AA167" s="9"/>
     </row>
     <row r="168">
-      <c r="A168" s="41"/>
+      <c r="A168" s="42"/>
       <c r="B168" s="9"/>
       <c r="C168" s="9"/>
       <c r="D168" s="9"/>
@@ -7143,7 +7146,7 @@
       <c r="AA168" s="9"/>
     </row>
     <row r="169">
-      <c r="A169" s="41"/>
+      <c r="A169" s="42"/>
       <c r="B169" s="9"/>
       <c r="C169" s="9"/>
       <c r="D169" s="9"/>
@@ -7172,7 +7175,7 @@
       <c r="AA169" s="9"/>
     </row>
     <row r="170">
-      <c r="A170" s="41"/>
+      <c r="A170" s="42"/>
       <c r="B170" s="9"/>
       <c r="C170" s="9"/>
       <c r="D170" s="9"/>
@@ -7201,7 +7204,7 @@
       <c r="AA170" s="9"/>
     </row>
     <row r="171">
-      <c r="A171" s="41"/>
+      <c r="A171" s="42"/>
       <c r="B171" s="9"/>
       <c r="C171" s="9"/>
       <c r="D171" s="9"/>
@@ -7230,7 +7233,7 @@
       <c r="AA171" s="9"/>
     </row>
     <row r="172">
-      <c r="A172" s="41"/>
+      <c r="A172" s="42"/>
       <c r="B172" s="9"/>
       <c r="C172" s="9"/>
       <c r="D172" s="9"/>
@@ -7259,7 +7262,7 @@
       <c r="AA172" s="9"/>
     </row>
     <row r="173">
-      <c r="A173" s="41"/>
+      <c r="A173" s="42"/>
       <c r="B173" s="9"/>
       <c r="C173" s="9"/>
       <c r="D173" s="9"/>
@@ -7288,7 +7291,7 @@
       <c r="AA173" s="9"/>
     </row>
     <row r="174">
-      <c r="A174" s="41"/>
+      <c r="A174" s="42"/>
       <c r="B174" s="9"/>
       <c r="C174" s="9"/>
       <c r="D174" s="9"/>
@@ -7317,7 +7320,7 @@
       <c r="AA174" s="9"/>
     </row>
     <row r="175">
-      <c r="A175" s="41"/>
+      <c r="A175" s="42"/>
       <c r="B175" s="9"/>
       <c r="C175" s="9"/>
       <c r="D175" s="9"/>
@@ -7346,7 +7349,7 @@
       <c r="AA175" s="9"/>
     </row>
     <row r="176">
-      <c r="A176" s="41"/>
+      <c r="A176" s="42"/>
       <c r="B176" s="9"/>
       <c r="C176" s="9"/>
       <c r="D176" s="9"/>
@@ -7375,7 +7378,7 @@
       <c r="AA176" s="9"/>
     </row>
     <row r="177">
-      <c r="A177" s="41"/>
+      <c r="A177" s="42"/>
       <c r="B177" s="9"/>
       <c r="C177" s="9"/>
       <c r="D177" s="9"/>
@@ -7404,7 +7407,7 @@
       <c r="AA177" s="9"/>
     </row>
     <row r="178">
-      <c r="A178" s="41"/>
+      <c r="A178" s="42"/>
       <c r="B178" s="9"/>
       <c r="C178" s="9"/>
       <c r="D178" s="9"/>
@@ -7433,7 +7436,7 @@
       <c r="AA178" s="9"/>
     </row>
     <row r="179">
-      <c r="A179" s="41"/>
+      <c r="A179" s="42"/>
       <c r="B179" s="9"/>
       <c r="C179" s="9"/>
       <c r="D179" s="9"/>
@@ -7462,7 +7465,7 @@
       <c r="AA179" s="9"/>
     </row>
     <row r="180">
-      <c r="A180" s="41"/>
+      <c r="A180" s="42"/>
       <c r="B180" s="9"/>
       <c r="C180" s="9"/>
       <c r="D180" s="9"/>
@@ -7491,7 +7494,7 @@
       <c r="AA180" s="9"/>
     </row>
     <row r="181">
-      <c r="A181" s="41"/>
+      <c r="A181" s="42"/>
       <c r="B181" s="9"/>
       <c r="C181" s="9"/>
       <c r="D181" s="9"/>
@@ -7520,7 +7523,7 @@
       <c r="AA181" s="9"/>
     </row>
     <row r="182">
-      <c r="A182" s="41"/>
+      <c r="A182" s="42"/>
       <c r="B182" s="9"/>
       <c r="C182" s="9"/>
       <c r="D182" s="9"/>
@@ -7549,7 +7552,7 @@
       <c r="AA182" s="9"/>
     </row>
     <row r="183">
-      <c r="A183" s="41"/>
+      <c r="A183" s="42"/>
       <c r="B183" s="9"/>
       <c r="C183" s="9"/>
       <c r="D183" s="9"/>
@@ -7578,7 +7581,7 @@
       <c r="AA183" s="9"/>
     </row>
     <row r="184">
-      <c r="A184" s="41"/>
+      <c r="A184" s="42"/>
       <c r="B184" s="9"/>
       <c r="C184" s="9"/>
       <c r="D184" s="9"/>
@@ -7607,7 +7610,7 @@
       <c r="AA184" s="9"/>
     </row>
     <row r="185">
-      <c r="A185" s="41"/>
+      <c r="A185" s="42"/>
       <c r="B185" s="9"/>
       <c r="C185" s="9"/>
       <c r="D185" s="9"/>
@@ -7636,7 +7639,7 @@
       <c r="AA185" s="9"/>
     </row>
     <row r="186">
-      <c r="A186" s="41"/>
+      <c r="A186" s="42"/>
       <c r="B186" s="9"/>
       <c r="C186" s="9"/>
       <c r="D186" s="9"/>
@@ -7665,7 +7668,7 @@
       <c r="AA186" s="9"/>
     </row>
     <row r="187">
-      <c r="A187" s="41"/>
+      <c r="A187" s="42"/>
       <c r="B187" s="9"/>
       <c r="C187" s="9"/>
       <c r="D187" s="9"/>
@@ -7694,7 +7697,7 @@
       <c r="AA187" s="9"/>
     </row>
     <row r="188">
-      <c r="A188" s="41"/>
+      <c r="A188" s="42"/>
       <c r="B188" s="9"/>
       <c r="C188" s="9"/>
       <c r="D188" s="9"/>
@@ -7723,7 +7726,7 @@
       <c r="AA188" s="9"/>
     </row>
     <row r="189">
-      <c r="A189" s="41"/>
+      <c r="A189" s="42"/>
       <c r="B189" s="9"/>
       <c r="C189" s="9"/>
       <c r="D189" s="9"/>
@@ -7752,7 +7755,7 @@
       <c r="AA189" s="9"/>
     </row>
     <row r="190">
-      <c r="A190" s="41"/>
+      <c r="A190" s="42"/>
       <c r="B190" s="9"/>
       <c r="C190" s="9"/>
       <c r="D190" s="9"/>
@@ -7781,7 +7784,7 @@
       <c r="AA190" s="9"/>
     </row>
     <row r="191">
-      <c r="A191" s="41"/>
+      <c r="A191" s="42"/>
       <c r="B191" s="9"/>
       <c r="C191" s="9"/>
       <c r="D191" s="9"/>
@@ -7810,7 +7813,7 @@
       <c r="AA191" s="9"/>
     </row>
     <row r="192">
-      <c r="A192" s="41"/>
+      <c r="A192" s="42"/>
       <c r="B192" s="9"/>
       <c r="C192" s="9"/>
       <c r="D192" s="9"/>
@@ -7839,7 +7842,7 @@
       <c r="AA192" s="9"/>
     </row>
     <row r="193">
-      <c r="A193" s="41"/>
+      <c r="A193" s="42"/>
       <c r="B193" s="9"/>
       <c r="C193" s="9"/>
       <c r="D193" s="9"/>
@@ -7868,7 +7871,7 @@
       <c r="AA193" s="9"/>
     </row>
     <row r="194">
-      <c r="A194" s="41"/>
+      <c r="A194" s="42"/>
       <c r="B194" s="9"/>
       <c r="C194" s="9"/>
       <c r="D194" s="9"/>
@@ -7897,7 +7900,7 @@
       <c r="AA194" s="9"/>
     </row>
     <row r="195">
-      <c r="A195" s="41"/>
+      <c r="A195" s="42"/>
       <c r="B195" s="9"/>
       <c r="C195" s="9"/>
       <c r="D195" s="9"/>
@@ -7926,7 +7929,7 @@
       <c r="AA195" s="9"/>
     </row>
     <row r="196">
-      <c r="A196" s="41"/>
+      <c r="A196" s="42"/>
       <c r="B196" s="9"/>
       <c r="C196" s="9"/>
       <c r="D196" s="9"/>
@@ -7955,7 +7958,7 @@
       <c r="AA196" s="9"/>
     </row>
     <row r="197">
-      <c r="A197" s="41"/>
+      <c r="A197" s="42"/>
       <c r="B197" s="9"/>
       <c r="C197" s="9"/>
       <c r="D197" s="9"/>
@@ -7984,7 +7987,7 @@
       <c r="AA197" s="9"/>
     </row>
     <row r="198">
-      <c r="A198" s="41"/>
+      <c r="A198" s="42"/>
       <c r="B198" s="9"/>
       <c r="C198" s="9"/>
       <c r="D198" s="9"/>
@@ -8013,7 +8016,7 @@
       <c r="AA198" s="9"/>
     </row>
     <row r="199">
-      <c r="A199" s="41"/>
+      <c r="A199" s="42"/>
       <c r="B199" s="9"/>
       <c r="C199" s="9"/>
       <c r="D199" s="9"/>
@@ -8042,7 +8045,7 @@
       <c r="AA199" s="9"/>
     </row>
     <row r="200">
-      <c r="A200" s="41"/>
+      <c r="A200" s="42"/>
       <c r="B200" s="9"/>
       <c r="C200" s="9"/>
       <c r="D200" s="9"/>
@@ -8071,7 +8074,7 @@
       <c r="AA200" s="9"/>
     </row>
     <row r="201">
-      <c r="A201" s="41"/>
+      <c r="A201" s="42"/>
       <c r="B201" s="9"/>
       <c r="C201" s="9"/>
       <c r="D201" s="9"/>
@@ -8100,7 +8103,7 @@
       <c r="AA201" s="9"/>
     </row>
     <row r="202">
-      <c r="A202" s="41"/>
+      <c r="A202" s="42"/>
       <c r="B202" s="9"/>
       <c r="C202" s="9"/>
       <c r="D202" s="9"/>
@@ -8129,7 +8132,7 @@
       <c r="AA202" s="9"/>
     </row>
     <row r="203">
-      <c r="A203" s="41"/>
+      <c r="A203" s="42"/>
       <c r="B203" s="9"/>
       <c r="C203" s="9"/>
       <c r="D203" s="9"/>
@@ -8158,7 +8161,7 @@
       <c r="AA203" s="9"/>
     </row>
     <row r="204">
-      <c r="A204" s="41"/>
+      <c r="A204" s="42"/>
       <c r="B204" s="9"/>
       <c r="C204" s="9"/>
       <c r="D204" s="9"/>
@@ -8187,7 +8190,7 @@
       <c r="AA204" s="9"/>
     </row>
     <row r="205">
-      <c r="A205" s="41"/>
+      <c r="A205" s="42"/>
       <c r="B205" s="9"/>
       <c r="C205" s="9"/>
       <c r="D205" s="9"/>
@@ -8216,7 +8219,7 @@
       <c r="AA205" s="9"/>
     </row>
     <row r="206">
-      <c r="A206" s="41"/>
+      <c r="A206" s="42"/>
       <c r="B206" s="9"/>
       <c r="C206" s="9"/>
       <c r="D206" s="9"/>
@@ -8245,7 +8248,7 @@
       <c r="AA206" s="9"/>
     </row>
     <row r="207">
-      <c r="A207" s="41"/>
+      <c r="A207" s="42"/>
       <c r="B207" s="9"/>
       <c r="C207" s="9"/>
       <c r="D207" s="9"/>
@@ -8274,7 +8277,7 @@
       <c r="AA207" s="9"/>
     </row>
     <row r="208">
-      <c r="A208" s="41"/>
+      <c r="A208" s="42"/>
       <c r="B208" s="9"/>
       <c r="C208" s="9"/>
       <c r="D208" s="9"/>
@@ -8303,7 +8306,7 @@
       <c r="AA208" s="9"/>
     </row>
     <row r="209">
-      <c r="A209" s="41"/>
+      <c r="A209" s="42"/>
       <c r="B209" s="9"/>
       <c r="C209" s="9"/>
       <c r="D209" s="9"/>
@@ -8332,7 +8335,7 @@
       <c r="AA209" s="9"/>
     </row>
     <row r="210">
-      <c r="A210" s="41"/>
+      <c r="A210" s="42"/>
       <c r="B210" s="9"/>
       <c r="C210" s="9"/>
       <c r="D210" s="9"/>
@@ -8361,7 +8364,7 @@
       <c r="AA210" s="9"/>
     </row>
     <row r="211">
-      <c r="A211" s="41"/>
+      <c r="A211" s="42"/>
       <c r="B211" s="9"/>
       <c r="C211" s="9"/>
       <c r="D211" s="9"/>
@@ -8390,7 +8393,7 @@
       <c r="AA211" s="9"/>
     </row>
     <row r="212">
-      <c r="A212" s="41"/>
+      <c r="A212" s="42"/>
       <c r="B212" s="9"/>
       <c r="C212" s="9"/>
       <c r="D212" s="9"/>
@@ -8419,7 +8422,7 @@
       <c r="AA212" s="9"/>
     </row>
     <row r="213">
-      <c r="A213" s="41"/>
+      <c r="A213" s="42"/>
       <c r="B213" s="9"/>
       <c r="C213" s="9"/>
       <c r="D213" s="9"/>
@@ -8448,7 +8451,7 @@
       <c r="AA213" s="9"/>
     </row>
     <row r="214">
-      <c r="A214" s="41"/>
+      <c r="A214" s="42"/>
       <c r="B214" s="9"/>
       <c r="C214" s="9"/>
       <c r="D214" s="9"/>
@@ -8477,7 +8480,7 @@
       <c r="AA214" s="9"/>
     </row>
     <row r="215">
-      <c r="A215" s="41"/>
+      <c r="A215" s="42"/>
       <c r="B215" s="9"/>
       <c r="C215" s="9"/>
       <c r="D215" s="9"/>
@@ -8506,7 +8509,7 @@
       <c r="AA215" s="9"/>
     </row>
     <row r="216">
-      <c r="A216" s="41"/>
+      <c r="A216" s="42"/>
       <c r="B216" s="9"/>
       <c r="C216" s="9"/>
       <c r="D216" s="9"/>
@@ -8535,7 +8538,7 @@
       <c r="AA216" s="9"/>
     </row>
     <row r="217">
-      <c r="A217" s="41"/>
+      <c r="A217" s="42"/>
       <c r="B217" s="9"/>
       <c r="C217" s="9"/>
       <c r="D217" s="9"/>
@@ -8564,7 +8567,7 @@
       <c r="AA217" s="9"/>
     </row>
     <row r="218">
-      <c r="A218" s="41"/>
+      <c r="A218" s="42"/>
       <c r="B218" s="9"/>
       <c r="C218" s="9"/>
       <c r="D218" s="9"/>
@@ -8593,7 +8596,7 @@
       <c r="AA218" s="9"/>
     </row>
     <row r="219">
-      <c r="A219" s="41"/>
+      <c r="A219" s="42"/>
       <c r="B219" s="9"/>
       <c r="C219" s="9"/>
       <c r="D219" s="9"/>
@@ -8622,7 +8625,7 @@
       <c r="AA219" s="9"/>
     </row>
     <row r="220">
-      <c r="A220" s="41"/>
+      <c r="A220" s="42"/>
       <c r="B220" s="9"/>
       <c r="C220" s="9"/>
       <c r="D220" s="9"/>
@@ -8651,7 +8654,7 @@
       <c r="AA220" s="9"/>
     </row>
     <row r="221">
-      <c r="A221" s="41"/>
+      <c r="A221" s="42"/>
       <c r="B221" s="9"/>
       <c r="C221" s="9"/>
       <c r="D221" s="9"/>
@@ -8680,7 +8683,7 @@
       <c r="AA221" s="9"/>
     </row>
     <row r="222">
-      <c r="A222" s="41"/>
+      <c r="A222" s="42"/>
       <c r="B222" s="9"/>
       <c r="C222" s="9"/>
       <c r="D222" s="9"/>
@@ -8709,7 +8712,7 @@
       <c r="AA222" s="9"/>
     </row>
     <row r="223">
-      <c r="A223" s="41"/>
+      <c r="A223" s="42"/>
       <c r="B223" s="9"/>
       <c r="C223" s="9"/>
       <c r="D223" s="9"/>
@@ -8738,7 +8741,7 @@
       <c r="AA223" s="9"/>
     </row>
     <row r="224">
-      <c r="A224" s="41"/>
+      <c r="A224" s="42"/>
       <c r="B224" s="9"/>
       <c r="C224" s="9"/>
       <c r="D224" s="9"/>
@@ -8767,7 +8770,7 @@
       <c r="AA224" s="9"/>
     </row>
     <row r="225">
-      <c r="A225" s="41"/>
+      <c r="A225" s="42"/>
       <c r="B225" s="9"/>
       <c r="C225" s="9"/>
       <c r="D225" s="9"/>
@@ -8796,7 +8799,7 @@
       <c r="AA225" s="9"/>
     </row>
     <row r="226">
-      <c r="A226" s="41"/>
+      <c r="A226" s="42"/>
       <c r="B226" s="9"/>
       <c r="C226" s="9"/>
       <c r="D226" s="9"/>
@@ -8825,7 +8828,7 @@
       <c r="AA226" s="9"/>
     </row>
     <row r="227">
-      <c r="A227" s="41"/>
+      <c r="A227" s="42"/>
       <c r="B227" s="9"/>
       <c r="C227" s="9"/>
       <c r="D227" s="9"/>
@@ -8854,7 +8857,7 @@
       <c r="AA227" s="9"/>
     </row>
     <row r="228">
-      <c r="A228" s="41"/>
+      <c r="A228" s="42"/>
       <c r="B228" s="9"/>
       <c r="C228" s="9"/>
       <c r="D228" s="9"/>
@@ -8883,7 +8886,7 @@
       <c r="AA228" s="9"/>
     </row>
     <row r="229">
-      <c r="A229" s="41"/>
+      <c r="A229" s="42"/>
       <c r="B229" s="9"/>
       <c r="C229" s="9"/>
       <c r="D229" s="9"/>
@@ -8912,7 +8915,7 @@
       <c r="AA229" s="9"/>
     </row>
     <row r="230">
-      <c r="A230" s="41"/>
+      <c r="A230" s="42"/>
       <c r="B230" s="9"/>
       <c r="C230" s="9"/>
       <c r="D230" s="9"/>
@@ -8941,7 +8944,7 @@
       <c r="AA230" s="9"/>
     </row>
     <row r="231">
-      <c r="A231" s="41"/>
+      <c r="A231" s="42"/>
       <c r="B231" s="9"/>
       <c r="C231" s="9"/>
       <c r="D231" s="9"/>
@@ -8970,7 +8973,7 @@
       <c r="AA231" s="9"/>
     </row>
     <row r="232">
-      <c r="A232" s="41"/>
+      <c r="A232" s="42"/>
       <c r="B232" s="9"/>
       <c r="C232" s="9"/>
       <c r="D232" s="9"/>
@@ -8999,7 +9002,7 @@
       <c r="AA232" s="9"/>
     </row>
     <row r="233">
-      <c r="A233" s="41"/>
+      <c r="A233" s="42"/>
       <c r="B233" s="9"/>
       <c r="C233" s="9"/>
       <c r="D233" s="9"/>
@@ -9028,7 +9031,7 @@
       <c r="AA233" s="9"/>
     </row>
     <row r="234">
-      <c r="A234" s="41"/>
+      <c r="A234" s="42"/>
       <c r="B234" s="9"/>
       <c r="C234" s="9"/>
       <c r="D234" s="9"/>
@@ -9057,7 +9060,7 @@
       <c r="AA234" s="9"/>
     </row>
     <row r="235">
-      <c r="A235" s="41"/>
+      <c r="A235" s="42"/>
       <c r="B235" s="9"/>
       <c r="C235" s="9"/>
       <c r="D235" s="9"/>
@@ -9086,7 +9089,7 @@
       <c r="AA235" s="9"/>
     </row>
     <row r="236">
-      <c r="A236" s="41"/>
+      <c r="A236" s="42"/>
       <c r="B236" s="9"/>
       <c r="C236" s="9"/>
       <c r="D236" s="9"/>
@@ -9115,7 +9118,7 @@
       <c r="AA236" s="9"/>
     </row>
     <row r="237">
-      <c r="A237" s="41"/>
+      <c r="A237" s="42"/>
       <c r="B237" s="9"/>
       <c r="C237" s="9"/>
       <c r="D237" s="9"/>
@@ -9144,7 +9147,7 @@
       <c r="AA237" s="9"/>
     </row>
     <row r="238">
-      <c r="A238" s="41"/>
+      <c r="A238" s="42"/>
       <c r="B238" s="9"/>
       <c r="C238" s="9"/>
       <c r="D238" s="9"/>
@@ -9173,7 +9176,7 @@
       <c r="AA238" s="9"/>
     </row>
     <row r="239">
-      <c r="A239" s="41"/>
+      <c r="A239" s="42"/>
       <c r="B239" s="9"/>
       <c r="C239" s="9"/>
       <c r="D239" s="9"/>
@@ -9202,7 +9205,7 @@
       <c r="AA239" s="9"/>
     </row>
     <row r="240">
-      <c r="A240" s="41"/>
+      <c r="A240" s="42"/>
       <c r="B240" s="9"/>
       <c r="C240" s="9"/>
       <c r="D240" s="9"/>
@@ -9231,7 +9234,7 @@
       <c r="AA240" s="9"/>
     </row>
     <row r="241">
-      <c r="A241" s="41"/>
+      <c r="A241" s="42"/>
       <c r="B241" s="9"/>
       <c r="C241" s="9"/>
       <c r="D241" s="9"/>
@@ -9260,7 +9263,7 @@
       <c r="AA241" s="9"/>
     </row>
     <row r="242">
-      <c r="A242" s="41"/>
+      <c r="A242" s="42"/>
       <c r="B242" s="9"/>
       <c r="C242" s="9"/>
       <c r="D242" s="9"/>
@@ -9289,7 +9292,7 @@
       <c r="AA242" s="9"/>
     </row>
     <row r="243">
-      <c r="A243" s="41"/>
+      <c r="A243" s="42"/>
       <c r="B243" s="9"/>
       <c r="C243" s="9"/>
       <c r="D243" s="9"/>
@@ -9318,7 +9321,7 @@
       <c r="AA243" s="9"/>
     </row>
     <row r="244">
-      <c r="A244" s="41"/>
+      <c r="A244" s="42"/>
       <c r="B244" s="9"/>
       <c r="C244" s="9"/>
       <c r="D244" s="9"/>
@@ -9347,7 +9350,7 @@
       <c r="AA244" s="9"/>
     </row>
     <row r="245">
-      <c r="A245" s="41"/>
+      <c r="A245" s="42"/>
       <c r="B245" s="9"/>
       <c r="C245" s="9"/>
       <c r="D245" s="9"/>
@@ -9376,7 +9379,7 @@
       <c r="AA245" s="9"/>
     </row>
     <row r="246">
-      <c r="A246" s="41"/>
+      <c r="A246" s="42"/>
       <c r="B246" s="9"/>
       <c r="C246" s="9"/>
       <c r="D246" s="9"/>
@@ -9405,7 +9408,7 @@
       <c r="AA246" s="9"/>
     </row>
     <row r="247">
-      <c r="A247" s="41"/>
+      <c r="A247" s="42"/>
       <c r="B247" s="9"/>
       <c r="C247" s="9"/>
       <c r="D247" s="9"/>
@@ -9434,7 +9437,7 @@
       <c r="AA247" s="9"/>
     </row>
     <row r="248">
-      <c r="A248" s="41"/>
+      <c r="A248" s="42"/>
       <c r="B248" s="9"/>
       <c r="C248" s="9"/>
       <c r="D248" s="9"/>
@@ -9463,7 +9466,7 @@
       <c r="AA248" s="9"/>
     </row>
     <row r="249">
-      <c r="A249" s="41"/>
+      <c r="A249" s="42"/>
       <c r="B249" s="9"/>
       <c r="C249" s="9"/>
       <c r="D249" s="9"/>
@@ -9492,7 +9495,7 @@
       <c r="AA249" s="9"/>
     </row>
     <row r="250">
-      <c r="A250" s="41"/>
+      <c r="A250" s="42"/>
       <c r="B250" s="9"/>
       <c r="C250" s="9"/>
       <c r="D250" s="9"/>
@@ -9521,7 +9524,7 @@
       <c r="AA250" s="9"/>
     </row>
     <row r="251">
-      <c r="A251" s="41"/>
+      <c r="A251" s="42"/>
       <c r="B251" s="9"/>
       <c r="C251" s="9"/>
       <c r="D251" s="9"/>
@@ -9550,7 +9553,7 @@
       <c r="AA251" s="9"/>
     </row>
     <row r="252">
-      <c r="A252" s="41"/>
+      <c r="A252" s="42"/>
       <c r="B252" s="9"/>
       <c r="C252" s="9"/>
       <c r="D252" s="9"/>
@@ -9579,7 +9582,7 @@
       <c r="AA252" s="9"/>
     </row>
     <row r="253">
-      <c r="A253" s="41"/>
+      <c r="A253" s="42"/>
       <c r="B253" s="9"/>
       <c r="C253" s="9"/>
       <c r="D253" s="9"/>
@@ -9608,7 +9611,7 @@
       <c r="AA253" s="9"/>
     </row>
     <row r="254">
-      <c r="A254" s="41"/>
+      <c r="A254" s="42"/>
       <c r="B254" s="9"/>
       <c r="C254" s="9"/>
       <c r="D254" s="9"/>
@@ -9637,7 +9640,7 @@
       <c r="AA254" s="9"/>
     </row>
     <row r="255">
-      <c r="A255" s="41"/>
+      <c r="A255" s="42"/>
       <c r="B255" s="9"/>
       <c r="C255" s="9"/>
       <c r="D255" s="9"/>
@@ -9666,7 +9669,7 @@
       <c r="AA255" s="9"/>
     </row>
     <row r="256">
-      <c r="A256" s="41"/>
+      <c r="A256" s="42"/>
       <c r="B256" s="9"/>
       <c r="C256" s="9"/>
       <c r="D256" s="9"/>
@@ -9695,7 +9698,7 @@
       <c r="AA256" s="9"/>
     </row>
     <row r="257">
-      <c r="A257" s="41"/>
+      <c r="A257" s="42"/>
       <c r="B257" s="9"/>
       <c r="C257" s="9"/>
       <c r="D257" s="9"/>
@@ -9724,7 +9727,7 @@
       <c r="AA257" s="9"/>
     </row>
     <row r="258">
-      <c r="A258" s="41"/>
+      <c r="A258" s="42"/>
       <c r="B258" s="9"/>
       <c r="C258" s="9"/>
       <c r="D258" s="9"/>
@@ -9753,7 +9756,7 @@
       <c r="AA258" s="9"/>
     </row>
     <row r="259">
-      <c r="A259" s="41"/>
+      <c r="A259" s="42"/>
       <c r="B259" s="9"/>
       <c r="C259" s="9"/>
       <c r="D259" s="9"/>
@@ -9782,7 +9785,7 @@
       <c r="AA259" s="9"/>
     </row>
     <row r="260">
-      <c r="A260" s="41"/>
+      <c r="A260" s="42"/>
       <c r="B260" s="9"/>
       <c r="C260" s="9"/>
       <c r="D260" s="9"/>
@@ -9811,7 +9814,7 @@
       <c r="AA260" s="9"/>
     </row>
     <row r="261">
-      <c r="A261" s="41"/>
+      <c r="A261" s="42"/>
       <c r="B261" s="9"/>
       <c r="C261" s="9"/>
       <c r="D261" s="9"/>
@@ -9840,7 +9843,7 @@
       <c r="AA261" s="9"/>
     </row>
     <row r="262">
-      <c r="A262" s="41"/>
+      <c r="A262" s="42"/>
       <c r="B262" s="9"/>
       <c r="C262" s="9"/>
       <c r="D262" s="9"/>
@@ -9869,7 +9872,7 @@
       <c r="AA262" s="9"/>
     </row>
     <row r="263">
-      <c r="A263" s="41"/>
+      <c r="A263" s="42"/>
       <c r="B263" s="9"/>
       <c r="C263" s="9"/>
       <c r="D263" s="9"/>
@@ -9898,7 +9901,7 @@
       <c r="AA263" s="9"/>
     </row>
     <row r="264">
-      <c r="A264" s="41"/>
+      <c r="A264" s="42"/>
       <c r="B264" s="9"/>
       <c r="C264" s="9"/>
       <c r="D264" s="9"/>
@@ -9927,7 +9930,7 @@
       <c r="AA264" s="9"/>
     </row>
     <row r="265">
-      <c r="A265" s="41"/>
+      <c r="A265" s="42"/>
       <c r="B265" s="9"/>
       <c r="C265" s="9"/>
       <c r="D265" s="9"/>
@@ -9956,7 +9959,7 @@
       <c r="AA265" s="9"/>
     </row>
     <row r="266">
-      <c r="A266" s="41"/>
+      <c r="A266" s="42"/>
       <c r="B266" s="9"/>
       <c r="C266" s="9"/>
       <c r="D266" s="9"/>
@@ -9985,7 +9988,7 @@
       <c r="AA266" s="9"/>
     </row>
     <row r="267">
-      <c r="A267" s="41"/>
+      <c r="A267" s="42"/>
       <c r="B267" s="9"/>
       <c r="C267" s="9"/>
       <c r="D267" s="9"/>
@@ -10014,7 +10017,7 @@
       <c r="AA267" s="9"/>
     </row>
     <row r="268">
-      <c r="A268" s="41"/>
+      <c r="A268" s="42"/>
       <c r="B268" s="9"/>
       <c r="C268" s="9"/>
       <c r="D268" s="9"/>
@@ -10043,7 +10046,7 @@
       <c r="AA268" s="9"/>
     </row>
     <row r="269">
-      <c r="A269" s="41"/>
+      <c r="A269" s="42"/>
       <c r="B269" s="9"/>
       <c r="C269" s="9"/>
       <c r="D269" s="9"/>
@@ -10072,7 +10075,7 @@
       <c r="AA269" s="9"/>
     </row>
     <row r="270">
-      <c r="A270" s="41"/>
+      <c r="A270" s="42"/>
       <c r="B270" s="9"/>
       <c r="C270" s="9"/>
       <c r="D270" s="9"/>
@@ -10101,7 +10104,7 @@
       <c r="AA270" s="9"/>
     </row>
     <row r="271">
-      <c r="A271" s="41"/>
+      <c r="A271" s="42"/>
       <c r="B271" s="9"/>
       <c r="C271" s="9"/>
       <c r="D271" s="9"/>
@@ -10130,7 +10133,7 @@
       <c r="AA271" s="9"/>
     </row>
     <row r="272">
-      <c r="A272" s="41"/>
+      <c r="A272" s="42"/>
       <c r="B272" s="9"/>
       <c r="C272" s="9"/>
       <c r="D272" s="9"/>
@@ -10159,7 +10162,7 @@
       <c r="AA272" s="9"/>
     </row>
     <row r="273">
-      <c r="A273" s="41"/>
+      <c r="A273" s="42"/>
       <c r="B273" s="9"/>
       <c r="C273" s="9"/>
       <c r="D273" s="9"/>
@@ -10188,7 +10191,7 @@
       <c r="AA273" s="9"/>
     </row>
     <row r="274">
-      <c r="A274" s="41"/>
+      <c r="A274" s="42"/>
       <c r="B274" s="9"/>
       <c r="C274" s="9"/>
       <c r="D274" s="9"/>
@@ -10217,7 +10220,7 @@
       <c r="AA274" s="9"/>
     </row>
     <row r="275">
-      <c r="A275" s="41"/>
+      <c r="A275" s="42"/>
       <c r="B275" s="9"/>
       <c r="C275" s="9"/>
       <c r="D275" s="9"/>
@@ -10246,7 +10249,7 @@
       <c r="AA275" s="9"/>
     </row>
     <row r="276">
-      <c r="A276" s="41"/>
+      <c r="A276" s="42"/>
       <c r="B276" s="9"/>
       <c r="C276" s="9"/>
       <c r="D276" s="9"/>
@@ -10275,7 +10278,7 @@
       <c r="AA276" s="9"/>
     </row>
     <row r="277">
-      <c r="A277" s="41"/>
+      <c r="A277" s="42"/>
       <c r="B277" s="9"/>
       <c r="C277" s="9"/>
       <c r="D277" s="9"/>
@@ -10304,7 +10307,7 @@
       <c r="AA277" s="9"/>
     </row>
     <row r="278">
-      <c r="A278" s="41"/>
+      <c r="A278" s="42"/>
       <c r="B278" s="9"/>
       <c r="C278" s="9"/>
       <c r="D278" s="9"/>
@@ -10333,7 +10336,7 @@
       <c r="AA278" s="9"/>
     </row>
     <row r="279">
-      <c r="A279" s="41"/>
+      <c r="A279" s="42"/>
       <c r="B279" s="9"/>
       <c r="C279" s="9"/>
       <c r="D279" s="9"/>
@@ -10362,7 +10365,7 @@
       <c r="AA279" s="9"/>
     </row>
     <row r="280">
-      <c r="A280" s="41"/>
+      <c r="A280" s="42"/>
       <c r="B280" s="9"/>
       <c r="C280" s="9"/>
       <c r="D280" s="9"/>
@@ -10391,7 +10394,7 @@
       <c r="AA280" s="9"/>
     </row>
     <row r="281">
-      <c r="A281" s="41"/>
+      <c r="A281" s="42"/>
       <c r="B281" s="9"/>
       <c r="C281" s="9"/>
       <c r="D281" s="9"/>
@@ -10420,7 +10423,7 @@
       <c r="AA281" s="9"/>
     </row>
     <row r="282">
-      <c r="A282" s="41"/>
+      <c r="A282" s="42"/>
       <c r="B282" s="9"/>
       <c r="C282" s="9"/>
       <c r="D282" s="9"/>
@@ -10449,7 +10452,7 @@
       <c r="AA282" s="9"/>
     </row>
     <row r="283">
-      <c r="A283" s="41"/>
+      <c r="A283" s="42"/>
       <c r="B283" s="9"/>
       <c r="C283" s="9"/>
       <c r="D283" s="9"/>
@@ -10478,7 +10481,7 @@
       <c r="AA283" s="9"/>
     </row>
     <row r="284">
-      <c r="A284" s="41"/>
+      <c r="A284" s="42"/>
       <c r="B284" s="9"/>
       <c r="C284" s="9"/>
       <c r="D284" s="9"/>
@@ -10507,7 +10510,7 @@
       <c r="AA284" s="9"/>
     </row>
     <row r="285">
-      <c r="A285" s="41"/>
+      <c r="A285" s="42"/>
       <c r="B285" s="9"/>
       <c r="C285" s="9"/>
       <c r="D285" s="9"/>
@@ -10536,7 +10539,7 @@
       <c r="AA285" s="9"/>
     </row>
     <row r="286">
-      <c r="A286" s="41"/>
+      <c r="A286" s="42"/>
       <c r="B286" s="9"/>
       <c r="C286" s="9"/>
       <c r="D286" s="9"/>
@@ -10565,7 +10568,7 @@
       <c r="AA286" s="9"/>
     </row>
     <row r="287">
-      <c r="A287" s="41"/>
+      <c r="A287" s="42"/>
       <c r="B287" s="9"/>
       <c r="C287" s="9"/>
       <c r="D287" s="9"/>
@@ -10594,7 +10597,7 @@
       <c r="AA287" s="9"/>
     </row>
     <row r="288">
-      <c r="A288" s="41"/>
+      <c r="A288" s="42"/>
       <c r="B288" s="9"/>
       <c r="C288" s="9"/>
       <c r="D288" s="9"/>
@@ -10623,7 +10626,7 @@
       <c r="AA288" s="9"/>
     </row>
     <row r="289">
-      <c r="A289" s="41"/>
+      <c r="A289" s="42"/>
       <c r="B289" s="9"/>
       <c r="C289" s="9"/>
       <c r="D289" s="9"/>
@@ -10652,7 +10655,7 @@
       <c r="AA289" s="9"/>
     </row>
     <row r="290">
-      <c r="A290" s="41"/>
+      <c r="A290" s="42"/>
       <c r="B290" s="9"/>
       <c r="C290" s="9"/>
       <c r="D290" s="9"/>
@@ -10681,7 +10684,7 @@
       <c r="AA290" s="9"/>
     </row>
     <row r="291">
-      <c r="A291" s="41"/>
+      <c r="A291" s="42"/>
       <c r="B291" s="9"/>
       <c r="C291" s="9"/>
       <c r="D291" s="9"/>
@@ -10710,7 +10713,7 @@
       <c r="AA291" s="9"/>
     </row>
     <row r="292">
-      <c r="A292" s="41"/>
+      <c r="A292" s="42"/>
       <c r="B292" s="9"/>
       <c r="C292" s="9"/>
       <c r="D292" s="9"/>
@@ -10739,7 +10742,7 @@
       <c r="AA292" s="9"/>
     </row>
     <row r="293">
-      <c r="A293" s="41"/>
+      <c r="A293" s="42"/>
       <c r="B293" s="9"/>
       <c r="C293" s="9"/>
       <c r="D293" s="9"/>
@@ -10768,7 +10771,7 @@
       <c r="AA293" s="9"/>
     </row>
     <row r="294">
-      <c r="A294" s="41"/>
+      <c r="A294" s="42"/>
       <c r="B294" s="9"/>
       <c r="C294" s="9"/>
       <c r="D294" s="9"/>
@@ -10797,7 +10800,7 @@
       <c r="AA294" s="9"/>
     </row>
     <row r="295">
-      <c r="A295" s="41"/>
+      <c r="A295" s="42"/>
       <c r="B295" s="9"/>
       <c r="C295" s="9"/>
       <c r="D295" s="9"/>
@@ -10826,7 +10829,7 @@
       <c r="AA295" s="9"/>
     </row>
     <row r="296">
-      <c r="A296" s="41"/>
+      <c r="A296" s="42"/>
       <c r="B296" s="9"/>
       <c r="C296" s="9"/>
       <c r="D296" s="9"/>
@@ -10855,7 +10858,7 @@
       <c r="AA296" s="9"/>
     </row>
     <row r="297">
-      <c r="A297" s="41"/>
+      <c r="A297" s="42"/>
       <c r="B297" s="9"/>
       <c r="C297" s="9"/>
       <c r="D297" s="9"/>
@@ -10884,7 +10887,7 @@
       <c r="AA297" s="9"/>
     </row>
     <row r="298">
-      <c r="A298" s="41"/>
+      <c r="A298" s="42"/>
       <c r="B298" s="9"/>
       <c r="C298" s="9"/>
       <c r="D298" s="9"/>
@@ -10913,7 +10916,7 @@
       <c r="AA298" s="9"/>
     </row>
     <row r="299">
-      <c r="A299" s="41"/>
+      <c r="A299" s="42"/>
       <c r="B299" s="9"/>
       <c r="C299" s="9"/>
       <c r="D299" s="9"/>
@@ -10942,7 +10945,7 @@
       <c r="AA299" s="9"/>
     </row>
     <row r="300">
-      <c r="A300" s="41"/>
+      <c r="A300" s="42"/>
       <c r="B300" s="9"/>
       <c r="C300" s="9"/>
       <c r="D300" s="9"/>
@@ -10971,7 +10974,7 @@
       <c r="AA300" s="9"/>
     </row>
     <row r="301">
-      <c r="A301" s="41"/>
+      <c r="A301" s="42"/>
       <c r="B301" s="9"/>
       <c r="C301" s="9"/>
       <c r="D301" s="9"/>
@@ -11000,7 +11003,7 @@
       <c r="AA301" s="9"/>
     </row>
     <row r="302">
-      <c r="A302" s="41"/>
+      <c r="A302" s="42"/>
       <c r="B302" s="9"/>
       <c r="C302" s="9"/>
       <c r="D302" s="9"/>
@@ -11029,7 +11032,7 @@
       <c r="AA302" s="9"/>
     </row>
     <row r="303">
-      <c r="A303" s="41"/>
+      <c r="A303" s="42"/>
       <c r="B303" s="9"/>
       <c r="C303" s="9"/>
       <c r="D303" s="9"/>
@@ -11058,7 +11061,7 @@
       <c r="AA303" s="9"/>
     </row>
     <row r="304">
-      <c r="A304" s="41"/>
+      <c r="A304" s="42"/>
       <c r="B304" s="9"/>
       <c r="C304" s="9"/>
       <c r="D304" s="9"/>
@@ -11087,7 +11090,7 @@
       <c r="AA304" s="9"/>
     </row>
     <row r="305">
-      <c r="A305" s="41"/>
+      <c r="A305" s="42"/>
       <c r="B305" s="9"/>
       <c r="C305" s="9"/>
       <c r="D305" s="9"/>
@@ -11116,7 +11119,7 @@
       <c r="AA305" s="9"/>
     </row>
     <row r="306">
-      <c r="A306" s="41"/>
+      <c r="A306" s="42"/>
       <c r="B306" s="9"/>
       <c r="C306" s="9"/>
       <c r="D306" s="9"/>
@@ -11145,7 +11148,7 @@
       <c r="AA306" s="9"/>
     </row>
     <row r="307">
-      <c r="A307" s="41"/>
+      <c r="A307" s="42"/>
       <c r="B307" s="9"/>
       <c r="C307" s="9"/>
       <c r="D307" s="9"/>
@@ -11174,7 +11177,7 @@
       <c r="AA307" s="9"/>
     </row>
     <row r="308">
-      <c r="A308" s="41"/>
+      <c r="A308" s="42"/>
       <c r="B308" s="9"/>
       <c r="C308" s="9"/>
       <c r="D308" s="9"/>
@@ -11203,7 +11206,7 @@
       <c r="AA308" s="9"/>
     </row>
     <row r="309">
-      <c r="A309" s="41"/>
+      <c r="A309" s="42"/>
       <c r="B309" s="9"/>
       <c r="C309" s="9"/>
       <c r="D309" s="9"/>
@@ -11232,7 +11235,7 @@
       <c r="AA309" s="9"/>
     </row>
     <row r="310">
-      <c r="A310" s="41"/>
+      <c r="A310" s="42"/>
       <c r="B310" s="9"/>
       <c r="C310" s="9"/>
       <c r="D310" s="9"/>
@@ -11261,7 +11264,7 @@
       <c r="AA310" s="9"/>
     </row>
     <row r="311">
-      <c r="A311" s="41"/>
+      <c r="A311" s="42"/>
       <c r="B311" s="9"/>
       <c r="C311" s="9"/>
       <c r="D311" s="9"/>
@@ -11290,7 +11293,7 @@
       <c r="AA311" s="9"/>
     </row>
     <row r="312">
-      <c r="A312" s="41"/>
+      <c r="A312" s="42"/>
       <c r="B312" s="9"/>
       <c r="C312" s="9"/>
       <c r="D312" s="9"/>
@@ -11319,7 +11322,7 @@
       <c r="AA312" s="9"/>
     </row>
     <row r="313">
-      <c r="A313" s="41"/>
+      <c r="A313" s="42"/>
       <c r="B313" s="9"/>
       <c r="C313" s="9"/>
       <c r="D313" s="9"/>
@@ -11348,7 +11351,7 @@
       <c r="AA313" s="9"/>
     </row>
     <row r="314">
-      <c r="A314" s="41"/>
+      <c r="A314" s="42"/>
       <c r="B314" s="9"/>
       <c r="C314" s="9"/>
       <c r="D314" s="9"/>
@@ -11377,7 +11380,7 @@
       <c r="AA314" s="9"/>
     </row>
     <row r="315">
-      <c r="A315" s="41"/>
+      <c r="A315" s="42"/>
       <c r="B315" s="9"/>
       <c r="C315" s="9"/>
       <c r="D315" s="9"/>
@@ -11406,7 +11409,7 @@
       <c r="AA315" s="9"/>
     </row>
     <row r="316">
-      <c r="A316" s="41"/>
+      <c r="A316" s="42"/>
       <c r="B316" s="9"/>
       <c r="C316" s="9"/>
       <c r="D316" s="9"/>
@@ -11435,7 +11438,7 @@
       <c r="AA316" s="9"/>
     </row>
     <row r="317">
-      <c r="A317" s="41"/>
+      <c r="A317" s="42"/>
       <c r="B317" s="9"/>
       <c r="C317" s="9"/>
       <c r="D317" s="9"/>
@@ -11464,7 +11467,7 @@
       <c r="AA317" s="9"/>
     </row>
     <row r="318">
-      <c r="A318" s="41"/>
+      <c r="A318" s="42"/>
       <c r="B318" s="9"/>
       <c r="C318" s="9"/>
       <c r="D318" s="9"/>
@@ -11493,7 +11496,7 @@
       <c r="AA318" s="9"/>
     </row>
     <row r="319">
-      <c r="A319" s="41"/>
+      <c r="A319" s="42"/>
       <c r="B319" s="9"/>
       <c r="C319" s="9"/>
       <c r="D319" s="9"/>
@@ -11522,7 +11525,7 @@
       <c r="AA319" s="9"/>
     </row>
     <row r="320">
-      <c r="A320" s="41"/>
+      <c r="A320" s="42"/>
       <c r="B320" s="9"/>
       <c r="C320" s="9"/>
       <c r="D320" s="9"/>
@@ -11551,7 +11554,7 @@
       <c r="AA320" s="9"/>
     </row>
     <row r="321">
-      <c r="A321" s="41"/>
+      <c r="A321" s="42"/>
       <c r="B321" s="9"/>
       <c r="C321" s="9"/>
       <c r="D321" s="9"/>
@@ -11580,7 +11583,7 @@
       <c r="AA321" s="9"/>
     </row>
     <row r="322">
-      <c r="A322" s="41"/>
+      <c r="A322" s="42"/>
       <c r="B322" s="9"/>
       <c r="C322" s="9"/>
       <c r="D322" s="9"/>
@@ -11609,7 +11612,7 @@
       <c r="AA322" s="9"/>
     </row>
     <row r="323">
-      <c r="A323" s="41"/>
+      <c r="A323" s="42"/>
       <c r="B323" s="9"/>
       <c r="C323" s="9"/>
       <c r="D323" s="9"/>
@@ -11638,7 +11641,7 @@
       <c r="AA323" s="9"/>
     </row>
     <row r="324">
-      <c r="A324" s="41"/>
+      <c r="A324" s="42"/>
       <c r="B324" s="9"/>
       <c r="C324" s="9"/>
       <c r="D324" s="9"/>
@@ -11667,7 +11670,7 @@
       <c r="AA324" s="9"/>
     </row>
     <row r="325">
-      <c r="A325" s="41"/>
+      <c r="A325" s="42"/>
       <c r="B325" s="9"/>
       <c r="C325" s="9"/>
       <c r="D325" s="9"/>
@@ -11696,7 +11699,7 @@
       <c r="AA325" s="9"/>
     </row>
     <row r="326">
-      <c r="A326" s="41"/>
+      <c r="A326" s="42"/>
       <c r="B326" s="9"/>
       <c r="C326" s="9"/>
       <c r="D326" s="9"/>
@@ -11725,7 +11728,7 @@
       <c r="AA326" s="9"/>
     </row>
     <row r="327">
-      <c r="A327" s="41"/>
+      <c r="A327" s="42"/>
       <c r="B327" s="9"/>
       <c r="C327" s="9"/>
       <c r="D327" s="9"/>
@@ -11754,7 +11757,7 @@
       <c r="AA327" s="9"/>
     </row>
     <row r="328">
-      <c r="A328" s="41"/>
+      <c r="A328" s="42"/>
       <c r="B328" s="9"/>
       <c r="C328" s="9"/>
       <c r="D328" s="9"/>
@@ -11783,7 +11786,7 @@
       <c r="AA328" s="9"/>
     </row>
     <row r="329">
-      <c r="A329" s="41"/>
+      <c r="A329" s="42"/>
       <c r="B329" s="9"/>
       <c r="C329" s="9"/>
       <c r="D329" s="9"/>
@@ -11812,7 +11815,7 @@
       <c r="AA329" s="9"/>
     </row>
     <row r="330">
-      <c r="A330" s="41"/>
+      <c r="A330" s="42"/>
       <c r="B330" s="9"/>
       <c r="C330" s="9"/>
       <c r="D330" s="9"/>
@@ -11841,7 +11844,7 @@
       <c r="AA330" s="9"/>
     </row>
     <row r="331">
-      <c r="A331" s="41"/>
+      <c r="A331" s="42"/>
       <c r="B331" s="9"/>
       <c r="C331" s="9"/>
       <c r="D331" s="9"/>
@@ -11870,7 +11873,7 @@
       <c r="AA331" s="9"/>
     </row>
     <row r="332">
-      <c r="A332" s="41"/>
+      <c r="A332" s="42"/>
       <c r="B332" s="9"/>
       <c r="C332" s="9"/>
       <c r="D332" s="9"/>
@@ -11899,7 +11902,7 @@
       <c r="AA332" s="9"/>
     </row>
     <row r="333">
-      <c r="A333" s="41"/>
+      <c r="A333" s="42"/>
       <c r="B333" s="9"/>
       <c r="C333" s="9"/>
       <c r="D333" s="9"/>
@@ -11928,7 +11931,7 @@
       <c r="AA333" s="9"/>
     </row>
     <row r="334">
-      <c r="A334" s="41"/>
+      <c r="A334" s="42"/>
       <c r="B334" s="9"/>
       <c r="C334" s="9"/>
       <c r="D334" s="9"/>
@@ -11957,7 +11960,7 @@
       <c r="AA334" s="9"/>
     </row>
     <row r="335">
-      <c r="A335" s="41"/>
+      <c r="A335" s="42"/>
       <c r="B335" s="9"/>
       <c r="C335" s="9"/>
       <c r="D335" s="9"/>
@@ -11986,7 +11989,7 @@
       <c r="AA335" s="9"/>
     </row>
     <row r="336">
-      <c r="A336" s="41"/>
+      <c r="A336" s="42"/>
       <c r="B336" s="9"/>
       <c r="C336" s="9"/>
       <c r="D336" s="9"/>
@@ -12015,7 +12018,7 @@
       <c r="AA336" s="9"/>
     </row>
     <row r="337">
-      <c r="A337" s="41"/>
+      <c r="A337" s="42"/>
       <c r="B337" s="9"/>
       <c r="C337" s="9"/>
       <c r="D337" s="9"/>
@@ -12044,7 +12047,7 @@
       <c r="AA337" s="9"/>
     </row>
     <row r="338">
-      <c r="A338" s="41"/>
+      <c r="A338" s="42"/>
       <c r="B338" s="9"/>
       <c r="C338" s="9"/>
       <c r="D338" s="9"/>
@@ -12073,7 +12076,7 @@
       <c r="AA338" s="9"/>
     </row>
     <row r="339">
-      <c r="A339" s="41"/>
+      <c r="A339" s="42"/>
       <c r="B339" s="9"/>
       <c r="C339" s="9"/>
       <c r="D339" s="9"/>
@@ -12102,7 +12105,7 @@
       <c r="AA339" s="9"/>
     </row>
     <row r="340">
-      <c r="A340" s="41"/>
+      <c r="A340" s="42"/>
       <c r="B340" s="9"/>
       <c r="C340" s="9"/>
       <c r="D340" s="9"/>
@@ -12131,7 +12134,7 @@
       <c r="AA340" s="9"/>
     </row>
     <row r="341">
-      <c r="A341" s="41"/>
+      <c r="A341" s="42"/>
       <c r="B341" s="9"/>
       <c r="C341" s="9"/>
       <c r="D341" s="9"/>
@@ -12160,7 +12163,7 @@
       <c r="AA341" s="9"/>
     </row>
     <row r="342">
-      <c r="A342" s="41"/>
+      <c r="A342" s="42"/>
       <c r="B342" s="9"/>
       <c r="C342" s="9"/>
       <c r="D342" s="9"/>
@@ -12189,7 +12192,7 @@
       <c r="AA342" s="9"/>
     </row>
     <row r="343">
-      <c r="A343" s="41"/>
+      <c r="A343" s="42"/>
       <c r="B343" s="9"/>
       <c r="C343" s="9"/>
       <c r="D343" s="9"/>
@@ -12218,7 +12221,7 @@
       <c r="AA343" s="9"/>
     </row>
     <row r="344">
-      <c r="A344" s="41"/>
+      <c r="A344" s="42"/>
       <c r="B344" s="9"/>
       <c r="C344" s="9"/>
       <c r="D344" s="9"/>
@@ -12247,7 +12250,7 @@
       <c r="AA344" s="9"/>
     </row>
     <row r="345">
-      <c r="A345" s="41"/>
+      <c r="A345" s="42"/>
       <c r="B345" s="9"/>
       <c r="C345" s="9"/>
       <c r="D345" s="9"/>
@@ -12276,7 +12279,7 @@
       <c r="AA345" s="9"/>
     </row>
     <row r="346">
-      <c r="A346" s="41"/>
+      <c r="A346" s="42"/>
       <c r="B346" s="9"/>
       <c r="C346" s="9"/>
       <c r="D346" s="9"/>
@@ -12305,7 +12308,7 @@
       <c r="AA346" s="9"/>
     </row>
     <row r="347">
-      <c r="A347" s="41"/>
+      <c r="A347" s="42"/>
       <c r="B347" s="9"/>
       <c r="C347" s="9"/>
       <c r="D347" s="9"/>
@@ -12334,7 +12337,7 @@
       <c r="AA347" s="9"/>
     </row>
     <row r="348">
-      <c r="A348" s="41"/>
+      <c r="A348" s="42"/>
       <c r="B348" s="9"/>
       <c r="C348" s="9"/>
       <c r="D348" s="9"/>
@@ -12363,7 +12366,7 @@
       <c r="AA348" s="9"/>
     </row>
     <row r="349">
-      <c r="A349" s="41"/>
+      <c r="A349" s="42"/>
       <c r="B349" s="9"/>
       <c r="C349" s="9"/>
       <c r="D349" s="9"/>
@@ -12392,7 +12395,7 @@
       <c r="AA349" s="9"/>
     </row>
     <row r="350">
-      <c r="A350" s="41"/>
+      <c r="A350" s="42"/>
       <c r="B350" s="9"/>
       <c r="C350" s="9"/>
       <c r="D350" s="9"/>
@@ -12421,7 +12424,7 @@
       <c r="AA350" s="9"/>
     </row>
     <row r="351">
-      <c r="A351" s="41"/>
+      <c r="A351" s="42"/>
       <c r="B351" s="9"/>
       <c r="C351" s="9"/>
       <c r="D351" s="9"/>
@@ -12450,7 +12453,7 @@
       <c r="AA351" s="9"/>
     </row>
     <row r="352">
-      <c r="A352" s="41"/>
+      <c r="A352" s="42"/>
       <c r="B352" s="9"/>
       <c r="C352" s="9"/>
       <c r="D352" s="9"/>
@@ -12479,7 +12482,7 @@
       <c r="AA352" s="9"/>
     </row>
     <row r="353">
-      <c r="A353" s="41"/>
+      <c r="A353" s="42"/>
       <c r="B353" s="9"/>
       <c r="C353" s="9"/>
       <c r="D353" s="9"/>
@@ -12508,7 +12511,7 @@
       <c r="AA353" s="9"/>
     </row>
     <row r="354">
-      <c r="A354" s="41"/>
+      <c r="A354" s="42"/>
       <c r="B354" s="9"/>
       <c r="C354" s="9"/>
       <c r="D354" s="9"/>
@@ -12537,7 +12540,7 @@
       <c r="AA354" s="9"/>
     </row>
     <row r="355">
-      <c r="A355" s="41"/>
+      <c r="A355" s="42"/>
       <c r="B355" s="9"/>
       <c r="C355" s="9"/>
       <c r="D355" s="9"/>
@@ -12566,7 +12569,7 @@
       <c r="AA355" s="9"/>
     </row>
     <row r="356">
-      <c r="A356" s="41"/>
+      <c r="A356" s="42"/>
       <c r="B356" s="9"/>
       <c r="C356" s="9"/>
       <c r="D356" s="9"/>
@@ -12595,7 +12598,7 @@
       <c r="AA356" s="9"/>
     </row>
     <row r="357">
-      <c r="A357" s="41"/>
+      <c r="A357" s="42"/>
       <c r="B357" s="9"/>
       <c r="C357" s="9"/>
       <c r="D357" s="9"/>
@@ -12624,7 +12627,7 @@
       <c r="AA357" s="9"/>
     </row>
     <row r="358">
-      <c r="A358" s="41"/>
+      <c r="A358" s="42"/>
       <c r="B358" s="9"/>
       <c r="C358" s="9"/>
       <c r="D358" s="9"/>
@@ -12653,7 +12656,7 @@
       <c r="AA358" s="9"/>
     </row>
     <row r="359">
-      <c r="A359" s="41"/>
+      <c r="A359" s="42"/>
       <c r="B359" s="9"/>
       <c r="C359" s="9"/>
       <c r="D359" s="9"/>
@@ -12682,7 +12685,7 @@
       <c r="AA359" s="9"/>
     </row>
     <row r="360">
-      <c r="A360" s="41"/>
+      <c r="A360" s="42"/>
       <c r="B360" s="9"/>
       <c r="C360" s="9"/>
       <c r="D360" s="9"/>
@@ -12711,7 +12714,7 @@
       <c r="AA360" s="9"/>
     </row>
     <row r="361">
-      <c r="A361" s="41"/>
+      <c r="A361" s="42"/>
       <c r="B361" s="9"/>
       <c r="C361" s="9"/>
       <c r="D361" s="9"/>
@@ -12740,7 +12743,7 @@
       <c r="AA361" s="9"/>
     </row>
     <row r="362">
-      <c r="A362" s="41"/>
+      <c r="A362" s="42"/>
       <c r="B362" s="9"/>
       <c r="C362" s="9"/>
       <c r="D362" s="9"/>
@@ -12769,7 +12772,7 @@
       <c r="AA362" s="9"/>
     </row>
     <row r="363">
-      <c r="A363" s="41"/>
+      <c r="A363" s="42"/>
       <c r="B363" s="9"/>
       <c r="C363" s="9"/>
       <c r="D363" s="9"/>
@@ -12798,7 +12801,7 @@
       <c r="AA363" s="9"/>
     </row>
     <row r="364">
-      <c r="A364" s="41"/>
+      <c r="A364" s="42"/>
       <c r="B364" s="9"/>
       <c r="C364" s="9"/>
       <c r="D364" s="9"/>
@@ -12827,7 +12830,7 @@
       <c r="AA364" s="9"/>
     </row>
     <row r="365">
-      <c r="A365" s="41"/>
+      <c r="A365" s="42"/>
       <c r="B365" s="9"/>
       <c r="C365" s="9"/>
       <c r="D365" s="9"/>
@@ -12856,7 +12859,7 @@
       <c r="AA365" s="9"/>
     </row>
     <row r="366">
-      <c r="A366" s="41"/>
+      <c r="A366" s="42"/>
       <c r="B366" s="9"/>
       <c r="C366" s="9"/>
       <c r="D366" s="9"/>
@@ -12885,7 +12888,7 @@
       <c r="AA366" s="9"/>
     </row>
     <row r="367">
-      <c r="A367" s="41"/>
+      <c r="A367" s="42"/>
       <c r="B367" s="9"/>
       <c r="C367" s="9"/>
       <c r="D367" s="9"/>
@@ -12914,7 +12917,7 @@
       <c r="AA367" s="9"/>
     </row>
     <row r="368">
-      <c r="A368" s="41"/>
+      <c r="A368" s="42"/>
       <c r="B368" s="9"/>
       <c r="C368" s="9"/>
       <c r="D368" s="9"/>
@@ -12943,7 +12946,7 @@
       <c r="AA368" s="9"/>
     </row>
     <row r="369">
-      <c r="A369" s="41"/>
+      <c r="A369" s="42"/>
       <c r="B369" s="9"/>
       <c r="C369" s="9"/>
       <c r="D369" s="9"/>
@@ -12972,7 +12975,7 @@
       <c r="AA369" s="9"/>
     </row>
     <row r="370">
-      <c r="A370" s="41"/>
+      <c r="A370" s="42"/>
       <c r="B370" s="9"/>
       <c r="C370" s="9"/>
       <c r="D370" s="9"/>
@@ -13001,7 +13004,7 @@
       <c r="AA370" s="9"/>
     </row>
     <row r="371">
-      <c r="A371" s="41"/>
+      <c r="A371" s="42"/>
       <c r="B371" s="9"/>
       <c r="C371" s="9"/>
       <c r="D371" s="9"/>
@@ -13030,7 +13033,7 @@
       <c r="AA371" s="9"/>
     </row>
     <row r="372">
-      <c r="A372" s="41"/>
+      <c r="A372" s="42"/>
       <c r="B372" s="9"/>
       <c r="C372" s="9"/>
       <c r="D372" s="9"/>
@@ -13059,7 +13062,7 @@
       <c r="AA372" s="9"/>
     </row>
     <row r="373">
-      <c r="A373" s="41"/>
+      <c r="A373" s="42"/>
       <c r="B373" s="9"/>
       <c r="C373" s="9"/>
       <c r="D373" s="9"/>
@@ -13088,7 +13091,7 @@
       <c r="AA373" s="9"/>
     </row>
     <row r="374">
-      <c r="A374" s="41"/>
+      <c r="A374" s="42"/>
       <c r="B374" s="9"/>
       <c r="C374" s="9"/>
       <c r="D374" s="9"/>
@@ -13117,7 +13120,7 @@
       <c r="AA374" s="9"/>
     </row>
     <row r="375">
-      <c r="A375" s="41"/>
+      <c r="A375" s="42"/>
       <c r="B375" s="9"/>
       <c r="C375" s="9"/>
       <c r="D375" s="9"/>
@@ -13146,7 +13149,7 @@
       <c r="AA375" s="9"/>
     </row>
     <row r="376">
-      <c r="A376" s="41"/>
+      <c r="A376" s="42"/>
       <c r="B376" s="9"/>
       <c r="C376" s="9"/>
       <c r="D376" s="9"/>
@@ -13175,7 +13178,7 @@
       <c r="AA376" s="9"/>
     </row>
     <row r="377">
-      <c r="A377" s="41"/>
+      <c r="A377" s="42"/>
       <c r="B377" s="9"/>
       <c r="C377" s="9"/>
       <c r="D377" s="9"/>
@@ -13204,7 +13207,7 @@
       <c r="AA377" s="9"/>
     </row>
     <row r="378">
-      <c r="A378" s="41"/>
+      <c r="A378" s="42"/>
       <c r="B378" s="9"/>
       <c r="C378" s="9"/>
       <c r="D378" s="9"/>
@@ -13233,7 +13236,7 @@
       <c r="AA378" s="9"/>
     </row>
     <row r="379">
-      <c r="A379" s="41"/>
+      <c r="A379" s="42"/>
       <c r="B379" s="9"/>
       <c r="C379" s="9"/>
       <c r="D379" s="9"/>
@@ -13262,7 +13265,7 @@
       <c r="AA379" s="9"/>
     </row>
     <row r="380">
-      <c r="A380" s="41"/>
+      <c r="A380" s="42"/>
       <c r="B380" s="9"/>
       <c r="C380" s="9"/>
       <c r="D380" s="9"/>
@@ -13291,7 +13294,7 @@
       <c r="AA380" s="9"/>
     </row>
     <row r="381">
-      <c r="A381" s="41"/>
+      <c r="A381" s="42"/>
       <c r="B381" s="9"/>
       <c r="C381" s="9"/>
       <c r="D381" s="9"/>
@@ -13320,7 +13323,7 @@
       <c r="AA381" s="9"/>
     </row>
     <row r="382">
-      <c r="A382" s="41"/>
+      <c r="A382" s="42"/>
       <c r="B382" s="9"/>
       <c r="C382" s="9"/>
       <c r="D382" s="9"/>
@@ -13349,7 +13352,7 @@
       <c r="AA382" s="9"/>
     </row>
     <row r="383">
-      <c r="A383" s="41"/>
+      <c r="A383" s="42"/>
       <c r="B383" s="9"/>
       <c r="C383" s="9"/>
       <c r="D383" s="9"/>
@@ -13378,7 +13381,7 @@
       <c r="AA383" s="9"/>
     </row>
     <row r="384">
-      <c r="A384" s="41"/>
+      <c r="A384" s="42"/>
       <c r="B384" s="9"/>
       <c r="C384" s="9"/>
       <c r="D384" s="9"/>
@@ -13407,7 +13410,7 @@
       <c r="AA384" s="9"/>
     </row>
     <row r="385">
-      <c r="A385" s="41"/>
+      <c r="A385" s="42"/>
       <c r="B385" s="9"/>
       <c r="C385" s="9"/>
       <c r="D385" s="9"/>
@@ -13436,7 +13439,7 @@
       <c r="AA385" s="9"/>
     </row>
     <row r="386">
-      <c r="A386" s="41"/>
+      <c r="A386" s="42"/>
       <c r="B386" s="9"/>
       <c r="C386" s="9"/>
       <c r="D386" s="9"/>
@@ -13465,7 +13468,7 @@
       <c r="AA386" s="9"/>
     </row>
     <row r="387">
-      <c r="A387" s="41"/>
+      <c r="A387" s="42"/>
       <c r="B387" s="9"/>
       <c r="C387" s="9"/>
       <c r="D387" s="9"/>
@@ -13494,7 +13497,7 @@
       <c r="AA387" s="9"/>
     </row>
     <row r="388">
-      <c r="A388" s="41"/>
+      <c r="A388" s="42"/>
       <c r="B388" s="9"/>
       <c r="C388" s="9"/>
       <c r="D388" s="9"/>
@@ -13523,7 +13526,7 @@
       <c r="AA388" s="9"/>
     </row>
     <row r="389">
-      <c r="A389" s="41"/>
+      <c r="A389" s="42"/>
       <c r="B389" s="9"/>
       <c r="C389" s="9"/>
       <c r="D389" s="9"/>
@@ -13552,7 +13555,7 @@
       <c r="AA389" s="9"/>
     </row>
     <row r="390">
-      <c r="A390" s="41"/>
+      <c r="A390" s="42"/>
       <c r="B390" s="9"/>
       <c r="C390" s="9"/>
       <c r="D390" s="9"/>
@@ -13581,7 +13584,7 @@
       <c r="AA390" s="9"/>
     </row>
     <row r="391">
-      <c r="A391" s="41"/>
+      <c r="A391" s="42"/>
       <c r="B391" s="9"/>
       <c r="C391" s="9"/>
       <c r="D391" s="9"/>
@@ -13610,7 +13613,7 @@
       <c r="AA391" s="9"/>
     </row>
     <row r="392">
-      <c r="A392" s="41"/>
+      <c r="A392" s="42"/>
       <c r="B392" s="9"/>
       <c r="C392" s="9"/>
       <c r="D392" s="9"/>
@@ -13639,7 +13642,7 @@
       <c r="AA392" s="9"/>
     </row>
     <row r="393">
-      <c r="A393" s="41"/>
+      <c r="A393" s="42"/>
       <c r="B393" s="9"/>
       <c r="C393" s="9"/>
       <c r="D393" s="9"/>
@@ -13668,7 +13671,7 @@
       <c r="AA393" s="9"/>
     </row>
     <row r="394">
-      <c r="A394" s="41"/>
+      <c r="A394" s="42"/>
       <c r="B394" s="9"/>
       <c r="C394" s="9"/>
       <c r="D394" s="9"/>
@@ -13697,7 +13700,7 @@
       <c r="AA394" s="9"/>
     </row>
     <row r="395">
-      <c r="A395" s="41"/>
+      <c r="A395" s="42"/>
       <c r="B395" s="9"/>
       <c r="C395" s="9"/>
       <c r="D395" s="9"/>
@@ -13726,7 +13729,7 @@
       <c r="AA395" s="9"/>
     </row>
     <row r="396">
-      <c r="A396" s="41"/>
+      <c r="A396" s="42"/>
       <c r="B396" s="9"/>
       <c r="C396" s="9"/>
       <c r="D396" s="9"/>
@@ -13755,7 +13758,7 @@
       <c r="AA396" s="9"/>
     </row>
     <row r="397">
-      <c r="A397" s="41"/>
+      <c r="A397" s="42"/>
       <c r="B397" s="9"/>
       <c r="C397" s="9"/>
       <c r="D397" s="9"/>
@@ -13784,7 +13787,7 @@
       <c r="AA397" s="9"/>
     </row>
     <row r="398">
-      <c r="A398" s="41"/>
+      <c r="A398" s="42"/>
       <c r="B398" s="9"/>
       <c r="C398" s="9"/>
       <c r="D398" s="9"/>
@@ -13813,7 +13816,7 @@
       <c r="AA398" s="9"/>
     </row>
     <row r="399">
-      <c r="A399" s="41"/>
+      <c r="A399" s="42"/>
       <c r="B399" s="9"/>
       <c r="C399" s="9"/>
       <c r="D399" s="9"/>
@@ -13842,7 +13845,7 @@
       <c r="AA399" s="9"/>
     </row>
     <row r="400">
-      <c r="A400" s="41"/>
+      <c r="A400" s="42"/>
       <c r="B400" s="9"/>
       <c r="C400" s="9"/>
       <c r="D400" s="9"/>
@@ -13871,7 +13874,7 @@
       <c r="AA400" s="9"/>
     </row>
     <row r="401">
-      <c r="A401" s="41"/>
+      <c r="A401" s="42"/>
       <c r="B401" s="9"/>
       <c r="C401" s="9"/>
       <c r="D401" s="9"/>
@@ -13900,7 +13903,7 @@
       <c r="AA401" s="9"/>
     </row>
     <row r="402">
-      <c r="A402" s="41"/>
+      <c r="A402" s="42"/>
       <c r="B402" s="9"/>
       <c r="C402" s="9"/>
       <c r="D402" s="9"/>
@@ -13929,7 +13932,7 @@
       <c r="AA402" s="9"/>
     </row>
     <row r="403">
-      <c r="A403" s="41"/>
+      <c r="A403" s="42"/>
       <c r="B403" s="9"/>
       <c r="C403" s="9"/>
       <c r="D403" s="9"/>
@@ -13958,7 +13961,7 @@
       <c r="AA403" s="9"/>
     </row>
     <row r="404">
-      <c r="A404" s="41"/>
+      <c r="A404" s="42"/>
       <c r="B404" s="9"/>
       <c r="C404" s="9"/>
       <c r="D404" s="9"/>
@@ -13987,7 +13990,7 @@
       <c r="AA404" s="9"/>
     </row>
     <row r="405">
-      <c r="A405" s="41"/>
+      <c r="A405" s="42"/>
       <c r="B405" s="9"/>
       <c r="C405" s="9"/>
       <c r="D405" s="9"/>
@@ -14016,7 +14019,7 @@
       <c r="AA405" s="9"/>
     </row>
     <row r="406">
-      <c r="A406" s="41"/>
+      <c r="A406" s="42"/>
       <c r="B406" s="9"/>
       <c r="C406" s="9"/>
       <c r="D406" s="9"/>
@@ -14045,7 +14048,7 @@
       <c r="AA406" s="9"/>
     </row>
     <row r="407">
-      <c r="A407" s="41"/>
+      <c r="A407" s="42"/>
       <c r="B407" s="9"/>
       <c r="C407" s="9"/>
       <c r="D407" s="9"/>
@@ -14074,7 +14077,7 @@
       <c r="AA407" s="9"/>
     </row>
     <row r="408">
-      <c r="A408" s="41"/>
+      <c r="A408" s="42"/>
       <c r="B408" s="9"/>
       <c r="C408" s="9"/>
       <c r="D408" s="9"/>
@@ -14103,7 +14106,7 @@
       <c r="AA408" s="9"/>
     </row>
     <row r="409">
-      <c r="A409" s="41"/>
+      <c r="A409" s="42"/>
       <c r="B409" s="9"/>
       <c r="C409" s="9"/>
       <c r="D409" s="9"/>
@@ -14132,7 +14135,7 @@
       <c r="AA409" s="9"/>
     </row>
     <row r="410">
-      <c r="A410" s="41"/>
+      <c r="A410" s="42"/>
       <c r="B410" s="9"/>
       <c r="C410" s="9"/>
       <c r="D410" s="9"/>
@@ -14161,7 +14164,7 @@
       <c r="AA410" s="9"/>
     </row>
     <row r="411">
-      <c r="A411" s="41"/>
+      <c r="A411" s="42"/>
       <c r="B411" s="9"/>
       <c r="C411" s="9"/>
       <c r="D411" s="9"/>
@@ -14190,7 +14193,7 @@
       <c r="AA411" s="9"/>
     </row>
     <row r="412">
-      <c r="A412" s="41"/>
+      <c r="A412" s="42"/>
       <c r="B412" s="9"/>
       <c r="C412" s="9"/>
       <c r="D412" s="9"/>
@@ -14219,7 +14222,7 @@
       <c r="AA412" s="9"/>
     </row>
     <row r="413">
-      <c r="A413" s="41"/>
+      <c r="A413" s="42"/>
       <c r="B413" s="9"/>
       <c r="C413" s="9"/>
       <c r="D413" s="9"/>
@@ -14248,7 +14251,7 @@
       <c r="AA413" s="9"/>
     </row>
     <row r="414">
-      <c r="A414" s="41"/>
+      <c r="A414" s="42"/>
       <c r="B414" s="9"/>
       <c r="C414" s="9"/>
       <c r="D414" s="9"/>
@@ -14277,7 +14280,7 @@
       <c r="AA414" s="9"/>
     </row>
     <row r="415">
-      <c r="A415" s="41"/>
+      <c r="A415" s="42"/>
       <c r="B415" s="9"/>
       <c r="C415" s="9"/>
       <c r="D415" s="9"/>
@@ -14306,7 +14309,7 @@
       <c r="AA415" s="9"/>
     </row>
     <row r="416">
-      <c r="A416" s="41"/>
+      <c r="A416" s="42"/>
       <c r="B416" s="9"/>
       <c r="C416" s="9"/>
       <c r="D416" s="9"/>
@@ -14335,7 +14338,7 @@
       <c r="AA416" s="9"/>
     </row>
     <row r="417">
-      <c r="A417" s="41"/>
+      <c r="A417" s="42"/>
       <c r="B417" s="9"/>
       <c r="C417" s="9"/>
       <c r="D417" s="9"/>
@@ -14364,7 +14367,7 @@
       <c r="AA417" s="9"/>
     </row>
     <row r="418">
-      <c r="A418" s="41"/>
+      <c r="A418" s="42"/>
       <c r="B418" s="9"/>
       <c r="C418" s="9"/>
       <c r="D418" s="9"/>
@@ -14393,7 +14396,7 @@
       <c r="AA418" s="9"/>
     </row>
     <row r="419">
-      <c r="A419" s="41"/>
+      <c r="A419" s="42"/>
       <c r="B419" s="9"/>
       <c r="C419" s="9"/>
       <c r="D419" s="9"/>
@@ -14422,7 +14425,7 @@
       <c r="AA419" s="9"/>
     </row>
     <row r="420">
-      <c r="A420" s="41"/>
+      <c r="A420" s="42"/>
       <c r="B420" s="9"/>
       <c r="C420" s="9"/>
       <c r="D420" s="9"/>
@@ -14451,7 +14454,7 @@
       <c r="AA420" s="9"/>
     </row>
     <row r="421">
-      <c r="A421" s="41"/>
+      <c r="A421" s="42"/>
       <c r="B421" s="9"/>
       <c r="C421" s="9"/>
       <c r="D421" s="9"/>
@@ -14480,7 +14483,7 @@
       <c r="AA421" s="9"/>
     </row>
     <row r="422">
-      <c r="A422" s="41"/>
+      <c r="A422" s="42"/>
       <c r="B422" s="9"/>
       <c r="C422" s="9"/>
       <c r="D422" s="9"/>
@@ -14509,7 +14512,7 @@
       <c r="AA422" s="9"/>
     </row>
     <row r="423">
-      <c r="A423" s="41"/>
+      <c r="A423" s="42"/>
       <c r="B423" s="9"/>
       <c r="C423" s="9"/>
       <c r="D423" s="9"/>
@@ -14538,7 +14541,7 @@
       <c r="AA423" s="9"/>
     </row>
     <row r="424">
-      <c r="A424" s="41"/>
+      <c r="A424" s="42"/>
       <c r="B424" s="9"/>
       <c r="C424" s="9"/>
       <c r="D424" s="9"/>
@@ -14567,7 +14570,7 @@
       <c r="AA424" s="9"/>
     </row>
     <row r="425">
-      <c r="A425" s="41"/>
+      <c r="A425" s="42"/>
       <c r="B425" s="9"/>
       <c r="C425" s="9"/>
       <c r="D425" s="9"/>
@@ -14596,7 +14599,7 @@
       <c r="AA425" s="9"/>
     </row>
     <row r="426">
-      <c r="A426" s="41"/>
+      <c r="A426" s="42"/>
       <c r="B426" s="9"/>
       <c r="C426" s="9"/>
       <c r="D426" s="9"/>
@@ -14625,7 +14628,7 @@
       <c r="AA426" s="9"/>
     </row>
     <row r="427">
-      <c r="A427" s="41"/>
+      <c r="A427" s="42"/>
       <c r="B427" s="9"/>
       <c r="C427" s="9"/>
       <c r="D427" s="9"/>
@@ -14654,7 +14657,7 @@
       <c r="AA427" s="9"/>
     </row>
     <row r="428">
-      <c r="A428" s="41"/>
+      <c r="A428" s="42"/>
       <c r="B428" s="9"/>
       <c r="C428" s="9"/>
       <c r="D428" s="9"/>
@@ -14683,7 +14686,7 @@
       <c r="AA428" s="9"/>
     </row>
     <row r="429">
-      <c r="A429" s="41"/>
+      <c r="A429" s="42"/>
       <c r="B429" s="9"/>
       <c r="C429" s="9"/>
       <c r="D429" s="9"/>
@@ -14712,7 +14715,7 @@
       <c r="AA429" s="9"/>
     </row>
     <row r="430">
-      <c r="A430" s="41"/>
+      <c r="A430" s="42"/>
       <c r="B430" s="9"/>
       <c r="C430" s="9"/>
       <c r="D430" s="9"/>
@@ -14741,7 +14744,7 @@
       <c r="AA430" s="9"/>
     </row>
     <row r="431">
-      <c r="A431" s="41"/>
+      <c r="A431" s="42"/>
       <c r="B431" s="9"/>
       <c r="C431" s="9"/>
       <c r="D431" s="9"/>
@@ -14770,7 +14773,7 @@
       <c r="AA431" s="9"/>
     </row>
     <row r="432">
-      <c r="A432" s="41"/>
+      <c r="A432" s="42"/>
       <c r="B432" s="9"/>
       <c r="C432" s="9"/>
       <c r="D432" s="9"/>
@@ -14799,7 +14802,7 @@
       <c r="AA432" s="9"/>
     </row>
     <row r="433">
-      <c r="A433" s="41"/>
+      <c r="A433" s="42"/>
       <c r="B433" s="9"/>
       <c r="C433" s="9"/>
       <c r="D433" s="9"/>
@@ -14828,7 +14831,7 @@
       <c r="AA433" s="9"/>
     </row>
     <row r="434">
-      <c r="A434" s="41"/>
+      <c r="A434" s="42"/>
       <c r="B434" s="9"/>
       <c r="C434" s="9"/>
       <c r="D434" s="9"/>
@@ -14857,7 +14860,7 @@
       <c r="AA434" s="9"/>
     </row>
     <row r="435">
-      <c r="A435" s="41"/>
+      <c r="A435" s="42"/>
       <c r="B435" s="9"/>
       <c r="C435" s="9"/>
       <c r="D435" s="9"/>
@@ -14886,7 +14889,7 @@
       <c r="AA435" s="9"/>
     </row>
     <row r="436">
-      <c r="A436" s="41"/>
+      <c r="A436" s="42"/>
       <c r="B436" s="9"/>
       <c r="C436" s="9"/>
       <c r="D436" s="9"/>
@@ -14915,7 +14918,7 @@
       <c r="AA436" s="9"/>
     </row>
     <row r="437">
-      <c r="A437" s="41"/>
+      <c r="A437" s="42"/>
       <c r="B437" s="9"/>
       <c r="C437" s="9"/>
       <c r="D437" s="9"/>
@@ -14944,7 +14947,7 @@
       <c r="AA437" s="9"/>
     </row>
     <row r="438">
-      <c r="A438" s="41"/>
+      <c r="A438" s="42"/>
       <c r="B438" s="9"/>
       <c r="C438" s="9"/>
       <c r="D438" s="9"/>
@@ -14973,7 +14976,7 @@
       <c r="AA438" s="9"/>
     </row>
     <row r="439">
-      <c r="A439" s="41"/>
+      <c r="A439" s="42"/>
       <c r="B439" s="9"/>
       <c r="C439" s="9"/>
       <c r="D439" s="9"/>
@@ -15002,7 +15005,7 @@
       <c r="AA439" s="9"/>
     </row>
     <row r="440">
-      <c r="A440" s="41"/>
+      <c r="A440" s="42"/>
       <c r="B440" s="9"/>
       <c r="C440" s="9"/>
       <c r="D440" s="9"/>
@@ -15031,7 +15034,7 @@
       <c r="AA440" s="9"/>
     </row>
     <row r="441">
-      <c r="A441" s="41"/>
+      <c r="A441" s="42"/>
       <c r="B441" s="9"/>
       <c r="C441" s="9"/>
       <c r="D441" s="9"/>
@@ -15060,7 +15063,7 @@
       <c r="AA441" s="9"/>
     </row>
     <row r="442">
-      <c r="A442" s="41"/>
+      <c r="A442" s="42"/>
       <c r="B442" s="9"/>
       <c r="C442" s="9"/>
       <c r="D442" s="9"/>
@@ -15089,7 +15092,7 @@
       <c r="AA442" s="9"/>
     </row>
     <row r="443">
-      <c r="A443" s="41"/>
+      <c r="A443" s="42"/>
       <c r="B443" s="9"/>
       <c r="C443" s="9"/>
       <c r="D443" s="9"/>
@@ -15118,7 +15121,7 @@
       <c r="AA443" s="9"/>
     </row>
     <row r="444">
-      <c r="A444" s="41"/>
+      <c r="A444" s="42"/>
       <c r="B444" s="9"/>
       <c r="C444" s="9"/>
       <c r="D444" s="9"/>
@@ -15147,7 +15150,7 @@
       <c r="AA444" s="9"/>
     </row>
     <row r="445">
-      <c r="A445" s="41"/>
+      <c r="A445" s="42"/>
       <c r="B445" s="9"/>
       <c r="C445" s="9"/>
       <c r="D445" s="9"/>
@@ -15176,7 +15179,7 @@
       <c r="AA445" s="9"/>
     </row>
     <row r="446">
-      <c r="A446" s="41"/>
+      <c r="A446" s="42"/>
       <c r="B446" s="9"/>
       <c r="C446" s="9"/>
       <c r="D446" s="9"/>
@@ -15205,7 +15208,7 @@
       <c r="AA446" s="9"/>
     </row>
     <row r="447">
-      <c r="A447" s="41"/>
+      <c r="A447" s="42"/>
       <c r="B447" s="9"/>
       <c r="C447" s="9"/>
       <c r="D447" s="9"/>
@@ -15234,7 +15237,7 @@
       <c r="AA447" s="9"/>
     </row>
     <row r="448">
-      <c r="A448" s="41"/>
+      <c r="A448" s="42"/>
       <c r="B448" s="9"/>
       <c r="C448" s="9"/>
       <c r="D448" s="9"/>
@@ -15263,7 +15266,7 @@
       <c r="AA448" s="9"/>
     </row>
     <row r="449">
-      <c r="A449" s="41"/>
+      <c r="A449" s="42"/>
       <c r="B449" s="9"/>
       <c r="C449" s="9"/>
       <c r="D449" s="9"/>
@@ -15292,7 +15295,7 @@
       <c r="AA449" s="9"/>
     </row>
     <row r="450">
-      <c r="A450" s="41"/>
+      <c r="A450" s="42"/>
       <c r="B450" s="9"/>
       <c r="C450" s="9"/>
       <c r="D450" s="9"/>
@@ -15321,7 +15324,7 @@
       <c r="AA450" s="9"/>
     </row>
     <row r="451">
-      <c r="A451" s="41"/>
+      <c r="A451" s="42"/>
       <c r="B451" s="9"/>
       <c r="C451" s="9"/>
       <c r="D451" s="9"/>
@@ -15350,7 +15353,7 @@
       <c r="AA451" s="9"/>
     </row>
     <row r="452">
-      <c r="A452" s="41"/>
+      <c r="A452" s="42"/>
       <c r="B452" s="9"/>
       <c r="C452" s="9"/>
       <c r="D452" s="9"/>
@@ -15379,7 +15382,7 @@
       <c r="AA452" s="9"/>
     </row>
     <row r="453">
-      <c r="A453" s="41"/>
+      <c r="A453" s="42"/>
       <c r="B453" s="9"/>
       <c r="C453" s="9"/>
       <c r="D453" s="9"/>
@@ -15408,7 +15411,7 @@
       <c r="AA453" s="9"/>
     </row>
     <row r="454">
-      <c r="A454" s="41"/>
+      <c r="A454" s="42"/>
       <c r="B454" s="9"/>
       <c r="C454" s="9"/>
       <c r="D454" s="9"/>
@@ -15437,7 +15440,7 @@
       <c r="AA454" s="9"/>
     </row>
     <row r="455">
-      <c r="A455" s="41"/>
+      <c r="A455" s="42"/>
       <c r="B455" s="9"/>
       <c r="C455" s="9"/>
       <c r="D455" s="9"/>
@@ -15466,7 +15469,7 @@
       <c r="AA455" s="9"/>
     </row>
     <row r="456">
-      <c r="A456" s="41"/>
+      <c r="A456" s="42"/>
       <c r="B456" s="9"/>
       <c r="C456" s="9"/>
       <c r="D456" s="9"/>
@@ -15495,7 +15498,7 @@
       <c r="AA456" s="9"/>
     </row>
     <row r="457">
-      <c r="A457" s="41"/>
+      <c r="A457" s="42"/>
       <c r="B457" s="9"/>
       <c r="C457" s="9"/>
       <c r="D457" s="9"/>
@@ -15524,7 +15527,7 @@
       <c r="AA457" s="9"/>
     </row>
     <row r="458">
-      <c r="A458" s="41"/>
+      <c r="A458" s="42"/>
       <c r="B458" s="9"/>
       <c r="C458" s="9"/>
       <c r="D458" s="9"/>
@@ -15553,7 +15556,7 @@
       <c r="AA458" s="9"/>
     </row>
     <row r="459">
-      <c r="A459" s="41"/>
+      <c r="A459" s="42"/>
       <c r="B459" s="9"/>
       <c r="C459" s="9"/>
       <c r="D459" s="9"/>
@@ -15582,7 +15585,7 @@
       <c r="AA459" s="9"/>
     </row>
     <row r="460">
-      <c r="A460" s="41"/>
+      <c r="A460" s="42"/>
       <c r="B460" s="9"/>
       <c r="C460" s="9"/>
       <c r="D460" s="9"/>
@@ -15611,7 +15614,7 @@
       <c r="AA460" s="9"/>
     </row>
     <row r="461">
-      <c r="A461" s="41"/>
+      <c r="A461" s="42"/>
       <c r="B461" s="9"/>
       <c r="C461" s="9"/>
       <c r="D461" s="9"/>
@@ -15640,7 +15643,7 @@
       <c r="AA461" s="9"/>
     </row>
     <row r="462">
-      <c r="A462" s="41"/>
+      <c r="A462" s="42"/>
       <c r="B462" s="9"/>
       <c r="C462" s="9"/>
       <c r="D462" s="9"/>
@@ -15669,7 +15672,7 @@
       <c r="AA462" s="9"/>
     </row>
     <row r="463">
-      <c r="A463" s="41"/>
+      <c r="A463" s="42"/>
       <c r="B463" s="9"/>
       <c r="C463" s="9"/>
       <c r="D463" s="9"/>
@@ -15698,7 +15701,7 @@
       <c r="AA463" s="9"/>
     </row>
     <row r="464">
-      <c r="A464" s="41"/>
+      <c r="A464" s="42"/>
       <c r="B464" s="9"/>
       <c r="C464" s="9"/>
       <c r="D464" s="9"/>
@@ -15727,7 +15730,7 @@
       <c r="AA464" s="9"/>
     </row>
     <row r="465">
-      <c r="A465" s="41"/>
+      <c r="A465" s="42"/>
       <c r="B465" s="9"/>
       <c r="C465" s="9"/>
       <c r="D465" s="9"/>
@@ -15756,7 +15759,7 @@
       <c r="AA465" s="9"/>
     </row>
     <row r="466">
-      <c r="A466" s="41"/>
+      <c r="A466" s="42"/>
       <c r="B466" s="9"/>
       <c r="C466" s="9"/>
       <c r="D466" s="9"/>
@@ -15785,7 +15788,7 @@
       <c r="AA466" s="9"/>
     </row>
     <row r="467">
-      <c r="A467" s="41"/>
+      <c r="A467" s="42"/>
       <c r="B467" s="9"/>
       <c r="C467" s="9"/>
       <c r="D467" s="9"/>
@@ -15814,7 +15817,7 @@
       <c r="AA467" s="9"/>
     </row>
     <row r="468">
-      <c r="A468" s="41"/>
+      <c r="A468" s="42"/>
       <c r="B468" s="9"/>
       <c r="C468" s="9"/>
       <c r="D468" s="9"/>
@@ -15843,7 +15846,7 @@
       <c r="AA468" s="9"/>
     </row>
     <row r="469">
-      <c r="A469" s="41"/>
+      <c r="A469" s="42"/>
       <c r="B469" s="9"/>
       <c r="C469" s="9"/>
       <c r="D469" s="9"/>
@@ -15872,7 +15875,7 @@
       <c r="AA469" s="9"/>
     </row>
     <row r="470">
-      <c r="A470" s="41"/>
+      <c r="A470" s="42"/>
       <c r="B470" s="9"/>
       <c r="C470" s="9"/>
       <c r="D470" s="9"/>
@@ -15901,7 +15904,7 @@
       <c r="AA470" s="9"/>
     </row>
     <row r="471">
-      <c r="A471" s="41"/>
+      <c r="A471" s="42"/>
       <c r="B471" s="9"/>
       <c r="C471" s="9"/>
       <c r="D471" s="9"/>
@@ -15930,7 +15933,7 @@
       <c r="AA471" s="9"/>
     </row>
     <row r="472">
-      <c r="A472" s="41"/>
+      <c r="A472" s="42"/>
       <c r="B472" s="9"/>
       <c r="C472" s="9"/>
       <c r="D472" s="9"/>
@@ -15959,7 +15962,7 @@
       <c r="AA472" s="9"/>
     </row>
     <row r="473">
-      <c r="A473" s="41"/>
+      <c r="A473" s="42"/>
       <c r="B473" s="9"/>
       <c r="C473" s="9"/>
       <c r="D473" s="9"/>
@@ -15988,7 +15991,7 @@
       <c r="AA473" s="9"/>
     </row>
     <row r="474">
-      <c r="A474" s="41"/>
+      <c r="A474" s="42"/>
       <c r="B474" s="9"/>
       <c r="C474" s="9"/>
       <c r="D474" s="9"/>
@@ -16017,7 +16020,7 @@
       <c r="AA474" s="9"/>
     </row>
     <row r="475">
-      <c r="A475" s="41"/>
+      <c r="A475" s="42"/>
       <c r="B475" s="9"/>
       <c r="C475" s="9"/>
       <c r="D475" s="9"/>
@@ -16046,7 +16049,7 @@
       <c r="AA475" s="9"/>
     </row>
     <row r="476">
-      <c r="A476" s="41"/>
+      <c r="A476" s="42"/>
       <c r="B476" s="9"/>
       <c r="C476" s="9"/>
       <c r="D476" s="9"/>
@@ -16075,7 +16078,7 @@
       <c r="AA476" s="9"/>
     </row>
     <row r="477">
-      <c r="A477" s="41"/>
+      <c r="A477" s="42"/>
       <c r="B477" s="9"/>
       <c r="C477" s="9"/>
       <c r="D477" s="9"/>
@@ -16104,7 +16107,7 @@
       <c r="AA477" s="9"/>
     </row>
     <row r="478">
-      <c r="A478" s="41"/>
+      <c r="A478" s="42"/>
       <c r="B478" s="9"/>
       <c r="C478" s="9"/>
       <c r="D478" s="9"/>
@@ -16133,7 +16136,7 @@
       <c r="AA478" s="9"/>
     </row>
     <row r="479">
-      <c r="A479" s="41"/>
+      <c r="A479" s="42"/>
       <c r="B479" s="9"/>
       <c r="C479" s="9"/>
       <c r="D479" s="9"/>
@@ -16162,7 +16165,7 @@
       <c r="AA479" s="9"/>
     </row>
     <row r="480">
-      <c r="A480" s="41"/>
+      <c r="A480" s="42"/>
       <c r="B480" s="9"/>
       <c r="C480" s="9"/>
       <c r="D480" s="9"/>
@@ -16191,7 +16194,7 @@
       <c r="AA480" s="9"/>
     </row>
     <row r="481">
-      <c r="A481" s="41"/>
+      <c r="A481" s="42"/>
       <c r="B481" s="9"/>
       <c r="C481" s="9"/>
       <c r="D481" s="9"/>
@@ -16220,7 +16223,7 @@
       <c r="AA481" s="9"/>
     </row>
     <row r="482">
-      <c r="A482" s="41"/>
+      <c r="A482" s="42"/>
       <c r="B482" s="9"/>
       <c r="C482" s="9"/>
       <c r="D482" s="9"/>
@@ -16249,7 +16252,7 @@
       <c r="AA482" s="9"/>
     </row>
     <row r="483">
-      <c r="A483" s="41"/>
+      <c r="A483" s="42"/>
       <c r="B483" s="9"/>
       <c r="C483" s="9"/>
       <c r="D483" s="9"/>
@@ -16278,7 +16281,7 @@
       <c r="AA483" s="9"/>
     </row>
     <row r="484">
-      <c r="A484" s="41"/>
+      <c r="A484" s="42"/>
       <c r="B484" s="9"/>
       <c r="C484" s="9"/>
       <c r="D484" s="9"/>
@@ -16307,7 +16310,7 @@
       <c r="AA484" s="9"/>
     </row>
     <row r="485">
-      <c r="A485" s="41"/>
+      <c r="A485" s="42"/>
       <c r="B485" s="9"/>
       <c r="C485" s="9"/>
       <c r="D485" s="9"/>
@@ -16336,7 +16339,7 @@
       <c r="AA485" s="9"/>
     </row>
     <row r="486">
-      <c r="A486" s="41"/>
+      <c r="A486" s="42"/>
       <c r="B486" s="9"/>
       <c r="C486" s="9"/>
       <c r="D486" s="9"/>
@@ -16365,7 +16368,7 @@
       <c r="AA486" s="9"/>
     </row>
     <row r="487">
-      <c r="A487" s="41"/>
+      <c r="A487" s="42"/>
       <c r="B487" s="9"/>
       <c r="C487" s="9"/>
       <c r="D487" s="9"/>
@@ -16394,7 +16397,7 @@
       <c r="AA487" s="9"/>
     </row>
     <row r="488">
-      <c r="A488" s="41"/>
+      <c r="A488" s="42"/>
       <c r="B488" s="9"/>
       <c r="C488" s="9"/>
       <c r="D488" s="9"/>
@@ -16423,7 +16426,7 @@
       <c r="AA488" s="9"/>
     </row>
     <row r="489">
-      <c r="A489" s="41"/>
+      <c r="A489" s="42"/>
       <c r="B489" s="9"/>
       <c r="C489" s="9"/>
       <c r="D489" s="9"/>
@@ -16452,7 +16455,7 @@
       <c r="AA489" s="9"/>
     </row>
     <row r="490">
-      <c r="A490" s="41"/>
+      <c r="A490" s="42"/>
       <c r="B490" s="9"/>
       <c r="C490" s="9"/>
       <c r="D490" s="9"/>
@@ -16481,7 +16484,7 @@
       <c r="AA490" s="9"/>
     </row>
     <row r="491">
-      <c r="A491" s="41"/>
+      <c r="A491" s="42"/>
       <c r="B491" s="9"/>
       <c r="C491" s="9"/>
       <c r="D491" s="9"/>
@@ -16510,7 +16513,7 @@
       <c r="AA491" s="9"/>
     </row>
     <row r="492">
-      <c r="A492" s="41"/>
+      <c r="A492" s="42"/>
       <c r="B492" s="9"/>
       <c r="C492" s="9"/>
       <c r="D492" s="9"/>
@@ -16539,7 +16542,7 @@
       <c r="AA492" s="9"/>
     </row>
     <row r="493">
-      <c r="A493" s="41"/>
+      <c r="A493" s="42"/>
       <c r="B493" s="9"/>
       <c r="C493" s="9"/>
       <c r="D493" s="9"/>
@@ -16568,7 +16571,7 @@
       <c r="AA493" s="9"/>
     </row>
     <row r="494">
-      <c r="A494" s="41"/>
+      <c r="A494" s="42"/>
       <c r="B494" s="9"/>
       <c r="C494" s="9"/>
       <c r="D494" s="9"/>
@@ -16597,7 +16600,7 @@
       <c r="AA494" s="9"/>
     </row>
     <row r="495">
-      <c r="A495" s="41"/>
+      <c r="A495" s="42"/>
       <c r="B495" s="9"/>
       <c r="C495" s="9"/>
       <c r="D495" s="9"/>
@@ -16626,7 +16629,7 @@
       <c r="AA495" s="9"/>
     </row>
     <row r="496">
-      <c r="A496" s="41"/>
+      <c r="A496" s="42"/>
       <c r="B496" s="9"/>
       <c r="C496" s="9"/>
       <c r="D496" s="9"/>
@@ -16655,7 +16658,7 @@
       <c r="AA496" s="9"/>
     </row>
     <row r="497">
-      <c r="A497" s="41"/>
+      <c r="A497" s="42"/>
       <c r="B497" s="9"/>
       <c r="C497" s="9"/>
       <c r="D497" s="9"/>
@@ -16684,7 +16687,7 @@
       <c r="AA497" s="9"/>
     </row>
     <row r="498">
-      <c r="A498" s="41"/>
+      <c r="A498" s="42"/>
       <c r="B498" s="9"/>
       <c r="C498" s="9"/>
       <c r="D498" s="9"/>
@@ -16713,7 +16716,7 @@
       <c r="AA498" s="9"/>
     </row>
     <row r="499">
-      <c r="A499" s="41"/>
+      <c r="A499" s="42"/>
       <c r="B499" s="9"/>
       <c r="C499" s="9"/>
       <c r="D499" s="9"/>
@@ -16742,7 +16745,7 @@
       <c r="AA499" s="9"/>
     </row>
     <row r="500">
-      <c r="A500" s="41"/>
+      <c r="A500" s="42"/>
       <c r="B500" s="9"/>
       <c r="C500" s="9"/>
       <c r="D500" s="9"/>
@@ -16771,7 +16774,7 @@
       <c r="AA500" s="9"/>
     </row>
     <row r="501">
-      <c r="A501" s="41"/>
+      <c r="A501" s="42"/>
       <c r="B501" s="9"/>
       <c r="C501" s="9"/>
       <c r="D501" s="9"/>
@@ -16800,7 +16803,7 @@
       <c r="AA501" s="9"/>
     </row>
     <row r="502">
-      <c r="A502" s="41"/>
+      <c r="A502" s="42"/>
       <c r="B502" s="9"/>
       <c r="C502" s="9"/>
       <c r="D502" s="9"/>
@@ -16829,7 +16832,7 @@
       <c r="AA502" s="9"/>
     </row>
     <row r="503">
-      <c r="A503" s="41"/>
+      <c r="A503" s="42"/>
       <c r="B503" s="9"/>
       <c r="C503" s="9"/>
       <c r="D503" s="9"/>
@@ -16858,7 +16861,7 @@
       <c r="AA503" s="9"/>
     </row>
     <row r="504">
-      <c r="A504" s="41"/>
+      <c r="A504" s="42"/>
       <c r="B504" s="9"/>
       <c r="C504" s="9"/>
       <c r="D504" s="9"/>
@@ -16887,7 +16890,7 @@
       <c r="AA504" s="9"/>
     </row>
     <row r="505">
-      <c r="A505" s="41"/>
+      <c r="A505" s="42"/>
       <c r="B505" s="9"/>
       <c r="C505" s="9"/>
       <c r="D505" s="9"/>
@@ -16916,7 +16919,7 @@
       <c r="AA505" s="9"/>
     </row>
     <row r="506">
-      <c r="A506" s="41"/>
+      <c r="A506" s="42"/>
       <c r="B506" s="9"/>
       <c r="C506" s="9"/>
       <c r="D506" s="9"/>
@@ -16945,7 +16948,7 @@
       <c r="AA506" s="9"/>
     </row>
     <row r="507">
-      <c r="A507" s="41"/>
+      <c r="A507" s="42"/>
       <c r="B507" s="9"/>
       <c r="C507" s="9"/>
       <c r="D507" s="9"/>
@@ -16974,7 +16977,7 @@
       <c r="AA507" s="9"/>
     </row>
     <row r="508">
-      <c r="A508" s="41"/>
+      <c r="A508" s="42"/>
       <c r="B508" s="9"/>
       <c r="C508" s="9"/>
       <c r="D508" s="9"/>
@@ -17003,7 +17006,7 @@
       <c r="AA508" s="9"/>
     </row>
     <row r="509">
-      <c r="A509" s="41"/>
+      <c r="A509" s="42"/>
       <c r="B509" s="9"/>
       <c r="C509" s="9"/>
       <c r="D509" s="9"/>
@@ -17032,7 +17035,7 @@
       <c r="AA509" s="9"/>
     </row>
     <row r="510">
-      <c r="A510" s="41"/>
+      <c r="A510" s="42"/>
       <c r="B510" s="9"/>
       <c r="C510" s="9"/>
       <c r="D510" s="9"/>
@@ -17061,7 +17064,7 @@
       <c r="AA510" s="9"/>
     </row>
     <row r="511">
-      <c r="A511" s="41"/>
+      <c r="A511" s="42"/>
       <c r="B511" s="9"/>
       <c r="C511" s="9"/>
       <c r="D511" s="9"/>
@@ -17090,7 +17093,7 @@
       <c r="AA511" s="9"/>
     </row>
     <row r="512">
-      <c r="A512" s="41"/>
+      <c r="A512" s="42"/>
       <c r="B512" s="9"/>
       <c r="C512" s="9"/>
       <c r="D512" s="9"/>
@@ -17119,7 +17122,7 @@
       <c r="AA512" s="9"/>
     </row>
     <row r="513">
-      <c r="A513" s="41"/>
+      <c r="A513" s="42"/>
       <c r="B513" s="9"/>
       <c r="C513" s="9"/>
       <c r="D513" s="9"/>
@@ -17148,7 +17151,7 @@
       <c r="AA513" s="9"/>
     </row>
     <row r="514">
-      <c r="A514" s="41"/>
+      <c r="A514" s="42"/>
       <c r="B514" s="9"/>
       <c r="C514" s="9"/>
       <c r="D514" s="9"/>
@@ -17177,7 +17180,7 @@
       <c r="AA514" s="9"/>
     </row>
     <row r="515">
-      <c r="A515" s="41"/>
+      <c r="A515" s="42"/>
       <c r="B515" s="9"/>
       <c r="C515" s="9"/>
       <c r="D515" s="9"/>
@@ -17206,7 +17209,7 @@
       <c r="AA515" s="9"/>
     </row>
     <row r="516">
-      <c r="A516" s="41"/>
+      <c r="A516" s="42"/>
       <c r="B516" s="9"/>
       <c r="C516" s="9"/>
       <c r="D516" s="9"/>
@@ -17235,7 +17238,7 @@
       <c r="AA516" s="9"/>
     </row>
     <row r="517">
-      <c r="A517" s="41"/>
+      <c r="A517" s="42"/>
       <c r="B517" s="9"/>
       <c r="C517" s="9"/>
       <c r="D517" s="9"/>
@@ -17264,7 +17267,7 @@
       <c r="AA517" s="9"/>
     </row>
     <row r="518">
-      <c r="A518" s="41"/>
+      <c r="A518" s="42"/>
       <c r="B518" s="9"/>
       <c r="C518" s="9"/>
       <c r="D518" s="9"/>
@@ -17293,7 +17296,7 @@
       <c r="AA518" s="9"/>
     </row>
     <row r="519">
-      <c r="A519" s="41"/>
+      <c r="A519" s="42"/>
       <c r="B519" s="9"/>
       <c r="C519" s="9"/>
       <c r="D519" s="9"/>
@@ -17322,7 +17325,7 @@
       <c r="AA519" s="9"/>
     </row>
     <row r="520">
-      <c r="A520" s="41"/>
+      <c r="A520" s="42"/>
       <c r="B520" s="9"/>
       <c r="C520" s="9"/>
       <c r="D520" s="9"/>
@@ -17351,7 +17354,7 @@
       <c r="AA520" s="9"/>
     </row>
     <row r="521">
-      <c r="A521" s="41"/>
+      <c r="A521" s="42"/>
       <c r="B521" s="9"/>
       <c r="C521" s="9"/>
       <c r="D521" s="9"/>
@@ -17380,7 +17383,7 @@
       <c r="AA521" s="9"/>
     </row>
     <row r="522">
-      <c r="A522" s="41"/>
+      <c r="A522" s="42"/>
       <c r="B522" s="9"/>
       <c r="C522" s="9"/>
       <c r="D522" s="9"/>
@@ -17409,7 +17412,7 @@
       <c r="AA522" s="9"/>
     </row>
     <row r="523">
-      <c r="A523" s="41"/>
+      <c r="A523" s="42"/>
       <c r="B523" s="9"/>
       <c r="C523" s="9"/>
       <c r="D523" s="9"/>
@@ -17438,7 +17441,7 @@
       <c r="AA523" s="9"/>
     </row>
     <row r="524">
-      <c r="A524" s="41"/>
+      <c r="A524" s="42"/>
       <c r="B524" s="9"/>
       <c r="C524" s="9"/>
       <c r="D524" s="9"/>
@@ -17467,7 +17470,7 @@
       <c r="AA524" s="9"/>
     </row>
     <row r="525">
-      <c r="A525" s="41"/>
+      <c r="A525" s="42"/>
       <c r="B525" s="9"/>
       <c r="C525" s="9"/>
       <c r="D525" s="9"/>
@@ -17496,7 +17499,7 @@
       <c r="AA525" s="9"/>
     </row>
     <row r="526">
-      <c r="A526" s="41"/>
+      <c r="A526" s="42"/>
       <c r="B526" s="9"/>
       <c r="C526" s="9"/>
       <c r="D526" s="9"/>
@@ -17525,7 +17528,7 @@
       <c r="AA526" s="9"/>
     </row>
     <row r="527">
-      <c r="A527" s="41"/>
+      <c r="A527" s="42"/>
       <c r="B527" s="9"/>
       <c r="C527" s="9"/>
       <c r="D527" s="9"/>
@@ -17554,7 +17557,7 @@
       <c r="AA527" s="9"/>
     </row>
     <row r="528">
-      <c r="A528" s="41"/>
+      <c r="A528" s="42"/>
       <c r="B528" s="9"/>
       <c r="C528" s="9"/>
       <c r="D528" s="9"/>
@@ -17583,7 +17586,7 @@
       <c r="AA528" s="9"/>
     </row>
     <row r="529">
-      <c r="A529" s="41"/>
+      <c r="A529" s="42"/>
       <c r="B529" s="9"/>
       <c r="C529" s="9"/>
       <c r="D529" s="9"/>
@@ -17612,7 +17615,7 @@
       <c r="AA529" s="9"/>
     </row>
     <row r="530">
-      <c r="A530" s="41"/>
+      <c r="A530" s="42"/>
       <c r="B530" s="9"/>
       <c r="C530" s="9"/>
       <c r="D530" s="9"/>
@@ -17641,7 +17644,7 @@
       <c r="AA530" s="9"/>
     </row>
     <row r="531">
-      <c r="A531" s="41"/>
+      <c r="A531" s="42"/>
       <c r="B531" s="9"/>
       <c r="C531" s="9"/>
       <c r="D531" s="9"/>
@@ -17670,7 +17673,7 @@
       <c r="AA531" s="9"/>
     </row>
     <row r="532">
-      <c r="A532" s="41"/>
+      <c r="A532" s="42"/>
       <c r="B532" s="9"/>
       <c r="C532" s="9"/>
       <c r="D532" s="9"/>
@@ -17699,7 +17702,7 @@
       <c r="AA532" s="9"/>
     </row>
     <row r="533">
-      <c r="A533" s="41"/>
+      <c r="A533" s="42"/>
       <c r="B533" s="9"/>
       <c r="C533" s="9"/>
       <c r="D533" s="9"/>
@@ -17728,7 +17731,7 @@
       <c r="AA533" s="9"/>
     </row>
     <row r="534">
-      <c r="A534" s="41"/>
+      <c r="A534" s="42"/>
       <c r="B534" s="9"/>
       <c r="C534" s="9"/>
       <c r="D534" s="9"/>
@@ -17757,7 +17760,7 @@
       <c r="AA534" s="9"/>
     </row>
     <row r="535">
-      <c r="A535" s="41"/>
+      <c r="A535" s="42"/>
       <c r="B535" s="9"/>
       <c r="C535" s="9"/>
       <c r="D535" s="9"/>
@@ -17786,7 +17789,7 @@
       <c r="AA535" s="9"/>
     </row>
     <row r="536">
-      <c r="A536" s="41"/>
+      <c r="A536" s="42"/>
       <c r="B536" s="9"/>
       <c r="C536" s="9"/>
       <c r="D536" s="9"/>
@@ -17815,7 +17818,7 @@
       <c r="AA536" s="9"/>
     </row>
     <row r="537">
-      <c r="A537" s="41"/>
+      <c r="A537" s="42"/>
       <c r="B537" s="9"/>
       <c r="C537" s="9"/>
       <c r="D537" s="9"/>
@@ -17844,7 +17847,7 @@
       <c r="AA537" s="9"/>
     </row>
     <row r="538">
-      <c r="A538" s="41"/>
+      <c r="A538" s="42"/>
       <c r="B538" s="9"/>
       <c r="C538" s="9"/>
       <c r="D538" s="9"/>
@@ -17873,7 +17876,7 @@
       <c r="AA538" s="9"/>
     </row>
     <row r="539">
-      <c r="A539" s="41"/>
+      <c r="A539" s="42"/>
       <c r="B539" s="9"/>
       <c r="C539" s="9"/>
       <c r="D539" s="9"/>
@@ -17902,7 +17905,7 @@
       <c r="AA539" s="9"/>
     </row>
     <row r="540">
-      <c r="A540" s="41"/>
+      <c r="A540" s="42"/>
       <c r="B540" s="9"/>
       <c r="C540" s="9"/>
       <c r="D540" s="9"/>
@@ -17931,7 +17934,7 @@
       <c r="AA540" s="9"/>
     </row>
     <row r="541">
-      <c r="A541" s="41"/>
+      <c r="A541" s="42"/>
       <c r="B541" s="9"/>
       <c r="C541" s="9"/>
       <c r="D541" s="9"/>
@@ -17960,7 +17963,7 @@
       <c r="AA541" s="9"/>
     </row>
     <row r="542">
-      <c r="A542" s="41"/>
+      <c r="A542" s="42"/>
       <c r="B542" s="9"/>
       <c r="C542" s="9"/>
       <c r="D542" s="9"/>
@@ -17989,7 +17992,7 @@
       <c r="AA542" s="9"/>
     </row>
     <row r="543">
-      <c r="A543" s="41"/>
+      <c r="A543" s="42"/>
       <c r="B543" s="9"/>
       <c r="C543" s="9"/>
       <c r="D543" s="9"/>
@@ -18018,7 +18021,7 @@
       <c r="AA543" s="9"/>
     </row>
     <row r="544">
-      <c r="A544" s="41"/>
+      <c r="A544" s="42"/>
       <c r="B544" s="9"/>
       <c r="C544" s="9"/>
       <c r="D544" s="9"/>
@@ -18047,7 +18050,7 @@
       <c r="AA544" s="9"/>
     </row>
     <row r="545">
-      <c r="A545" s="41"/>
+      <c r="A545" s="42"/>
       <c r="B545" s="9"/>
       <c r="C545" s="9"/>
       <c r="D545" s="9"/>
@@ -18076,7 +18079,7 @@
       <c r="AA545" s="9"/>
     </row>
     <row r="546">
-      <c r="A546" s="41"/>
+      <c r="A546" s="42"/>
       <c r="B546" s="9"/>
       <c r="C546" s="9"/>
       <c r="D546" s="9"/>
@@ -18105,7 +18108,7 @@
       <c r="AA546" s="9"/>
     </row>
     <row r="547">
-      <c r="A547" s="41"/>
+      <c r="A547" s="42"/>
       <c r="B547" s="9"/>
       <c r="C547" s="9"/>
       <c r="D547" s="9"/>
@@ -18134,7 +18137,7 @@
       <c r="AA547" s="9"/>
     </row>
     <row r="548">
-      <c r="A548" s="41"/>
+      <c r="A548" s="42"/>
       <c r="B548" s="9"/>
       <c r="C548" s="9"/>
       <c r="D548" s="9"/>
@@ -18163,7 +18166,7 @@
       <c r="AA548" s="9"/>
     </row>
     <row r="549">
-      <c r="A549" s="41"/>
+      <c r="A549" s="42"/>
       <c r="B549" s="9"/>
       <c r="C549" s="9"/>
       <c r="D549" s="9"/>
@@ -18192,7 +18195,7 @@
       <c r="AA549" s="9"/>
     </row>
     <row r="550">
-      <c r="A550" s="41"/>
+      <c r="A550" s="42"/>
       <c r="B550" s="9"/>
       <c r="C550" s="9"/>
       <c r="D550" s="9"/>
@@ -18221,7 +18224,7 @@
       <c r="AA550" s="9"/>
     </row>
     <row r="551">
-      <c r="A551" s="41"/>
+      <c r="A551" s="42"/>
       <c r="B551" s="9"/>
       <c r="C551" s="9"/>
       <c r="D551" s="9"/>
@@ -18250,7 +18253,7 @@
       <c r="AA551" s="9"/>
     </row>
     <row r="552">
-      <c r="A552" s="41"/>
+      <c r="A552" s="42"/>
       <c r="B552" s="9"/>
       <c r="C552" s="9"/>
       <c r="D552" s="9"/>
@@ -18279,7 +18282,7 @@
       <c r="AA552" s="9"/>
     </row>
     <row r="553">
-      <c r="A553" s="41"/>
+      <c r="A553" s="42"/>
       <c r="B553" s="9"/>
       <c r="C553" s="9"/>
       <c r="D553" s="9"/>
@@ -18308,7 +18311,7 @@
       <c r="AA553" s="9"/>
     </row>
     <row r="554">
-      <c r="A554" s="41"/>
+      <c r="A554" s="42"/>
       <c r="B554" s="9"/>
       <c r="C554" s="9"/>
       <c r="D554" s="9"/>
@@ -18337,7 +18340,7 @@
       <c r="AA554" s="9"/>
     </row>
     <row r="555">
-      <c r="A555" s="41"/>
+      <c r="A555" s="42"/>
       <c r="B555" s="9"/>
       <c r="C555" s="9"/>
       <c r="D555" s="9"/>
@@ -18366,7 +18369,7 @@
       <c r="AA555" s="9"/>
     </row>
     <row r="556">
-      <c r="A556" s="41"/>
+      <c r="A556" s="42"/>
       <c r="B556" s="9"/>
       <c r="C556" s="9"/>
       <c r="D556" s="9"/>
@@ -18395,7 +18398,7 @@
       <c r="AA556" s="9"/>
     </row>
     <row r="557">
-      <c r="A557" s="41"/>
+      <c r="A557" s="42"/>
       <c r="B557" s="9"/>
       <c r="C557" s="9"/>
       <c r="D557" s="9"/>
@@ -18424,7 +18427,7 @@
       <c r="AA557" s="9"/>
     </row>
     <row r="558">
-      <c r="A558" s="41"/>
+      <c r="A558" s="42"/>
       <c r="B558" s="9"/>
       <c r="C558" s="9"/>
       <c r="D558" s="9"/>
@@ -18453,7 +18456,7 @@
       <c r="AA558" s="9"/>
     </row>
     <row r="559">
-      <c r="A559" s="41"/>
+      <c r="A559" s="42"/>
       <c r="B559" s="9"/>
       <c r="C559" s="9"/>
       <c r="D559" s="9"/>
@@ -18482,7 +18485,7 @@
       <c r="AA559" s="9"/>
     </row>
     <row r="560">
-      <c r="A560" s="41"/>
+      <c r="A560" s="42"/>
       <c r="B560" s="9"/>
       <c r="C560" s="9"/>
       <c r="D560" s="9"/>
@@ -18511,7 +18514,7 @@
       <c r="AA560" s="9"/>
     </row>
     <row r="561">
-      <c r="A561" s="41"/>
+      <c r="A561" s="42"/>
       <c r="B561" s="9"/>
       <c r="C561" s="9"/>
       <c r="D561" s="9"/>
@@ -18540,7 +18543,7 @@
       <c r="AA561" s="9"/>
     </row>
     <row r="562">
-      <c r="A562" s="41"/>
+      <c r="A562" s="42"/>
       <c r="B562" s="9"/>
       <c r="C562" s="9"/>
       <c r="D562" s="9"/>
@@ -18569,7 +18572,7 @@
       <c r="AA562" s="9"/>
     </row>
     <row r="563">
-      <c r="A563" s="41"/>
+      <c r="A563" s="42"/>
       <c r="B563" s="9"/>
       <c r="C563" s="9"/>
       <c r="D563" s="9"/>
@@ -18598,7 +18601,7 @@
       <c r="AA563" s="9"/>
     </row>
     <row r="564">
-      <c r="A564" s="41"/>
+      <c r="A564" s="42"/>
       <c r="B564" s="9"/>
       <c r="C564" s="9"/>
       <c r="D564" s="9"/>
@@ -18627,7 +18630,7 @@
       <c r="AA564" s="9"/>
     </row>
     <row r="565">
-      <c r="A565" s="41"/>
+      <c r="A565" s="42"/>
       <c r="B565" s="9"/>
       <c r="C565" s="9"/>
       <c r="D565" s="9"/>
@@ -18656,7 +18659,7 @@
       <c r="AA565" s="9"/>
     </row>
     <row r="566">
-      <c r="A566" s="41"/>
+      <c r="A566" s="42"/>
       <c r="B566" s="9"/>
       <c r="C566" s="9"/>
       <c r="D566" s="9"/>
@@ -18685,7 +18688,7 @@
       <c r="AA566" s="9"/>
     </row>
     <row r="567">
-      <c r="A567" s="41"/>
+      <c r="A567" s="42"/>
       <c r="B567" s="9"/>
       <c r="C567" s="9"/>
       <c r="D567" s="9"/>
@@ -18714,7 +18717,7 @@
       <c r="AA567" s="9"/>
     </row>
     <row r="568">
-      <c r="A568" s="41"/>
+      <c r="A568" s="42"/>
       <c r="B568" s="9"/>
       <c r="C568" s="9"/>
       <c r="D568" s="9"/>
@@ -18743,7 +18746,7 @@
       <c r="AA568" s="9"/>
     </row>
     <row r="569">
-      <c r="A569" s="41"/>
+      <c r="A569" s="42"/>
       <c r="B569" s="9"/>
       <c r="C569" s="9"/>
       <c r="D569" s="9"/>
@@ -18772,7 +18775,7 @@
       <c r="AA569" s="9"/>
     </row>
     <row r="570">
-      <c r="A570" s="41"/>
+      <c r="A570" s="42"/>
       <c r="B570" s="9"/>
       <c r="C570" s="9"/>
       <c r="D570" s="9"/>
@@ -18801,7 +18804,7 @@
       <c r="AA570" s="9"/>
     </row>
     <row r="571">
-      <c r="A571" s="41"/>
+      <c r="A571" s="42"/>
       <c r="B571" s="9"/>
       <c r="C571" s="9"/>
       <c r="D571" s="9"/>
@@ -18830,7 +18833,7 @@
       <c r="AA571" s="9"/>
     </row>
     <row r="572">
-      <c r="A572" s="41"/>
+      <c r="A572" s="42"/>
       <c r="B572" s="9"/>
       <c r="C572" s="9"/>
       <c r="D572" s="9"/>
@@ -18859,7 +18862,7 @@
       <c r="AA572" s="9"/>
     </row>
     <row r="573">
-      <c r="A573" s="41"/>
+      <c r="A573" s="42"/>
       <c r="B573" s="9"/>
       <c r="C573" s="9"/>
       <c r="D573" s="9"/>
@@ -18888,7 +18891,7 @@
       <c r="AA573" s="9"/>
     </row>
     <row r="574">
-      <c r="A574" s="41"/>
+      <c r="A574" s="42"/>
       <c r="B574" s="9"/>
       <c r="C574" s="9"/>
       <c r="D574" s="9"/>
@@ -18917,7 +18920,7 @@
       <c r="AA574" s="9"/>
     </row>
     <row r="575">
-      <c r="A575" s="41"/>
+      <c r="A575" s="42"/>
       <c r="B575" s="9"/>
       <c r="C575" s="9"/>
       <c r="D575" s="9"/>
@@ -18946,7 +18949,7 @@
       <c r="AA575" s="9"/>
     </row>
     <row r="576">
-      <c r="A576" s="41"/>
+      <c r="A576" s="42"/>
       <c r="B576" s="9"/>
       <c r="C576" s="9"/>
       <c r="D576" s="9"/>
@@ -18975,7 +18978,7 @@
       <c r="AA576" s="9"/>
     </row>
     <row r="577">
-      <c r="A577" s="41"/>
+      <c r="A577" s="42"/>
       <c r="B577" s="9"/>
       <c r="C577" s="9"/>
       <c r="D577" s="9"/>
@@ -19004,7 +19007,7 @@
       <c r="AA577" s="9"/>
     </row>
     <row r="578">
-      <c r="A578" s="41"/>
+      <c r="A578" s="42"/>
       <c r="B578" s="9"/>
       <c r="C578" s="9"/>
       <c r="D578" s="9"/>
@@ -19033,7 +19036,7 @@
       <c r="AA578" s="9"/>
     </row>
     <row r="579">
-      <c r="A579" s="41"/>
+      <c r="A579" s="42"/>
       <c r="B579" s="9"/>
       <c r="C579" s="9"/>
       <c r="D579" s="9"/>
@@ -19062,7 +19065,7 @@
       <c r="AA579" s="9"/>
     </row>
     <row r="580">
-      <c r="A580" s="41"/>
+      <c r="A580" s="42"/>
       <c r="B580" s="9"/>
       <c r="C580" s="9"/>
       <c r="D580" s="9"/>
@@ -19091,7 +19094,7 @@
       <c r="AA580" s="9"/>
     </row>
     <row r="581">
-      <c r="A581" s="41"/>
+      <c r="A581" s="42"/>
       <c r="B581" s="9"/>
       <c r="C581" s="9"/>
       <c r="D581" s="9"/>
@@ -19120,7 +19123,7 @@
       <c r="AA581" s="9"/>
     </row>
     <row r="582">
-      <c r="A582" s="41"/>
+      <c r="A582" s="42"/>
       <c r="B582" s="9"/>
       <c r="C582" s="9"/>
       <c r="D582" s="9"/>
@@ -19149,7 +19152,7 @@
       <c r="AA582" s="9"/>
     </row>
     <row r="583">
-      <c r="A583" s="41"/>
+      <c r="A583" s="42"/>
       <c r="B583" s="9"/>
       <c r="C583" s="9"/>
       <c r="D583" s="9"/>
@@ -19178,7 +19181,7 @@
       <c r="AA583" s="9"/>
     </row>
     <row r="584">
-      <c r="A584" s="41"/>
+      <c r="A584" s="42"/>
       <c r="B584" s="9"/>
       <c r="C584" s="9"/>
       <c r="D584" s="9"/>
@@ -19207,7 +19210,7 @@
       <c r="AA584" s="9"/>
     </row>
     <row r="585">
-      <c r="A585" s="41"/>
+      <c r="A585" s="42"/>
       <c r="B585" s="9"/>
       <c r="C585" s="9"/>
       <c r="D585" s="9"/>
@@ -19236,7 +19239,7 @@
       <c r="AA585" s="9"/>
     </row>
     <row r="586">
-      <c r="A586" s="41"/>
+      <c r="A586" s="42"/>
       <c r="B586" s="9"/>
       <c r="C586" s="9"/>
       <c r="D586" s="9"/>
@@ -19265,7 +19268,7 @@
       <c r="AA586" s="9"/>
     </row>
     <row r="587">
-      <c r="A587" s="41"/>
+      <c r="A587" s="42"/>
       <c r="B587" s="9"/>
       <c r="C587" s="9"/>
       <c r="D587" s="9"/>
@@ -19294,7 +19297,7 @@
       <c r="AA587" s="9"/>
     </row>
     <row r="588">
-      <c r="A588" s="41"/>
+      <c r="A588" s="42"/>
       <c r="B588" s="9"/>
       <c r="C588" s="9"/>
       <c r="D588" s="9"/>
@@ -19323,7 +19326,7 @@
       <c r="AA588" s="9"/>
     </row>
     <row r="589">
-      <c r="A589" s="41"/>
+      <c r="A589" s="42"/>
       <c r="B589" s="9"/>
       <c r="C589" s="9"/>
       <c r="D589" s="9"/>
@@ -19352,7 +19355,7 @@
       <c r="AA589" s="9"/>
     </row>
     <row r="590">
-      <c r="A590" s="41"/>
+      <c r="A590" s="42"/>
       <c r="B590" s="9"/>
       <c r="C590" s="9"/>
       <c r="D590" s="9"/>
@@ -19381,7 +19384,7 @@
       <c r="AA590" s="9"/>
     </row>
     <row r="591">
-      <c r="A591" s="41"/>
+      <c r="A591" s="42"/>
       <c r="B591" s="9"/>
       <c r="C591" s="9"/>
       <c r="D591" s="9"/>
@@ -19410,7 +19413,7 @@
       <c r="AA591" s="9"/>
     </row>
     <row r="592">
-      <c r="A592" s="41"/>
+      <c r="A592" s="42"/>
       <c r="B592" s="9"/>
       <c r="C592" s="9"/>
       <c r="D592" s="9"/>
@@ -19439,7 +19442,7 @@
       <c r="AA592" s="9"/>
     </row>
     <row r="593">
-      <c r="A593" s="41"/>
+      <c r="A593" s="42"/>
       <c r="B593" s="9"/>
       <c r="C593" s="9"/>
       <c r="D593" s="9"/>
@@ -19468,7 +19471,7 @@
       <c r="AA593" s="9"/>
     </row>
     <row r="594">
-      <c r="A594" s="41"/>
+      <c r="A594" s="42"/>
       <c r="B594" s="9"/>
       <c r="C594" s="9"/>
       <c r="D594" s="9"/>
@@ -19497,7 +19500,7 @@
       <c r="AA594" s="9"/>
     </row>
     <row r="595">
-      <c r="A595" s="41"/>
+      <c r="A595" s="42"/>
       <c r="B595" s="9"/>
       <c r="C595" s="9"/>
       <c r="D595" s="9"/>
@@ -19526,7 +19529,7 @@
       <c r="AA595" s="9"/>
     </row>
     <row r="596">
-      <c r="A596" s="41"/>
+      <c r="A596" s="42"/>
       <c r="B596" s="9"/>
       <c r="C596" s="9"/>
       <c r="D596" s="9"/>
@@ -19555,7 +19558,7 @@
       <c r="AA596" s="9"/>
     </row>
     <row r="597">
-      <c r="A597" s="41"/>
+      <c r="A597" s="42"/>
       <c r="B597" s="9"/>
       <c r="C597" s="9"/>
       <c r="D597" s="9"/>
@@ -19584,7 +19587,7 @@
       <c r="AA597" s="9"/>
     </row>
     <row r="598">
-      <c r="A598" s="41"/>
+      <c r="A598" s="42"/>
       <c r="B598" s="9"/>
       <c r="C598" s="9"/>
       <c r="D598" s="9"/>
@@ -19613,7 +19616,7 @@
       <c r="AA598" s="9"/>
     </row>
     <row r="599">
-      <c r="A599" s="41"/>
+      <c r="A599" s="42"/>
       <c r="B599" s="9"/>
       <c r="C599" s="9"/>
       <c r="D599" s="9"/>
@@ -19642,7 +19645,7 @@
       <c r="AA599" s="9"/>
     </row>
     <row r="600">
-      <c r="A600" s="41"/>
+      <c r="A600" s="42"/>
       <c r="B600" s="9"/>
       <c r="C600" s="9"/>
       <c r="D600" s="9"/>
@@ -19671,7 +19674,7 @@
       <c r="AA600" s="9"/>
     </row>
     <row r="601">
-      <c r="A601" s="41"/>
+      <c r="A601" s="42"/>
       <c r="B601" s="9"/>
       <c r="C601" s="9"/>
       <c r="D601" s="9"/>
@@ -19700,7 +19703,7 @@
       <c r="AA601" s="9"/>
     </row>
     <row r="602">
-      <c r="A602" s="41"/>
+      <c r="A602" s="42"/>
       <c r="B602" s="9"/>
       <c r="C602" s="9"/>
       <c r="D602" s="9"/>
@@ -19729,7 +19732,7 @@
       <c r="AA602" s="9"/>
     </row>
     <row r="603">
-      <c r="A603" s="41"/>
+      <c r="A603" s="42"/>
       <c r="B603" s="9"/>
       <c r="C603" s="9"/>
       <c r="D603" s="9"/>
@@ -19758,7 +19761,7 @@
       <c r="AA603" s="9"/>
     </row>
     <row r="604">
-      <c r="A604" s="41"/>
+      <c r="A604" s="42"/>
       <c r="B604" s="9"/>
       <c r="C604" s="9"/>
       <c r="D604" s="9"/>
@@ -19787,7 +19790,7 @@
       <c r="AA604" s="9"/>
     </row>
     <row r="605">
-      <c r="A605" s="41"/>
+      <c r="A605" s="42"/>
       <c r="B605" s="9"/>
       <c r="C605" s="9"/>
       <c r="D605" s="9"/>
@@ -19816,7 +19819,7 @@
       <c r="AA605" s="9"/>
     </row>
     <row r="606">
-      <c r="A606" s="41"/>
+      <c r="A606" s="42"/>
       <c r="B606" s="9"/>
       <c r="C606" s="9"/>
       <c r="D606" s="9"/>
@@ -19845,7 +19848,7 @@
       <c r="AA606" s="9"/>
     </row>
     <row r="607">
-      <c r="A607" s="41"/>
+      <c r="A607" s="42"/>
       <c r="B607" s="9"/>
       <c r="C607" s="9"/>
       <c r="D607" s="9"/>
@@ -19874,7 +19877,7 @@
       <c r="AA607" s="9"/>
     </row>
     <row r="608">
-      <c r="A608" s="41"/>
+      <c r="A608" s="42"/>
       <c r="B608" s="9"/>
       <c r="C608" s="9"/>
       <c r="D608" s="9"/>
@@ -19903,7 +19906,7 @@
       <c r="AA608" s="9"/>
     </row>
     <row r="609">
-      <c r="A609" s="41"/>
+      <c r="A609" s="42"/>
       <c r="B609" s="9"/>
       <c r="C609" s="9"/>
       <c r="D609" s="9"/>
@@ -19932,7 +19935,7 @@
       <c r="AA609" s="9"/>
     </row>
     <row r="610">
-      <c r="A610" s="41"/>
+      <c r="A610" s="42"/>
       <c r="B610" s="9"/>
       <c r="C610" s="9"/>
       <c r="D610" s="9"/>
@@ -19961,7 +19964,7 @@
       <c r="AA610" s="9"/>
     </row>
     <row r="611">
-      <c r="A611" s="41"/>
+      <c r="A611" s="42"/>
       <c r="B611" s="9"/>
       <c r="C611" s="9"/>
       <c r="D611" s="9"/>
@@ -19990,7 +19993,7 @@
       <c r="AA611" s="9"/>
     </row>
     <row r="612">
-      <c r="A612" s="41"/>
+      <c r="A612" s="42"/>
       <c r="B612" s="9"/>
       <c r="C612" s="9"/>
       <c r="D612" s="9"/>
@@ -20019,7 +20022,7 @@
       <c r="AA612" s="9"/>
     </row>
     <row r="613">
-      <c r="A613" s="41"/>
+      <c r="A613" s="42"/>
       <c r="B613" s="9"/>
       <c r="C613" s="9"/>
       <c r="D613" s="9"/>
@@ -20048,7 +20051,7 @@
       <c r="AA613" s="9"/>
     </row>
     <row r="614">
-      <c r="A614" s="41"/>
+      <c r="A614" s="42"/>
       <c r="B614" s="9"/>
       <c r="C614" s="9"/>
       <c r="D614" s="9"/>
@@ -20077,7 +20080,7 @@
       <c r="AA614" s="9"/>
     </row>
     <row r="615">
-      <c r="A615" s="41"/>
+      <c r="A615" s="42"/>
       <c r="B615" s="9"/>
       <c r="C615" s="9"/>
       <c r="D615" s="9"/>
@@ -20106,7 +20109,7 @@
       <c r="AA615" s="9"/>
     </row>
     <row r="616">
-      <c r="A616" s="41"/>
+      <c r="A616" s="42"/>
       <c r="B616" s="9"/>
       <c r="C616" s="9"/>
       <c r="D616" s="9"/>
@@ -20135,7 +20138,7 @@
       <c r="AA616" s="9"/>
     </row>
     <row r="617">
-      <c r="A617" s="41"/>
+      <c r="A617" s="42"/>
       <c r="B617" s="9"/>
       <c r="C617" s="9"/>
       <c r="D617" s="9"/>
@@ -20164,7 +20167,7 @@
       <c r="AA617" s="9"/>
     </row>
     <row r="618">
-      <c r="A618" s="41"/>
+      <c r="A618" s="42"/>
       <c r="B618" s="9"/>
       <c r="C618" s="9"/>
       <c r="D618" s="9"/>
@@ -20193,7 +20196,7 @@
       <c r="AA618" s="9"/>
     </row>
     <row r="619">
-      <c r="A619" s="41"/>
+      <c r="A619" s="42"/>
       <c r="B619" s="9"/>
       <c r="C619" s="9"/>
       <c r="D619" s="9"/>
@@ -20222,7 +20225,7 @@
       <c r="AA619" s="9"/>
     </row>
     <row r="620">
-      <c r="A620" s="41"/>
+      <c r="A620" s="42"/>
       <c r="B620" s="9"/>
       <c r="C620" s="9"/>
       <c r="D620" s="9"/>
@@ -20251,7 +20254,7 @@
       <c r="AA620" s="9"/>
     </row>
     <row r="621">
-      <c r="A621" s="41"/>
+      <c r="A621" s="42"/>
       <c r="B621" s="9"/>
       <c r="C621" s="9"/>
       <c r="D621" s="9"/>
@@ -20280,7 +20283,7 @@
       <c r="AA621" s="9"/>
     </row>
     <row r="622">
-      <c r="A622" s="41"/>
+      <c r="A622" s="42"/>
       <c r="B622" s="9"/>
       <c r="C622" s="9"/>
       <c r="D622" s="9"/>
@@ -20309,7 +20312,7 @@
       <c r="AA622" s="9"/>
     </row>
     <row r="623">
-      <c r="A623" s="41"/>
+      <c r="A623" s="42"/>
       <c r="B623" s="9"/>
       <c r="C623" s="9"/>
       <c r="D623" s="9"/>
@@ -20338,7 +20341,7 @@
       <c r="AA623" s="9"/>
     </row>
     <row r="624">
-      <c r="A624" s="41"/>
+      <c r="A624" s="42"/>
       <c r="B624" s="9"/>
       <c r="C624" s="9"/>
       <c r="D624" s="9"/>
@@ -20367,7 +20370,7 @@
       <c r="AA624" s="9"/>
     </row>
     <row r="625">
-      <c r="A625" s="41"/>
+      <c r="A625" s="42"/>
       <c r="B625" s="9"/>
       <c r="C625" s="9"/>
       <c r="D625" s="9"/>
@@ -20396,7 +20399,7 @@
       <c r="AA625" s="9"/>
     </row>
     <row r="626">
-      <c r="A626" s="41"/>
+      <c r="A626" s="42"/>
       <c r="B626" s="9"/>
       <c r="C626" s="9"/>
       <c r="D626" s="9"/>
@@ -20425,7 +20428,7 @@
       <c r="AA626" s="9"/>
     </row>
     <row r="627">
-      <c r="A627" s="41"/>
+      <c r="A627" s="42"/>
       <c r="B627" s="9"/>
       <c r="C627" s="9"/>
       <c r="D627" s="9"/>
@@ -20454,7 +20457,7 @@
       <c r="AA627" s="9"/>
     </row>
     <row r="628">
-      <c r="A628" s="41"/>
+      <c r="A628" s="42"/>
       <c r="B628" s="9"/>
       <c r="C628" s="9"/>
       <c r="D628" s="9"/>
@@ -20483,7 +20486,7 @@
       <c r="AA628" s="9"/>
     </row>
     <row r="629">
-      <c r="A629" s="41"/>
+      <c r="A629" s="42"/>
       <c r="B629" s="9"/>
       <c r="C629" s="9"/>
       <c r="D629" s="9"/>
@@ -20512,7 +20515,7 @@
       <c r="AA629" s="9"/>
     </row>
     <row r="630">
-      <c r="A630" s="41"/>
+      <c r="A630" s="42"/>
       <c r="B630" s="9"/>
       <c r="C630" s="9"/>
       <c r="D630" s="9"/>
@@ -20541,7 +20544,7 @@
       <c r="AA630" s="9"/>
     </row>
     <row r="631">
-      <c r="A631" s="41"/>
+      <c r="A631" s="42"/>
       <c r="B631" s="9"/>
       <c r="C631" s="9"/>
       <c r="D631" s="9"/>
@@ -20570,7 +20573,7 @@
       <c r="AA631" s="9"/>
     </row>
     <row r="632">
-      <c r="A632" s="41"/>
+      <c r="A632" s="42"/>
       <c r="B632" s="9"/>
       <c r="C632" s="9"/>
       <c r="D632" s="9"/>
@@ -20599,7 +20602,7 @@
       <c r="AA632" s="9"/>
     </row>
     <row r="633">
-      <c r="A633" s="41"/>
+      <c r="A633" s="42"/>
       <c r="B633" s="9"/>
       <c r="C633" s="9"/>
       <c r="D633" s="9"/>
@@ -20628,7 +20631,7 @@
       <c r="AA633" s="9"/>
     </row>
     <row r="634">
-      <c r="A634" s="41"/>
+      <c r="A634" s="42"/>
       <c r="B634" s="9"/>
       <c r="C634" s="9"/>
       <c r="D634" s="9"/>
@@ -20657,7 +20660,7 @@
       <c r="AA634" s="9"/>
     </row>
     <row r="635">
-      <c r="A635" s="41"/>
+      <c r="A635" s="42"/>
       <c r="B635" s="9"/>
       <c r="C635" s="9"/>
       <c r="D635" s="9"/>
@@ -20686,7 +20689,7 @@
       <c r="AA635" s="9"/>
     </row>
     <row r="636">
-      <c r="A636" s="41"/>
+      <c r="A636" s="42"/>
       <c r="B636" s="9"/>
       <c r="C636" s="9"/>
       <c r="D636" s="9"/>
@@ -20715,7 +20718,7 @@
       <c r="AA636" s="9"/>
     </row>
     <row r="637">
-      <c r="A637" s="41"/>
+      <c r="A637" s="42"/>
       <c r="B637" s="9"/>
       <c r="C637" s="9"/>
       <c r="D637" s="9"/>
@@ -20744,7 +20747,7 @@
       <c r="AA637" s="9"/>
     </row>
     <row r="638">
-      <c r="A638" s="41"/>
+      <c r="A638" s="42"/>
       <c r="B638" s="9"/>
       <c r="C638" s="9"/>
       <c r="D638" s="9"/>
@@ -20773,7 +20776,7 @@
       <c r="AA638" s="9"/>
     </row>
     <row r="639">
-      <c r="A639" s="41"/>
+      <c r="A639" s="42"/>
       <c r="B639" s="9"/>
       <c r="C639" s="9"/>
       <c r="D639" s="9"/>
@@ -20802,7 +20805,7 @@
       <c r="AA639" s="9"/>
     </row>
     <row r="640">
-      <c r="A640" s="41"/>
+      <c r="A640" s="42"/>
       <c r="B640" s="9"/>
       <c r="C640" s="9"/>
       <c r="D640" s="9"/>
@@ -20831,7 +20834,7 @@
       <c r="AA640" s="9"/>
     </row>
     <row r="641">
-      <c r="A641" s="41"/>
+      <c r="A641" s="42"/>
       <c r="B641" s="9"/>
       <c r="C641" s="9"/>
       <c r="D641" s="9"/>
@@ -20860,7 +20863,7 @@
       <c r="AA641" s="9"/>
     </row>
     <row r="642">
-      <c r="A642" s="41"/>
+      <c r="A642" s="42"/>
       <c r="B642" s="9"/>
       <c r="C642" s="9"/>
       <c r="D642" s="9"/>
@@ -20889,7 +20892,7 @@
       <c r="AA642" s="9"/>
     </row>
     <row r="643">
-      <c r="A643" s="41"/>
+      <c r="A643" s="42"/>
       <c r="B643" s="9"/>
       <c r="C643" s="9"/>
       <c r="D643" s="9"/>
@@ -20918,7 +20921,7 @@
       <c r="AA643" s="9"/>
     </row>
     <row r="644">
-      <c r="A644" s="41"/>
+      <c r="A644" s="42"/>
       <c r="B644" s="9"/>
       <c r="C644" s="9"/>
       <c r="D644" s="9"/>
@@ -20947,7 +20950,7 @@
       <c r="AA644" s="9"/>
     </row>
     <row r="645">
-      <c r="A645" s="41"/>
+      <c r="A645" s="42"/>
       <c r="B645" s="9"/>
       <c r="C645" s="9"/>
       <c r="D645" s="9"/>
@@ -20976,7 +20979,7 @@
       <c r="AA645" s="9"/>
     </row>
     <row r="646">
-      <c r="A646" s="41"/>
+      <c r="A646" s="42"/>
       <c r="B646" s="9"/>
       <c r="C646" s="9"/>
       <c r="D646" s="9"/>
@@ -21005,7 +21008,7 @@
       <c r="AA646" s="9"/>
     </row>
     <row r="647">
-      <c r="A647" s="41"/>
+      <c r="A647" s="42"/>
       <c r="B647" s="9"/>
       <c r="C647" s="9"/>
       <c r="D647" s="9"/>
@@ -21034,7 +21037,7 @@
       <c r="AA647" s="9"/>
     </row>
     <row r="648">
-      <c r="A648" s="41"/>
+      <c r="A648" s="42"/>
       <c r="B648" s="9"/>
       <c r="C648" s="9"/>
       <c r="D648" s="9"/>
@@ -21063,7 +21066,7 @@
       <c r="AA648" s="9"/>
     </row>
     <row r="649">
-      <c r="A649" s="41"/>
+      <c r="A649" s="42"/>
       <c r="B649" s="9"/>
       <c r="C649" s="9"/>
       <c r="D649" s="9"/>
@@ -21092,7 +21095,7 @@
       <c r="AA649" s="9"/>
     </row>
     <row r="650">
-      <c r="A650" s="41"/>
+      <c r="A650" s="42"/>
       <c r="B650" s="9"/>
       <c r="C650" s="9"/>
       <c r="D650" s="9"/>
@@ -21121,7 +21124,7 @@
       <c r="AA650" s="9"/>
     </row>
     <row r="651">
-      <c r="A651" s="41"/>
+      <c r="A651" s="42"/>
       <c r="B651" s="9"/>
       <c r="C651" s="9"/>
       <c r="D651" s="9"/>
@@ -21150,7 +21153,7 @@
       <c r="AA651" s="9"/>
     </row>
     <row r="652">
-      <c r="A652" s="41"/>
+      <c r="A652" s="42"/>
       <c r="B652" s="9"/>
       <c r="C652" s="9"/>
       <c r="D652" s="9"/>
@@ -21179,7 +21182,7 @@
       <c r="AA652" s="9"/>
     </row>
     <row r="653">
-      <c r="A653" s="41"/>
+      <c r="A653" s="42"/>
       <c r="B653" s="9"/>
       <c r="C653" s="9"/>
       <c r="D653" s="9"/>
@@ -21208,7 +21211,7 @@
       <c r="AA653" s="9"/>
     </row>
     <row r="654">
-      <c r="A654" s="41"/>
+      <c r="A654" s="42"/>
       <c r="B654" s="9"/>
       <c r="C654" s="9"/>
       <c r="D654" s="9"/>
@@ -21237,7 +21240,7 @@
       <c r="AA654" s="9"/>
     </row>
     <row r="655">
-      <c r="A655" s="41"/>
+      <c r="A655" s="42"/>
       <c r="B655" s="9"/>
       <c r="C655" s="9"/>
       <c r="D655" s="9"/>
@@ -21266,7 +21269,7 @@
       <c r="AA655" s="9"/>
     </row>
     <row r="656">
-      <c r="A656" s="41"/>
+      <c r="A656" s="42"/>
       <c r="B656" s="9"/>
       <c r="C656" s="9"/>
       <c r="D656" s="9"/>
@@ -21295,7 +21298,7 @@
       <c r="AA656" s="9"/>
     </row>
     <row r="657">
-      <c r="A657" s="41"/>
+      <c r="A657" s="42"/>
       <c r="B657" s="9"/>
       <c r="C657" s="9"/>
       <c r="D657" s="9"/>
@@ -21324,7 +21327,7 @@
       <c r="AA657" s="9"/>
     </row>
     <row r="658">
-      <c r="A658" s="41"/>
+      <c r="A658" s="42"/>
       <c r="B658" s="9"/>
       <c r="C658" s="9"/>
       <c r="D658" s="9"/>
@@ -21353,7 +21356,7 @@
       <c r="AA658" s="9"/>
     </row>
     <row r="659">
-      <c r="A659" s="41"/>
+      <c r="A659" s="42"/>
       <c r="B659" s="9"/>
       <c r="C659" s="9"/>
       <c r="D659" s="9"/>
@@ -21382,7 +21385,7 @@
       <c r="AA659" s="9"/>
     </row>
     <row r="660">
-      <c r="A660" s="41"/>
+      <c r="A660" s="42"/>
       <c r="B660" s="9"/>
       <c r="C660" s="9"/>
       <c r="D660" s="9"/>
@@ -21411,7 +21414,7 @@
       <c r="AA660" s="9"/>
     </row>
     <row r="661">
-      <c r="A661" s="41"/>
+      <c r="A661" s="42"/>
       <c r="B661" s="9"/>
       <c r="C661" s="9"/>
       <c r="D661" s="9"/>
@@ -21440,7 +21443,7 @@
       <c r="AA661" s="9"/>
     </row>
     <row r="662">
-      <c r="A662" s="41"/>
+      <c r="A662" s="42"/>
       <c r="B662" s="9"/>
       <c r="C662" s="9"/>
       <c r="D662" s="9"/>
@@ -21469,7 +21472,7 @@
       <c r="AA662" s="9"/>
     </row>
     <row r="663">
-      <c r="A663" s="41"/>
+      <c r="A663" s="42"/>
       <c r="B663" s="9"/>
       <c r="C663" s="9"/>
       <c r="D663" s="9"/>
@@ -21498,7 +21501,7 @@
       <c r="AA663" s="9"/>
     </row>
     <row r="664">
-      <c r="A664" s="41"/>
+      <c r="A664" s="42"/>
       <c r="B664" s="9"/>
       <c r="C664" s="9"/>
       <c r="D664" s="9"/>
@@ -21527,7 +21530,7 @@
       <c r="AA664" s="9"/>
     </row>
     <row r="665">
-      <c r="A665" s="41"/>
+      <c r="A665" s="42"/>
       <c r="B665" s="9"/>
       <c r="C665" s="9"/>
       <c r="D665" s="9"/>
@@ -21556,7 +21559,7 @@
       <c r="AA665" s="9"/>
     </row>
     <row r="666">
-      <c r="A666" s="41"/>
+      <c r="A666" s="42"/>
       <c r="B666" s="9"/>
       <c r="C666" s="9"/>
       <c r="D666" s="9"/>
@@ -21585,7 +21588,7 @@
       <c r="AA666" s="9"/>
     </row>
     <row r="667">
-      <c r="A667" s="41"/>
+      <c r="A667" s="42"/>
       <c r="B667" s="9"/>
       <c r="C667" s="9"/>
       <c r="D667" s="9"/>
@@ -21614,7 +21617,7 @@
       <c r="AA667" s="9"/>
     </row>
     <row r="668">
-      <c r="A668" s="41"/>
+      <c r="A668" s="42"/>
       <c r="B668" s="9"/>
       <c r="C668" s="9"/>
       <c r="D668" s="9"/>
@@ -21643,7 +21646,7 @@
       <c r="AA668" s="9"/>
     </row>
     <row r="669">
-      <c r="A669" s="41"/>
+      <c r="A669" s="42"/>
       <c r="B669" s="9"/>
       <c r="C669" s="9"/>
       <c r="D669" s="9"/>
@@ -21672,7 +21675,7 @@
       <c r="AA669" s="9"/>
     </row>
     <row r="670">
-      <c r="A670" s="41"/>
+      <c r="A670" s="42"/>
       <c r="B670" s="9"/>
       <c r="C670" s="9"/>
       <c r="D670" s="9"/>
@@ -21701,7 +21704,7 @@
       <c r="AA670" s="9"/>
     </row>
     <row r="671">
-      <c r="A671" s="41"/>
+      <c r="A671" s="42"/>
       <c r="B671" s="9"/>
       <c r="C671" s="9"/>
       <c r="D671" s="9"/>
@@ -21730,7 +21733,7 @@
       <c r="AA671" s="9"/>
     </row>
     <row r="672">
-      <c r="A672" s="41"/>
+      <c r="A672" s="42"/>
       <c r="B672" s="9"/>
       <c r="C672" s="9"/>
       <c r="D672" s="9"/>
@@ -21759,7 +21762,7 @@
       <c r="AA672" s="9"/>
     </row>
     <row r="673">
-      <c r="A673" s="41"/>
+      <c r="A673" s="42"/>
       <c r="B673" s="9"/>
       <c r="C673" s="9"/>
       <c r="D673" s="9"/>
@@ -21788,7 +21791,7 @@
       <c r="AA673" s="9"/>
     </row>
     <row r="674">
-      <c r="A674" s="41"/>
+      <c r="A674" s="42"/>
       <c r="B674" s="9"/>
       <c r="C674" s="9"/>
       <c r="D674" s="9"/>
@@ -21817,7 +21820,7 @@
       <c r="AA674" s="9"/>
     </row>
     <row r="675">
-      <c r="A675" s="41"/>
+      <c r="A675" s="42"/>
       <c r="B675" s="9"/>
       <c r="C675" s="9"/>
       <c r="D675" s="9"/>
@@ -21846,7 +21849,7 @@
       <c r="AA675" s="9"/>
     </row>
     <row r="676">
-      <c r="A676" s="41"/>
+      <c r="A676" s="42"/>
       <c r="B676" s="9"/>
       <c r="C676" s="9"/>
       <c r="D676" s="9"/>
@@ -21875,7 +21878,7 @@
       <c r="AA676" s="9"/>
     </row>
     <row r="677">
-      <c r="A677" s="41"/>
+      <c r="A677" s="42"/>
       <c r="B677" s="9"/>
       <c r="C677" s="9"/>
       <c r="D677" s="9"/>
@@ -21904,7 +21907,7 @@
       <c r="AA677" s="9"/>
     </row>
     <row r="678">
-      <c r="A678" s="41"/>
+      <c r="A678" s="42"/>
       <c r="B678" s="9"/>
       <c r="C678" s="9"/>
       <c r="D678" s="9"/>
@@ -21933,7 +21936,7 @@
       <c r="AA678" s="9"/>
     </row>
     <row r="679">
-      <c r="A679" s="41"/>
+      <c r="A679" s="42"/>
       <c r="B679" s="9"/>
       <c r="C679" s="9"/>
       <c r="D679" s="9"/>
@@ -21962,7 +21965,7 @@
       <c r="AA679" s="9"/>
     </row>
     <row r="680">
-      <c r="A680" s="41"/>
+      <c r="A680" s="42"/>
       <c r="B680" s="9"/>
       <c r="C680" s="9"/>
       <c r="D680" s="9"/>
@@ -21991,7 +21994,7 @@
       <c r="AA680" s="9"/>
     </row>
     <row r="681">
-      <c r="A681" s="41"/>
+      <c r="A681" s="42"/>
       <c r="B681" s="9"/>
       <c r="C681" s="9"/>
       <c r="D681" s="9"/>
@@ -22020,7 +22023,7 @@
       <c r="AA681" s="9"/>
     </row>
     <row r="682">
-      <c r="A682" s="41"/>
+      <c r="A682" s="42"/>
       <c r="B682" s="9"/>
       <c r="C682" s="9"/>
       <c r="D682" s="9"/>
@@ -22049,7 +22052,7 @@
       <c r="AA682" s="9"/>
     </row>
     <row r="683">
-      <c r="A683" s="41"/>
+      <c r="A683" s="42"/>
       <c r="B683" s="9"/>
       <c r="C683" s="9"/>
       <c r="D683" s="9"/>
@@ -22078,7 +22081,7 @@
       <c r="AA683" s="9"/>
     </row>
     <row r="684">
-      <c r="A684" s="41"/>
+      <c r="A684" s="42"/>
       <c r="B684" s="9"/>
       <c r="C684" s="9"/>
       <c r="D684" s="9"/>
@@ -22107,7 +22110,7 @@
       <c r="AA684" s="9"/>
     </row>
     <row r="685">
-      <c r="A685" s="41"/>
+      <c r="A685" s="42"/>
       <c r="B685" s="9"/>
       <c r="C685" s="9"/>
       <c r="D685" s="9"/>
@@ -22136,7 +22139,7 @@
       <c r="AA685" s="9"/>
     </row>
     <row r="686">
-      <c r="A686" s="41"/>
+      <c r="A686" s="42"/>
       <c r="B686" s="9"/>
       <c r="C686" s="9"/>
       <c r="D686" s="9"/>
@@ -22165,7 +22168,7 @@
       <c r="AA686" s="9"/>
     </row>
     <row r="687">
-      <c r="A687" s="41"/>
+      <c r="A687" s="42"/>
       <c r="B687" s="9"/>
       <c r="C687" s="9"/>
       <c r="D687" s="9"/>
@@ -22194,7 +22197,7 @@
       <c r="AA687" s="9"/>
     </row>
     <row r="688">
-      <c r="A688" s="41"/>
+      <c r="A688" s="42"/>
       <c r="B688" s="9"/>
       <c r="C688" s="9"/>
       <c r="D688" s="9"/>
@@ -22223,7 +22226,7 @@
       <c r="AA688" s="9"/>
     </row>
     <row r="689">
-      <c r="A689" s="41"/>
+      <c r="A689" s="42"/>
       <c r="B689" s="9"/>
       <c r="C689" s="9"/>
       <c r="D689" s="9"/>
@@ -22252,7 +22255,7 @@
       <c r="AA689" s="9"/>
     </row>
     <row r="690">
-      <c r="A690" s="41"/>
+      <c r="A690" s="42"/>
       <c r="B690" s="9"/>
       <c r="C690" s="9"/>
       <c r="D690" s="9"/>
@@ -22281,7 +22284,7 @@
       <c r="AA690" s="9"/>
     </row>
     <row r="691">
-      <c r="A691" s="41"/>
+      <c r="A691" s="42"/>
       <c r="B691" s="9"/>
       <c r="C691" s="9"/>
       <c r="D691" s="9"/>
@@ -22310,7 +22313,7 @@
       <c r="AA691" s="9"/>
     </row>
     <row r="692">
-      <c r="A692" s="41"/>
+      <c r="A692" s="42"/>
       <c r="B692" s="9"/>
       <c r="C692" s="9"/>
       <c r="D692" s="9"/>
@@ -22339,7 +22342,7 @@
       <c r="AA692" s="9"/>
     </row>
     <row r="693">
-      <c r="A693" s="41"/>
+      <c r="A693" s="42"/>
       <c r="B693" s="9"/>
       <c r="C693" s="9"/>
       <c r="D693" s="9"/>
@@ -22368,7 +22371,7 @@
       <c r="AA693" s="9"/>
     </row>
     <row r="694">
-      <c r="A694" s="41"/>
+      <c r="A694" s="42"/>
       <c r="B694" s="9"/>
       <c r="C694" s="9"/>
       <c r="D694" s="9"/>
@@ -22397,7 +22400,7 @@
       <c r="AA694" s="9"/>
     </row>
     <row r="695">
-      <c r="A695" s="41"/>
+      <c r="A695" s="42"/>
       <c r="B695" s="9"/>
       <c r="C695" s="9"/>
       <c r="D695" s="9"/>
@@ -22426,7 +22429,7 @@
       <c r="AA695" s="9"/>
     </row>
     <row r="696">
-      <c r="A696" s="41"/>
+      <c r="A696" s="42"/>
       <c r="B696" s="9"/>
       <c r="C696" s="9"/>
       <c r="D696" s="9"/>
@@ -22455,7 +22458,7 @@
       <c r="AA696" s="9"/>
     </row>
     <row r="697">
-      <c r="A697" s="41"/>
+      <c r="A697" s="42"/>
       <c r="B697" s="9"/>
       <c r="C697" s="9"/>
       <c r="D697" s="9"/>
@@ -22484,7 +22487,7 @@
       <c r="AA697" s="9"/>
     </row>
     <row r="698">
-      <c r="A698" s="41"/>
+      <c r="A698" s="42"/>
       <c r="B698" s="9"/>
       <c r="C698" s="9"/>
       <c r="D698" s="9"/>
@@ -22513,7 +22516,7 @@
       <c r="AA698" s="9"/>
     </row>
     <row r="699">
-      <c r="A699" s="41"/>
+      <c r="A699" s="42"/>
       <c r="B699" s="9"/>
       <c r="C699" s="9"/>
       <c r="D699" s="9"/>
@@ -22542,7 +22545,7 @@
       <c r="AA699" s="9"/>
     </row>
     <row r="700">
-      <c r="A700" s="41"/>
+      <c r="A700" s="42"/>
       <c r="B700" s="9"/>
       <c r="C700" s="9"/>
       <c r="D700" s="9"/>
@@ -22571,7 +22574,7 @@
       <c r="AA700" s="9"/>
     </row>
     <row r="701">
-      <c r="A701" s="41"/>
+      <c r="A701" s="42"/>
       <c r="B701" s="9"/>
       <c r="C701" s="9"/>
       <c r="D701" s="9"/>
@@ -22600,7 +22603,7 @@
       <c r="AA701" s="9"/>
     </row>
     <row r="702">
-      <c r="A702" s="41"/>
+      <c r="A702" s="42"/>
       <c r="B702" s="9"/>
       <c r="C702" s="9"/>
       <c r="D702" s="9"/>
@@ -22629,7 +22632,7 @@
       <c r="AA702" s="9"/>
     </row>
     <row r="703">
-      <c r="A703" s="41"/>
+      <c r="A703" s="42"/>
       <c r="B703" s="9"/>
       <c r="C703" s="9"/>
       <c r="D703" s="9"/>
@@ -22658,7 +22661,7 @@
       <c r="AA703" s="9"/>
     </row>
     <row r="704">
-      <c r="A704" s="41"/>
+      <c r="A704" s="42"/>
       <c r="B704" s="9"/>
       <c r="C704" s="9"/>
       <c r="D704" s="9"/>
@@ -22687,7 +22690,7 @@
       <c r="AA704" s="9"/>
     </row>
     <row r="705">
-      <c r="A705" s="41"/>
+      <c r="A705" s="42"/>
       <c r="B705" s="9"/>
       <c r="C705" s="9"/>
       <c r="D705" s="9"/>
@@ -22716,7 +22719,7 @@
       <c r="AA705" s="9"/>
     </row>
     <row r="706">
-      <c r="A706" s="41"/>
+      <c r="A706" s="42"/>
       <c r="B706" s="9"/>
       <c r="C706" s="9"/>
       <c r="D706" s="9"/>
@@ -22745,7 +22748,7 @@
       <c r="AA706" s="9"/>
     </row>
     <row r="707">
-      <c r="A707" s="41"/>
+      <c r="A707" s="42"/>
       <c r="B707" s="9"/>
       <c r="C707" s="9"/>
       <c r="D707" s="9"/>
@@ -22774,7 +22777,7 @@
       <c r="AA707" s="9"/>
     </row>
     <row r="708">
-      <c r="A708" s="41"/>
+      <c r="A708" s="42"/>
       <c r="B708" s="9"/>
       <c r="C708" s="9"/>
       <c r="D708" s="9"/>
@@ -22803,7 +22806,7 @@
       <c r="AA708" s="9"/>
     </row>
     <row r="709">
-      <c r="A709" s="41"/>
+      <c r="A709" s="42"/>
       <c r="B709" s="9"/>
       <c r="C709" s="9"/>
       <c r="D709" s="9"/>
@@ -22832,7 +22835,7 @@
       <c r="AA709" s="9"/>
     </row>
     <row r="710">
-      <c r="A710" s="41"/>
+      <c r="A710" s="42"/>
       <c r="B710" s="9"/>
       <c r="C710" s="9"/>
       <c r="D710" s="9"/>
@@ -22861,7 +22864,7 @@
       <c r="AA710" s="9"/>
     </row>
     <row r="711">
-      <c r="A711" s="41"/>
+      <c r="A711" s="42"/>
       <c r="B711" s="9"/>
       <c r="C711" s="9"/>
       <c r="D711" s="9"/>
@@ -22890,7 +22893,7 @@
       <c r="AA711" s="9"/>
     </row>
     <row r="712">
-      <c r="A712" s="41"/>
+      <c r="A712" s="42"/>
       <c r="B712" s="9"/>
       <c r="C712" s="9"/>
       <c r="D712" s="9"/>
@@ -22919,7 +22922,7 @@
       <c r="AA712" s="9"/>
     </row>
     <row r="713">
-      <c r="A713" s="41"/>
+      <c r="A713" s="42"/>
       <c r="B713" s="9"/>
       <c r="C713" s="9"/>
       <c r="D713" s="9"/>
@@ -22948,7 +22951,7 @@
       <c r="AA713" s="9"/>
     </row>
     <row r="714">
-      <c r="A714" s="41"/>
+      <c r="A714" s="42"/>
       <c r="B714" s="9"/>
       <c r="C714" s="9"/>
       <c r="D714" s="9"/>
@@ -22977,7 +22980,7 @@
       <c r="AA714" s="9"/>
     </row>
     <row r="715">
-      <c r="A715" s="41"/>
+      <c r="A715" s="42"/>
       <c r="B715" s="9"/>
       <c r="C715" s="9"/>
       <c r="D715" s="9"/>
@@ -23006,7 +23009,7 @@
       <c r="AA715" s="9"/>
     </row>
     <row r="716">
-      <c r="A716" s="41"/>
+      <c r="A716" s="42"/>
       <c r="B716" s="9"/>
       <c r="C716" s="9"/>
       <c r="D716" s="9"/>
@@ -23035,7 +23038,7 @@
       <c r="AA716" s="9"/>
     </row>
     <row r="717">
-      <c r="A717" s="41"/>
+      <c r="A717" s="42"/>
       <c r="B717" s="9"/>
       <c r="C717" s="9"/>
       <c r="D717" s="9"/>
@@ -23064,7 +23067,7 @@
       <c r="AA717" s="9"/>
     </row>
     <row r="718">
-      <c r="A718" s="41"/>
+      <c r="A718" s="42"/>
       <c r="B718" s="9"/>
       <c r="C718" s="9"/>
       <c r="D718" s="9"/>
@@ -23093,7 +23096,7 @@
       <c r="AA718" s="9"/>
     </row>
     <row r="719">
-      <c r="A719" s="41"/>
+      <c r="A719" s="42"/>
       <c r="B719" s="9"/>
       <c r="C719" s="9"/>
       <c r="D719" s="9"/>
@@ -23122,7 +23125,7 @@
       <c r="AA719" s="9"/>
     </row>
     <row r="720">
-      <c r="A720" s="41"/>
+      <c r="A720" s="42"/>
       <c r="B720" s="9"/>
       <c r="C720" s="9"/>
       <c r="D720" s="9"/>
@@ -23151,7 +23154,7 @@
       <c r="AA720" s="9"/>
     </row>
     <row r="721">
-      <c r="A721" s="41"/>
+      <c r="A721" s="42"/>
       <c r="B721" s="9"/>
       <c r="C721" s="9"/>
       <c r="D721" s="9"/>
@@ -23180,7 +23183,7 @@
       <c r="AA721" s="9"/>
     </row>
     <row r="722">
-      <c r="A722" s="41"/>
+      <c r="A722" s="42"/>
       <c r="B722" s="9"/>
       <c r="C722" s="9"/>
       <c r="D722" s="9"/>
@@ -23209,7 +23212,7 @@
       <c r="AA722" s="9"/>
     </row>
     <row r="723">
-      <c r="A723" s="41"/>
+      <c r="A723" s="42"/>
       <c r="B723" s="9"/>
       <c r="C723" s="9"/>
       <c r="D723" s="9"/>
@@ -23238,7 +23241,7 @@
       <c r="AA723" s="9"/>
     </row>
     <row r="724">
-      <c r="A724" s="41"/>
+      <c r="A724" s="42"/>
       <c r="B724" s="9"/>
       <c r="C724" s="9"/>
       <c r="D724" s="9"/>
@@ -23267,7 +23270,7 @@
       <c r="AA724" s="9"/>
     </row>
     <row r="725">
-      <c r="A725" s="41"/>
+      <c r="A725" s="42"/>
       <c r="B725" s="9"/>
       <c r="C725" s="9"/>
       <c r="D725" s="9"/>
@@ -23296,7 +23299,7 @@
       <c r="AA725" s="9"/>
     </row>
     <row r="726">
-      <c r="A726" s="41"/>
+      <c r="A726" s="42"/>
       <c r="B726" s="9"/>
       <c r="C726" s="9"/>
       <c r="D726" s="9"/>
@@ -23325,7 +23328,7 @@
       <c r="AA726" s="9"/>
     </row>
     <row r="727">
-      <c r="A727" s="41"/>
+      <c r="A727" s="42"/>
       <c r="B727" s="9"/>
       <c r="C727" s="9"/>
       <c r="D727" s="9"/>
@@ -23354,7 +23357,7 @@
       <c r="AA727" s="9"/>
     </row>
     <row r="728">
-      <c r="A728" s="41"/>
+      <c r="A728" s="42"/>
       <c r="B728" s="9"/>
       <c r="C728" s="9"/>
       <c r="D728" s="9"/>
@@ -23383,7 +23386,7 @@
       <c r="AA728" s="9"/>
     </row>
     <row r="729">
-      <c r="A729" s="41"/>
+      <c r="A729" s="42"/>
       <c r="B729" s="9"/>
       <c r="C729" s="9"/>
       <c r="D729" s="9"/>
@@ -23412,7 +23415,7 @@
       <c r="AA729" s="9"/>
     </row>
     <row r="730">
-      <c r="A730" s="41"/>
+      <c r="A730" s="42"/>
       <c r="B730" s="9"/>
       <c r="C730" s="9"/>
       <c r="D730" s="9"/>
@@ -23441,7 +23444,7 @@
       <c r="AA730" s="9"/>
     </row>
     <row r="731">
-      <c r="A731" s="41"/>
+      <c r="A731" s="42"/>
       <c r="B731" s="9"/>
       <c r="C731" s="9"/>
       <c r="D731" s="9"/>
@@ -23470,7 +23473,7 @@
       <c r="AA731" s="9"/>
     </row>
     <row r="732">
-      <c r="A732" s="41"/>
+      <c r="A732" s="42"/>
       <c r="B732" s="9"/>
       <c r="C732" s="9"/>
       <c r="D732" s="9"/>
@@ -23499,7 +23502,7 @@
       <c r="AA732" s="9"/>
     </row>
     <row r="733">
-      <c r="A733" s="41"/>
+      <c r="A733" s="42"/>
       <c r="B733" s="9"/>
       <c r="C733" s="9"/>
       <c r="D733" s="9"/>
@@ -23528,7 +23531,7 @@
       <c r="AA733" s="9"/>
     </row>
     <row r="734">
-      <c r="A734" s="41"/>
+      <c r="A734" s="42"/>
       <c r="B734" s="9"/>
       <c r="C734" s="9"/>
       <c r="D734" s="9"/>
@@ -23557,7 +23560,7 @@
       <c r="AA734" s="9"/>
     </row>
     <row r="735">
-      <c r="A735" s="41"/>
+      <c r="A735" s="42"/>
       <c r="B735" s="9"/>
       <c r="C735" s="9"/>
       <c r="D735" s="9"/>
@@ -23586,7 +23589,7 @@
       <c r="AA735" s="9"/>
     </row>
     <row r="736">
-      <c r="A736" s="41"/>
+      <c r="A736" s="42"/>
       <c r="B736" s="9"/>
       <c r="C736" s="9"/>
       <c r="D736" s="9"/>
@@ -23615,7 +23618,7 @@
       <c r="AA736" s="9"/>
     </row>
     <row r="737">
-      <c r="A737" s="41"/>
+      <c r="A737" s="42"/>
       <c r="B737" s="9"/>
       <c r="C737" s="9"/>
       <c r="D737" s="9"/>
@@ -23644,7 +23647,7 @@
       <c r="AA737" s="9"/>
     </row>
     <row r="738">
-      <c r="A738" s="41"/>
+      <c r="A738" s="42"/>
       <c r="B738" s="9"/>
       <c r="C738" s="9"/>
       <c r="D738" s="9"/>
@@ -23673,7 +23676,7 @@
       <c r="AA738" s="9"/>
     </row>
     <row r="739">
-      <c r="A739" s="41"/>
+      <c r="A739" s="42"/>
       <c r="B739" s="9"/>
       <c r="C739" s="9"/>
       <c r="D739" s="9"/>
@@ -23702,7 +23705,7 @@
       <c r="AA739" s="9"/>
     </row>
     <row r="740">
-      <c r="A740" s="41"/>
+      <c r="A740" s="42"/>
       <c r="B740" s="9"/>
       <c r="C740" s="9"/>
       <c r="D740" s="9"/>
@@ -23731,7 +23734,7 @@
       <c r="AA740" s="9"/>
     </row>
     <row r="741">
-      <c r="A741" s="41"/>
+      <c r="A741" s="42"/>
       <c r="B741" s="9"/>
       <c r="C741" s="9"/>
       <c r="D741" s="9"/>
@@ -23760,7 +23763,7 @@
       <c r="AA741" s="9"/>
     </row>
     <row r="742">
-      <c r="A742" s="41"/>
+      <c r="A742" s="42"/>
       <c r="B742" s="9"/>
       <c r="C742" s="9"/>
       <c r="D742" s="9"/>
@@ -23789,7 +23792,7 @@
       <c r="AA742" s="9"/>
     </row>
     <row r="743">
-      <c r="A743" s="41"/>
+      <c r="A743" s="42"/>
       <c r="B743" s="9"/>
       <c r="C743" s="9"/>
       <c r="D743" s="9"/>
@@ -23818,7 +23821,7 @@
       <c r="AA743" s="9"/>
     </row>
     <row r="744">
-      <c r="A744" s="41"/>
+      <c r="A744" s="42"/>
       <c r="B744" s="9"/>
       <c r="C744" s="9"/>
       <c r="D744" s="9"/>
@@ -23847,7 +23850,7 @@
       <c r="AA744" s="9"/>
     </row>
     <row r="745">
-      <c r="A745" s="41"/>
+      <c r="A745" s="42"/>
       <c r="B745" s="9"/>
       <c r="C745" s="9"/>
       <c r="D745" s="9"/>
@@ -23876,7 +23879,7 @@
       <c r="AA745" s="9"/>
     </row>
     <row r="746">
-      <c r="A746" s="41"/>
+      <c r="A746" s="42"/>
       <c r="B746" s="9"/>
       <c r="C746" s="9"/>
       <c r="D746" s="9"/>
@@ -23905,7 +23908,7 @@
       <c r="AA746" s="9"/>
     </row>
     <row r="747">
-      <c r="A747" s="41"/>
+      <c r="A747" s="42"/>
       <c r="B747" s="9"/>
       <c r="C747" s="9"/>
       <c r="D747" s="9"/>
@@ -23934,7 +23937,7 @@
       <c r="AA747" s="9"/>
     </row>
     <row r="748">
-      <c r="A748" s="41"/>
+      <c r="A748" s="42"/>
       <c r="B748" s="9"/>
       <c r="C748" s="9"/>
       <c r="D748" s="9"/>
@@ -23963,7 +23966,7 @@
       <c r="AA748" s="9"/>
     </row>
     <row r="749">
-      <c r="A749" s="41"/>
+      <c r="A749" s="42"/>
       <c r="B749" s="9"/>
       <c r="C749" s="9"/>
       <c r="D749" s="9"/>
@@ -23992,7 +23995,7 @@
       <c r="AA749" s="9"/>
     </row>
     <row r="750">
-      <c r="A750" s="41"/>
+      <c r="A750" s="42"/>
       <c r="B750" s="9"/>
       <c r="C750" s="9"/>
       <c r="D750" s="9"/>
@@ -24021,7 +24024,7 @@
       <c r="AA750" s="9"/>
     </row>
     <row r="751">
-      <c r="A751" s="41"/>
+      <c r="A751" s="42"/>
       <c r="B751" s="9"/>
       <c r="C751" s="9"/>
       <c r="D751" s="9"/>
@@ -24050,7 +24053,7 @@
       <c r="AA751" s="9"/>
     </row>
     <row r="752">
-      <c r="A752" s="41"/>
+      <c r="A752" s="42"/>
       <c r="B752" s="9"/>
       <c r="C752" s="9"/>
       <c r="D752" s="9"/>
@@ -24079,7 +24082,7 @@
       <c r="AA752" s="9"/>
     </row>
     <row r="753">
-      <c r="A753" s="41"/>
+      <c r="A753" s="42"/>
       <c r="B753" s="9"/>
       <c r="C753" s="9"/>
       <c r="D753" s="9"/>
@@ -24108,7 +24111,7 @@
       <c r="AA753" s="9"/>
     </row>
     <row r="754">
-      <c r="A754" s="41"/>
+      <c r="A754" s="42"/>
       <c r="B754" s="9"/>
       <c r="C754" s="9"/>
       <c r="D754" s="9"/>
@@ -24137,7 +24140,7 @@
       <c r="AA754" s="9"/>
     </row>
     <row r="755">
-      <c r="A755" s="41"/>
+      <c r="A755" s="42"/>
       <c r="B755" s="9"/>
       <c r="C755" s="9"/>
       <c r="D755" s="9"/>
@@ -24166,7 +24169,7 @@
       <c r="AA755" s="9"/>
     </row>
     <row r="756">
-      <c r="A756" s="41"/>
+      <c r="A756" s="42"/>
       <c r="B756" s="9"/>
       <c r="C756" s="9"/>
       <c r="D756" s="9"/>
@@ -24195,7 +24198,7 @@
       <c r="AA756" s="9"/>
     </row>
     <row r="757">
-      <c r="A757" s="41"/>
+      <c r="A757" s="42"/>
       <c r="B757" s="9"/>
       <c r="C757" s="9"/>
       <c r="D757" s="9"/>
@@ -24224,7 +24227,7 @@
       <c r="AA757" s="9"/>
     </row>
     <row r="758">
-      <c r="A758" s="41"/>
+      <c r="A758" s="42"/>
       <c r="B758" s="9"/>
       <c r="C758" s="9"/>
       <c r="D758" s="9"/>
@@ -24253,7 +24256,7 @@
       <c r="AA758" s="9"/>
     </row>
     <row r="759">
-      <c r="A759" s="41"/>
+      <c r="A759" s="42"/>
       <c r="B759" s="9"/>
       <c r="C759" s="9"/>
       <c r="D759" s="9"/>
@@ -24282,7 +24285,7 @@
       <c r="AA759" s="9"/>
     </row>
     <row r="760">
-      <c r="A760" s="41"/>
+      <c r="A760" s="42"/>
       <c r="B760" s="9"/>
       <c r="C760" s="9"/>
       <c r="D760" s="9"/>
@@ -24311,7 +24314,7 @@
       <c r="AA760" s="9"/>
     </row>
     <row r="761">
-      <c r="A761" s="41"/>
+      <c r="A761" s="42"/>
       <c r="B761" s="9"/>
       <c r="C761" s="9"/>
       <c r="D761" s="9"/>
@@ -24340,7 +24343,7 @@
       <c r="AA761" s="9"/>
     </row>
     <row r="762">
-      <c r="A762" s="41"/>
+      <c r="A762" s="42"/>
       <c r="B762" s="9"/>
       <c r="C762" s="9"/>
       <c r="D762" s="9"/>
@@ -24369,7 +24372,7 @@
       <c r="AA762" s="9"/>
     </row>
     <row r="763">
-      <c r="A763" s="41"/>
+      <c r="A763" s="42"/>
       <c r="B763" s="9"/>
       <c r="C763" s="9"/>
       <c r="D763" s="9"/>
@@ -24398,7 +24401,7 @@
       <c r="AA763" s="9"/>
     </row>
     <row r="764">
-      <c r="A764" s="41"/>
+      <c r="A764" s="42"/>
       <c r="B764" s="9"/>
       <c r="C764" s="9"/>
       <c r="D764" s="9"/>
@@ -24427,7 +24430,7 @@
       <c r="AA764" s="9"/>
     </row>
     <row r="765">
-      <c r="A765" s="41"/>
+      <c r="A765" s="42"/>
       <c r="B765" s="9"/>
       <c r="C765" s="9"/>
       <c r="D765" s="9"/>
@@ -24456,7 +24459,7 @@
       <c r="AA765" s="9"/>
     </row>
     <row r="766">
-      <c r="A766" s="41"/>
+      <c r="A766" s="42"/>
       <c r="B766" s="9"/>
       <c r="C766" s="9"/>
       <c r="D766" s="9"/>
@@ -24485,7 +24488,7 @@
       <c r="AA766" s="9"/>
     </row>
     <row r="767">
-      <c r="A767" s="41"/>
+      <c r="A767" s="42"/>
       <c r="B767" s="9"/>
       <c r="C767" s="9"/>
       <c r="D767" s="9"/>
@@ -24514,7 +24517,7 @@
       <c r="AA767" s="9"/>
     </row>
     <row r="768">
-      <c r="A768" s="41"/>
+      <c r="A768" s="42"/>
       <c r="B768" s="9"/>
       <c r="C768" s="9"/>
       <c r="D768" s="9"/>
@@ -24543,7 +24546,7 @@
       <c r="AA768" s="9"/>
     </row>
     <row r="769">
-      <c r="A769" s="41"/>
+      <c r="A769" s="42"/>
       <c r="B769" s="9"/>
       <c r="C769" s="9"/>
       <c r="D769" s="9"/>
@@ -24572,7 +24575,7 @@
       <c r="AA769" s="9"/>
     </row>
     <row r="770">
-      <c r="A770" s="41"/>
+      <c r="A770" s="42"/>
       <c r="B770" s="9"/>
       <c r="C770" s="9"/>
       <c r="D770" s="9"/>
@@ -24601,7 +24604,7 @@
       <c r="AA770" s="9"/>
     </row>
     <row r="771">
-      <c r="A771" s="41"/>
+      <c r="A771" s="42"/>
       <c r="B771" s="9"/>
       <c r="C771" s="9"/>
       <c r="D771" s="9"/>
@@ -24630,7 +24633,7 @@
       <c r="AA771" s="9"/>
     </row>
     <row r="772">
-      <c r="A772" s="41"/>
+      <c r="A772" s="42"/>
       <c r="B772" s="9"/>
       <c r="C772" s="9"/>
       <c r="D772" s="9"/>
@@ -24659,7 +24662,7 @@
       <c r="AA772" s="9"/>
     </row>
     <row r="773">
-      <c r="A773" s="41"/>
+      <c r="A773" s="42"/>
       <c r="B773" s="9"/>
       <c r="C773" s="9"/>
       <c r="D773" s="9"/>
@@ -24688,7 +24691,7 @@
       <c r="AA773" s="9"/>
     </row>
     <row r="774">
-      <c r="A774" s="41"/>
+      <c r="A774" s="42"/>
       <c r="B774" s="9"/>
       <c r="C774" s="9"/>
       <c r="D774" s="9"/>
@@ -24717,7 +24720,7 @@
       <c r="AA774" s="9"/>
     </row>
     <row r="775">
-      <c r="A775" s="41"/>
+      <c r="A775" s="42"/>
       <c r="B775" s="9"/>
       <c r="C775" s="9"/>
       <c r="D775" s="9"/>
@@ -24746,7 +24749,7 @@
       <c r="AA775" s="9"/>
     </row>
     <row r="776">
-      <c r="A776" s="41"/>
+      <c r="A776" s="42"/>
       <c r="B776" s="9"/>
       <c r="C776" s="9"/>
       <c r="D776" s="9"/>
@@ -24775,7 +24778,7 @@
       <c r="AA776" s="9"/>
     </row>
     <row r="777">
-      <c r="A777" s="41"/>
+      <c r="A777" s="42"/>
       <c r="B777" s="9"/>
       <c r="C777" s="9"/>
       <c r="D777" s="9"/>
@@ -24804,7 +24807,7 @@
       <c r="AA777" s="9"/>
     </row>
     <row r="778">
-      <c r="A778" s="41"/>
+      <c r="A778" s="42"/>
       <c r="B778" s="9"/>
       <c r="C778" s="9"/>
       <c r="D778" s="9"/>
@@ -24833,7 +24836,7 @@
       <c r="AA778" s="9"/>
     </row>
     <row r="779">
-      <c r="A779" s="41"/>
+      <c r="A779" s="42"/>
       <c r="B779" s="9"/>
       <c r="C779" s="9"/>
       <c r="D779" s="9"/>
@@ -24862,7 +24865,7 @@
       <c r="AA779" s="9"/>
     </row>
     <row r="780">
-      <c r="A780" s="41"/>
+      <c r="A780" s="42"/>
       <c r="B780" s="9"/>
       <c r="C780" s="9"/>
       <c r="D780" s="9"/>
@@ -24891,7 +24894,7 @@
       <c r="AA780" s="9"/>
     </row>
     <row r="781">
-      <c r="A781" s="41"/>
+      <c r="A781" s="42"/>
       <c r="B781" s="9"/>
       <c r="C781" s="9"/>
       <c r="D781" s="9"/>
@@ -24920,7 +24923,7 @@
       <c r="AA781" s="9"/>
     </row>
     <row r="782">
-      <c r="A782" s="41"/>
+      <c r="A782" s="42"/>
       <c r="B782" s="9"/>
       <c r="C782" s="9"/>
       <c r="D782" s="9"/>
@@ -24949,7 +24952,7 @@
       <c r="AA782" s="9"/>
     </row>
     <row r="783">
-      <c r="A783" s="41"/>
+      <c r="A783" s="42"/>
       <c r="B783" s="9"/>
       <c r="C783" s="9"/>
       <c r="D783" s="9"/>
@@ -24978,7 +24981,7 @@
       <c r="AA783" s="9"/>
     </row>
     <row r="784">
-      <c r="A784" s="41"/>
+      <c r="A784" s="42"/>
       <c r="B784" s="9"/>
       <c r="C784" s="9"/>
       <c r="D784" s="9"/>
@@ -25007,7 +25010,7 @@
       <c r="AA784" s="9"/>
     </row>
     <row r="785">
-      <c r="A785" s="41"/>
+      <c r="A785" s="42"/>
       <c r="B785" s="9"/>
       <c r="C785" s="9"/>
       <c r="D785" s="9"/>
@@ -25036,7 +25039,7 @@
       <c r="AA785" s="9"/>
     </row>
     <row r="786">
-      <c r="A786" s="41"/>
+      <c r="A786" s="42"/>
       <c r="B786" s="9"/>
       <c r="C786" s="9"/>
       <c r="D786" s="9"/>
@@ -25065,7 +25068,7 @@
       <c r="AA786" s="9"/>
     </row>
     <row r="787">
-      <c r="A787" s="41"/>
+      <c r="A787" s="42"/>
       <c r="B787" s="9"/>
       <c r="C787" s="9"/>
       <c r="D787" s="9"/>
@@ -25094,7 +25097,7 @@
       <c r="AA787" s="9"/>
     </row>
     <row r="788">
-      <c r="A788" s="41"/>
+      <c r="A788" s="42"/>
       <c r="B788" s="9"/>
       <c r="C788" s="9"/>
       <c r="D788" s="9"/>
@@ -25123,7 +25126,7 @@
       <c r="AA788" s="9"/>
     </row>
     <row r="789">
-      <c r="A789" s="41"/>
+      <c r="A789" s="42"/>
       <c r="B789" s="9"/>
       <c r="C789" s="9"/>
       <c r="D789" s="9"/>
@@ -25152,7 +25155,7 @@
       <c r="AA789" s="9"/>
     </row>
     <row r="790">
-      <c r="A790" s="41"/>
+      <c r="A790" s="42"/>
       <c r="B790" s="9"/>
       <c r="C790" s="9"/>
       <c r="D790" s="9"/>
@@ -25181,7 +25184,7 @@
       <c r="AA790" s="9"/>
     </row>
     <row r="791">
-      <c r="A791" s="41"/>
+      <c r="A791" s="42"/>
       <c r="B791" s="9"/>
       <c r="C791" s="9"/>
       <c r="D791" s="9"/>
@@ -25210,7 +25213,7 @@
       <c r="AA791" s="9"/>
     </row>
     <row r="792">
-      <c r="A792" s="41"/>
+      <c r="A792" s="42"/>
       <c r="B792" s="9"/>
       <c r="C792" s="9"/>
       <c r="D792" s="9"/>
@@ -25239,7 +25242,7 @@
       <c r="AA792" s="9"/>
     </row>
     <row r="793">
-      <c r="A793" s="41"/>
+      <c r="A793" s="42"/>
       <c r="B793" s="9"/>
       <c r="C793" s="9"/>
       <c r="D793" s="9"/>
@@ -25268,7 +25271,7 @@
       <c r="AA793" s="9"/>
     </row>
     <row r="794">
-      <c r="A794" s="41"/>
+      <c r="A794" s="42"/>
       <c r="B794" s="9"/>
       <c r="C794" s="9"/>
       <c r="D794" s="9"/>
@@ -25297,7 +25300,7 @@
       <c r="AA794" s="9"/>
     </row>
     <row r="795">
-      <c r="A795" s="41"/>
+      <c r="A795" s="42"/>
       <c r="B795" s="9"/>
       <c r="C795" s="9"/>
       <c r="D795" s="9"/>
@@ -25326,7 +25329,7 @@
       <c r="AA795" s="9"/>
     </row>
     <row r="796">
-      <c r="A796" s="41"/>
+      <c r="A796" s="42"/>
       <c r="B796" s="9"/>
       <c r="C796" s="9"/>
       <c r="D796" s="9"/>
@@ -25355,7 +25358,7 @@
       <c r="AA796" s="9"/>
     </row>
     <row r="797">
-      <c r="A797" s="41"/>
+      <c r="A797" s="42"/>
       <c r="B797" s="9"/>
       <c r="C797" s="9"/>
       <c r="D797" s="9"/>
@@ -25384,7 +25387,7 @@
       <c r="AA797" s="9"/>
     </row>
     <row r="798">
-      <c r="A798" s="41"/>
+      <c r="A798" s="42"/>
       <c r="B798" s="9"/>
       <c r="C798" s="9"/>
       <c r="D798" s="9"/>
@@ -25413,7 +25416,7 @@
       <c r="AA798" s="9"/>
     </row>
     <row r="799">
-      <c r="A799" s="41"/>
+      <c r="A799" s="42"/>
       <c r="B799" s="9"/>
       <c r="C799" s="9"/>
       <c r="D799" s="9"/>
@@ -25442,7 +25445,7 @@
       <c r="AA799" s="9"/>
     </row>
     <row r="800">
-      <c r="A800" s="41"/>
+      <c r="A800" s="42"/>
       <c r="B800" s="9"/>
       <c r="C800" s="9"/>
       <c r="D800" s="9"/>
@@ -25471,7 +25474,7 @@
       <c r="AA800" s="9"/>
     </row>
     <row r="801">
-      <c r="A801" s="41"/>
+      <c r="A801" s="42"/>
       <c r="B801" s="9"/>
       <c r="C801" s="9"/>
       <c r="D801" s="9"/>
@@ -25500,7 +25503,7 @@
       <c r="AA801" s="9"/>
     </row>
     <row r="802">
-      <c r="A802" s="41"/>
+      <c r="A802" s="42"/>
       <c r="B802" s="9"/>
       <c r="C802" s="9"/>
       <c r="D802" s="9"/>
@@ -25529,7 +25532,7 @@
       <c r="AA802" s="9"/>
     </row>
     <row r="803">
-      <c r="A803" s="41"/>
+      <c r="A803" s="42"/>
       <c r="B803" s="9"/>
       <c r="C803" s="9"/>
       <c r="D803" s="9"/>
@@ -25558,7 +25561,7 @@
       <c r="AA803" s="9"/>
     </row>
     <row r="804">
-      <c r="A804" s="41"/>
+      <c r="A804" s="42"/>
       <c r="B804" s="9"/>
       <c r="C804" s="9"/>
       <c r="D804" s="9"/>
@@ -25587,7 +25590,7 @@
       <c r="AA804" s="9"/>
     </row>
     <row r="805">
-      <c r="A805" s="41"/>
+      <c r="A805" s="42"/>
       <c r="B805" s="9"/>
       <c r="C805" s="9"/>
       <c r="D805" s="9"/>
@@ -25616,7 +25619,7 @@
       <c r="AA805" s="9"/>
     </row>
     <row r="806">
-      <c r="A806" s="41"/>
+      <c r="A806" s="42"/>
       <c r="B806" s="9"/>
       <c r="C806" s="9"/>
       <c r="D806" s="9"/>
@@ -25645,7 +25648,7 @@
       <c r="AA806" s="9"/>
     </row>
     <row r="807">
-      <c r="A807" s="41"/>
+      <c r="A807" s="42"/>
       <c r="B807" s="9"/>
       <c r="C807" s="9"/>
       <c r="D807" s="9"/>
@@ -25674,7 +25677,7 @@
       <c r="AA807" s="9"/>
     </row>
     <row r="808">
-      <c r="A808" s="41"/>
+      <c r="A808" s="42"/>
       <c r="B808" s="9"/>
       <c r="C808" s="9"/>
       <c r="D808" s="9"/>
@@ -25703,7 +25706,7 @@
       <c r="AA808" s="9"/>
     </row>
     <row r="809">
-      <c r="A809" s="41"/>
+      <c r="A809" s="42"/>
       <c r="B809" s="9"/>
       <c r="C809" s="9"/>
       <c r="D809" s="9"/>
@@ -25732,7 +25735,7 @@
       <c r="AA809" s="9"/>
     </row>
     <row r="810">
-      <c r="A810" s="41"/>
+      <c r="A810" s="42"/>
       <c r="B810" s="9"/>
       <c r="C810" s="9"/>
       <c r="D810" s="9"/>
@@ -25761,7 +25764,7 @@
       <c r="AA810" s="9"/>
     </row>
     <row r="811">
-      <c r="A811" s="41"/>
+      <c r="A811" s="42"/>
       <c r="B811" s="9"/>
       <c r="C811" s="9"/>
       <c r="D811" s="9"/>
@@ -25790,7 +25793,7 @@
       <c r="AA811" s="9"/>
     </row>
     <row r="812">
-      <c r="A812" s="41"/>
+      <c r="A812" s="42"/>
       <c r="B812" s="9"/>
       <c r="C812" s="9"/>
       <c r="D812" s="9"/>
@@ -25819,7 +25822,7 @@
       <c r="AA812" s="9"/>
     </row>
     <row r="813">
-      <c r="A813" s="41"/>
+      <c r="A813" s="42"/>
       <c r="B813" s="9"/>
       <c r="C813" s="9"/>
       <c r="D813" s="9"/>
@@ -25848,7 +25851,7 @@
       <c r="AA813" s="9"/>
     </row>
     <row r="814">
-      <c r="A814" s="41"/>
+      <c r="A814" s="42"/>
       <c r="B814" s="9"/>
       <c r="C814" s="9"/>
       <c r="D814" s="9"/>
@@ -25877,7 +25880,7 @@
       <c r="AA814" s="9"/>
     </row>
     <row r="815">
-      <c r="A815" s="41"/>
+      <c r="A815" s="42"/>
       <c r="B815" s="9"/>
       <c r="C815" s="9"/>
       <c r="D815" s="9"/>
@@ -25906,7 +25909,7 @@
       <c r="AA815" s="9"/>
     </row>
     <row r="816">
-      <c r="A816" s="41"/>
+      <c r="A816" s="42"/>
       <c r="B816" s="9"/>
       <c r="C816" s="9"/>
       <c r="D816" s="9"/>
@@ -25935,7 +25938,7 @@
       <c r="AA816" s="9"/>
     </row>
     <row r="817">
-      <c r="A817" s="41"/>
+      <c r="A817" s="42"/>
       <c r="B817" s="9"/>
       <c r="C817" s="9"/>
       <c r="D817" s="9"/>
@@ -25964,7 +25967,7 @@
       <c r="AA817" s="9"/>
     </row>
     <row r="818">
-      <c r="A818" s="41"/>
+      <c r="A818" s="42"/>
       <c r="B818" s="9"/>
       <c r="C818" s="9"/>
       <c r="D818" s="9"/>
@@ -25993,7 +25996,7 @@
       <c r="AA818" s="9"/>
     </row>
     <row r="819">
-      <c r="A819" s="41"/>
+      <c r="A819" s="42"/>
       <c r="B819" s="9"/>
       <c r="C819" s="9"/>
       <c r="D819" s="9"/>
@@ -26022,7 +26025,7 @@
       <c r="AA819" s="9"/>
     </row>
     <row r="820">
-      <c r="A820" s="41"/>
+      <c r="A820" s="42"/>
       <c r="B820" s="9"/>
       <c r="C820" s="9"/>
       <c r="D820" s="9"/>
@@ -26051,7 +26054,7 @@
       <c r="AA820" s="9"/>
     </row>
     <row r="821">
-      <c r="A821" s="41"/>
+      <c r="A821" s="42"/>
       <c r="B821" s="9"/>
       <c r="C821" s="9"/>
       <c r="D821" s="9"/>
@@ -26080,7 +26083,7 @@
       <c r="AA821" s="9"/>
     </row>
     <row r="822">
-      <c r="A822" s="41"/>
+      <c r="A822" s="42"/>
       <c r="B822" s="9"/>
       <c r="C822" s="9"/>
       <c r="D822" s="9"/>
@@ -26109,7 +26112,7 @@
       <c r="AA822" s="9"/>
     </row>
     <row r="823">
-      <c r="A823" s="41"/>
+      <c r="A823" s="42"/>
       <c r="B823" s="9"/>
       <c r="C823" s="9"/>
       <c r="D823" s="9"/>
@@ -26138,7 +26141,7 @@
       <c r="AA823" s="9"/>
     </row>
     <row r="824">
-      <c r="A824" s="41"/>
+      <c r="A824" s="42"/>
       <c r="B824" s="9"/>
       <c r="C824" s="9"/>
       <c r="D824" s="9"/>
@@ -26167,7 +26170,7 @@
       <c r="AA824" s="9"/>
     </row>
     <row r="825">
-      <c r="A825" s="41"/>
+      <c r="A825" s="42"/>
       <c r="B825" s="9"/>
       <c r="C825" s="9"/>
       <c r="D825" s="9"/>
@@ -26196,7 +26199,7 @@
       <c r="AA825" s="9"/>
     </row>
     <row r="826">
-      <c r="A826" s="41"/>
+      <c r="A826" s="42"/>
       <c r="B826" s="9"/>
       <c r="C826" s="9"/>
       <c r="D826" s="9"/>
@@ -26225,7 +26228,7 @@
       <c r="AA826" s="9"/>
     </row>
     <row r="827">
-      <c r="A827" s="41"/>
+      <c r="A827" s="42"/>
       <c r="B827" s="9"/>
       <c r="C827" s="9"/>
       <c r="D827" s="9"/>
@@ -26254,7 +26257,7 @@
       <c r="AA827" s="9"/>
     </row>
     <row r="828">
-      <c r="A828" s="41"/>
+      <c r="A828" s="42"/>
       <c r="B828" s="9"/>
       <c r="C828" s="9"/>
       <c r="D828" s="9"/>
@@ -26283,7 +26286,7 @@
       <c r="AA828" s="9"/>
     </row>
     <row r="829">
-      <c r="A829" s="41"/>
+      <c r="A829" s="42"/>
       <c r="B829" s="9"/>
       <c r="C829" s="9"/>
       <c r="D829" s="9"/>
@@ -26312,7 +26315,7 @@
       <c r="AA829" s="9"/>
     </row>
     <row r="830">
-      <c r="A830" s="41"/>
+      <c r="A830" s="42"/>
       <c r="B830" s="9"/>
       <c r="C830" s="9"/>
       <c r="D830" s="9"/>
@@ -26341,7 +26344,7 @@
       <c r="AA830" s="9"/>
     </row>
     <row r="831">
-      <c r="A831" s="41"/>
+      <c r="A831" s="42"/>
       <c r="B831" s="9"/>
       <c r="C831" s="9"/>
       <c r="D831" s="9"/>
@@ -26370,7 +26373,7 @@
       <c r="AA831" s="9"/>
     </row>
     <row r="832">
-      <c r="A832" s="41"/>
+      <c r="A832" s="42"/>
       <c r="B832" s="9"/>
       <c r="C832" s="9"/>
       <c r="D832" s="9"/>
@@ -26399,7 +26402,7 @@
       <c r="AA832" s="9"/>
     </row>
     <row r="833">
-      <c r="A833" s="41"/>
+      <c r="A833" s="42"/>
       <c r="B833" s="9"/>
       <c r="C833" s="9"/>
       <c r="D833" s="9"/>
@@ -26428,7 +26431,7 @@
       <c r="AA833" s="9"/>
     </row>
     <row r="834">
-      <c r="A834" s="41"/>
+      <c r="A834" s="42"/>
       <c r="B834" s="9"/>
       <c r="C834" s="9"/>
       <c r="D834" s="9"/>
@@ -26457,7 +26460,7 @@
       <c r="AA834" s="9"/>
     </row>
     <row r="835">
-      <c r="A835" s="41"/>
+      <c r="A835" s="42"/>
       <c r="B835" s="9"/>
       <c r="C835" s="9"/>
       <c r="D835" s="9"/>
@@ -26486,7 +26489,7 @@
       <c r="AA835" s="9"/>
     </row>
     <row r="836">
-      <c r="A836" s="41"/>
+      <c r="A836" s="42"/>
       <c r="B836" s="9"/>
       <c r="C836" s="9"/>
       <c r="D836" s="9"/>
@@ -26515,7 +26518,7 @@
       <c r="AA836" s="9"/>
     </row>
     <row r="837">
-      <c r="A837" s="41"/>
+      <c r="A837" s="42"/>
       <c r="B837" s="9"/>
       <c r="C837" s="9"/>
       <c r="D837" s="9"/>
@@ -26544,7 +26547,7 @@
       <c r="AA837" s="9"/>
     </row>
     <row r="838">
-      <c r="A838" s="41"/>
+      <c r="A838" s="42"/>
       <c r="B838" s="9"/>
       <c r="C838" s="9"/>
       <c r="D838" s="9"/>
@@ -26573,7 +26576,7 @@
       <c r="AA838" s="9"/>
     </row>
     <row r="839">
-      <c r="A839" s="41"/>
+      <c r="A839" s="42"/>
       <c r="B839" s="9"/>
       <c r="C839" s="9"/>
       <c r="D839" s="9"/>
@@ -26602,7 +26605,7 @@
       <c r="AA839" s="9"/>
     </row>
     <row r="840">
-      <c r="A840" s="41"/>
+      <c r="A840" s="42"/>
       <c r="B840" s="9"/>
       <c r="C840" s="9"/>
       <c r="D840" s="9"/>
@@ -26631,7 +26634,7 @@
       <c r="AA840" s="9"/>
     </row>
     <row r="841">
-      <c r="A841" s="41"/>
+      <c r="A841" s="42"/>
       <c r="B841" s="9"/>
       <c r="C841" s="9"/>
       <c r="D841" s="9"/>
@@ -26660,7 +26663,7 @@
       <c r="AA841" s="9"/>
     </row>
     <row r="842">
-      <c r="A842" s="41"/>
+      <c r="A842" s="42"/>
       <c r="B842" s="9"/>
       <c r="C842" s="9"/>
       <c r="D842" s="9"/>
@@ -26689,7 +26692,7 @@
       <c r="AA842" s="9"/>
     </row>
     <row r="843">
-      <c r="A843" s="41"/>
+      <c r="A843" s="42"/>
       <c r="B843" s="9"/>
       <c r="C843" s="9"/>
       <c r="D843" s="9"/>
@@ -26718,7 +26721,7 @@
       <c r="AA843" s="9"/>
     </row>
     <row r="844">
-      <c r="A844" s="41"/>
+      <c r="A844" s="42"/>
       <c r="B844" s="9"/>
       <c r="C844" s="9"/>
       <c r="D844" s="9"/>
@@ -26747,7 +26750,7 @@
       <c r="AA844" s="9"/>
     </row>
     <row r="845">
-      <c r="A845" s="41"/>
+      <c r="A845" s="42"/>
       <c r="B845" s="9"/>
       <c r="C845" s="9"/>
       <c r="D845" s="9"/>
@@ -26776,7 +26779,7 @@
       <c r="AA845" s="9"/>
     </row>
     <row r="846">
-      <c r="A846" s="41"/>
+      <c r="A846" s="42"/>
       <c r="B846" s="9"/>
       <c r="C846" s="9"/>
       <c r="D846" s="9"/>
@@ -26805,7 +26808,7 @@
       <c r="AA846" s="9"/>
     </row>
     <row r="847">
-      <c r="A847" s="41"/>
+      <c r="A847" s="42"/>
       <c r="B847" s="9"/>
       <c r="C847" s="9"/>
       <c r="D847" s="9"/>
@@ -26834,7 +26837,7 @@
       <c r="AA847" s="9"/>
     </row>
     <row r="848">
-      <c r="A848" s="41"/>
+      <c r="A848" s="42"/>
       <c r="B848" s="9"/>
       <c r="C848" s="9"/>
       <c r="D848" s="9"/>
@@ -26863,7 +26866,7 @@
       <c r="AA848" s="9"/>
     </row>
     <row r="849">
-      <c r="A849" s="41"/>
+      <c r="A849" s="42"/>
       <c r="B849" s="9"/>
       <c r="C849" s="9"/>
       <c r="D849" s="9"/>
@@ -26892,7 +26895,7 @@
       <c r="AA849" s="9"/>
     </row>
     <row r="850">
-      <c r="A850" s="41"/>
+      <c r="A850" s="42"/>
       <c r="B850" s="9"/>
       <c r="C850" s="9"/>
       <c r="D850" s="9"/>
@@ -26921,7 +26924,7 @@
       <c r="AA850" s="9"/>
     </row>
     <row r="851">
-      <c r="A851" s="41"/>
+      <c r="A851" s="42"/>
       <c r="B851" s="9"/>
       <c r="C851" s="9"/>
       <c r="D851" s="9"/>
@@ -26950,7 +26953,7 @@
       <c r="AA851" s="9"/>
     </row>
     <row r="852">
-      <c r="A852" s="41"/>
+      <c r="A852" s="42"/>
       <c r="B852" s="9"/>
       <c r="C852" s="9"/>
       <c r="D852" s="9"/>
@@ -26979,7 +26982,7 @@
       <c r="AA852" s="9"/>
     </row>
     <row r="853">
-      <c r="A853" s="41"/>
+      <c r="A853" s="42"/>
       <c r="B853" s="9"/>
       <c r="C853" s="9"/>
       <c r="D853" s="9"/>
@@ -27008,7 +27011,7 @@
       <c r="AA853" s="9"/>
     </row>
     <row r="854">
-      <c r="A854" s="41"/>
+      <c r="A854" s="42"/>
       <c r="B854" s="9"/>
       <c r="C854" s="9"/>
       <c r="D854" s="9"/>
@@ -27037,7 +27040,7 @@
       <c r="AA854" s="9"/>
     </row>
     <row r="855">
-      <c r="A855" s="41"/>
+      <c r="A855" s="42"/>
       <c r="B855" s="9"/>
       <c r="C855" s="9"/>
       <c r="D855" s="9"/>
@@ -27066,7 +27069,7 @@
       <c r="AA855" s="9"/>
     </row>
     <row r="856">
-      <c r="A856" s="41"/>
+      <c r="A856" s="42"/>
       <c r="B856" s="9"/>
       <c r="C856" s="9"/>
       <c r="D856" s="9"/>
@@ -27095,7 +27098,7 @@
       <c r="AA856" s="9"/>
     </row>
     <row r="857">
-      <c r="A857" s="41"/>
+      <c r="A857" s="42"/>
       <c r="B857" s="9"/>
       <c r="C857" s="9"/>
       <c r="D857" s="9"/>
@@ -27124,7 +27127,7 @@
       <c r="AA857" s="9"/>
     </row>
     <row r="858">
-      <c r="A858" s="41"/>
+      <c r="A858" s="42"/>
       <c r="B858" s="9"/>
       <c r="C858" s="9"/>
       <c r="D858" s="9"/>
@@ -27153,7 +27156,7 @@
       <c r="AA858" s="9"/>
     </row>
     <row r="859">
-      <c r="A859" s="41"/>
+      <c r="A859" s="42"/>
       <c r="B859" s="9"/>
       <c r="C859" s="9"/>
       <c r="D859" s="9"/>
@@ -27182,7 +27185,7 @@
       <c r="AA859" s="9"/>
     </row>
     <row r="860">
-      <c r="A860" s="41"/>
+      <c r="A860" s="42"/>
       <c r="B860" s="9"/>
       <c r="C860" s="9"/>
       <c r="D860" s="9"/>
@@ -27211,7 +27214,7 @@
       <c r="AA860" s="9"/>
     </row>
     <row r="861">
-      <c r="A861" s="41"/>
+      <c r="A861" s="42"/>
       <c r="B861" s="9"/>
       <c r="C861" s="9"/>
       <c r="D861" s="9"/>
@@ -27240,7 +27243,7 @@
       <c r="AA861" s="9"/>
     </row>
     <row r="862">
-      <c r="A862" s="41"/>
+      <c r="A862" s="42"/>
       <c r="B862" s="9"/>
       <c r="C862" s="9"/>
       <c r="D862" s="9"/>
@@ -27269,7 +27272,7 @@
       <c r="AA862" s="9"/>
     </row>
     <row r="863">
-      <c r="A863" s="41"/>
+      <c r="A863" s="42"/>
       <c r="B863" s="9"/>
       <c r="C863" s="9"/>
       <c r="D863" s="9"/>
@@ -27298,7 +27301,7 @@
       <c r="AA863" s="9"/>
     </row>
     <row r="864">
-      <c r="A864" s="41"/>
+      <c r="A864" s="42"/>
       <c r="B864" s="9"/>
       <c r="C864" s="9"/>
       <c r="D864" s="9"/>
@@ -27327,7 +27330,7 @@
       <c r="AA864" s="9"/>
     </row>
     <row r="865">
-      <c r="A865" s="41"/>
+      <c r="A865" s="42"/>
       <c r="B865" s="9"/>
       <c r="C865" s="9"/>
       <c r="D865" s="9"/>
@@ -27356,7 +27359,7 @@
       <c r="AA865" s="9"/>
     </row>
     <row r="866">
-      <c r="A866" s="41"/>
+      <c r="A866" s="42"/>
       <c r="B866" s="9"/>
       <c r="C866" s="9"/>
       <c r="D866" s="9"/>
@@ -27385,7 +27388,7 @@
       <c r="AA866" s="9"/>
     </row>
     <row r="867">
-      <c r="A867" s="41"/>
+      <c r="A867" s="42"/>
       <c r="B867" s="9"/>
       <c r="C867" s="9"/>
       <c r="D867" s="9"/>
@@ -27414,7 +27417,7 @@
       <c r="AA867" s="9"/>
     </row>
     <row r="868">
-      <c r="A868" s="41"/>
+      <c r="A868" s="42"/>
       <c r="B868" s="9"/>
       <c r="C868" s="9"/>
       <c r="D868" s="9"/>
@@ -27443,7 +27446,7 @@
       <c r="AA868" s="9"/>
     </row>
     <row r="869">
-      <c r="A869" s="41"/>
+      <c r="A869" s="42"/>
       <c r="B869" s="9"/>
       <c r="C869" s="9"/>
       <c r="D869" s="9"/>
@@ -27472,7 +27475,7 @@
       <c r="AA869" s="9"/>
     </row>
     <row r="870">
-      <c r="A870" s="41"/>
+      <c r="A870" s="42"/>
       <c r="B870" s="9"/>
       <c r="C870" s="9"/>
       <c r="D870" s="9"/>
@@ -27501,7 +27504,7 @@
       <c r="AA870" s="9"/>
     </row>
     <row r="871">
-      <c r="A871" s="41"/>
+      <c r="A871" s="42"/>
       <c r="B871" s="9"/>
       <c r="C871" s="9"/>
       <c r="D871" s="9"/>
@@ -27530,7 +27533,7 @@
       <c r="AA871" s="9"/>
     </row>
     <row r="872">
-      <c r="A872" s="41"/>
+      <c r="A872" s="42"/>
       <c r="B872" s="9"/>
       <c r="C872" s="9"/>
       <c r="D872" s="9"/>
@@ -27559,7 +27562,7 @@
       <c r="AA872" s="9"/>
     </row>
     <row r="873">
-      <c r="A873" s="41"/>
+      <c r="A873" s="42"/>
       <c r="B873" s="9"/>
       <c r="C873" s="9"/>
       <c r="D873" s="9"/>
@@ -27588,7 +27591,7 @@
       <c r="AA873" s="9"/>
     </row>
     <row r="874">
-      <c r="A874" s="41"/>
+      <c r="A874" s="42"/>
       <c r="B874" s="9"/>
       <c r="C874" s="9"/>
       <c r="D874" s="9"/>
@@ -27617,7 +27620,7 @@
       <c r="AA874" s="9"/>
     </row>
     <row r="875">
-      <c r="A875" s="41"/>
+      <c r="A875" s="42"/>
       <c r="B875" s="9"/>
       <c r="C875" s="9"/>
       <c r="D875" s="9"/>
@@ -27646,7 +27649,7 @@
       <c r="AA875" s="9"/>
     </row>
     <row r="876">
-      <c r="A876" s="41"/>
+      <c r="A876" s="42"/>
       <c r="B876" s="9"/>
       <c r="C876" s="9"/>
       <c r="D876" s="9"/>
@@ -27675,7 +27678,7 @@
       <c r="AA876" s="9"/>
     </row>
     <row r="877">
-      <c r="A877" s="41"/>
+      <c r="A877" s="42"/>
       <c r="B877" s="9"/>
       <c r="C877" s="9"/>
       <c r="D877" s="9"/>
@@ -27704,7 +27707,7 @@
       <c r="AA877" s="9"/>
     </row>
     <row r="878">
-      <c r="A878" s="41"/>
+      <c r="A878" s="42"/>
       <c r="B878" s="9"/>
       <c r="C878" s="9"/>
       <c r="D878" s="9"/>
@@ -27733,7 +27736,7 @@
       <c r="AA878" s="9"/>
     </row>
     <row r="879">
-      <c r="A879" s="41"/>
+      <c r="A879" s="42"/>
       <c r="B879" s="9"/>
       <c r="C879" s="9"/>
       <c r="D879" s="9"/>
@@ -27762,7 +27765,7 @@
       <c r="AA879" s="9"/>
     </row>
     <row r="880">
-      <c r="A880" s="41"/>
+      <c r="A880" s="42"/>
       <c r="B880" s="9"/>
       <c r="C880" s="9"/>
       <c r="D880" s="9"/>
@@ -27791,7 +27794,7 @@
       <c r="AA880" s="9"/>
     </row>
     <row r="881">
-      <c r="A881" s="41"/>
+      <c r="A881" s="42"/>
       <c r="B881" s="9"/>
       <c r="C881" s="9"/>
       <c r="D881" s="9"/>
@@ -27820,7 +27823,7 @@
       <c r="AA881" s="9"/>
     </row>
     <row r="882">
-      <c r="A882" s="41"/>
+      <c r="A882" s="42"/>
       <c r="B882" s="9"/>
       <c r="C882" s="9"/>
       <c r="D882" s="9"/>
@@ -27849,7 +27852,7 @@
       <c r="AA882" s="9"/>
     </row>
     <row r="883">
-      <c r="A883" s="41"/>
+      <c r="A883" s="42"/>
       <c r="B883" s="9"/>
       <c r="C883" s="9"/>
       <c r="D883" s="9"/>
@@ -27878,7 +27881,7 @@
       <c r="AA883" s="9"/>
     </row>
     <row r="884">
-      <c r="A884" s="41"/>
+      <c r="A884" s="42"/>
       <c r="B884" s="9"/>
       <c r="C884" s="9"/>
       <c r="D884" s="9"/>
@@ -27907,7 +27910,7 @@
       <c r="AA884" s="9"/>
     </row>
     <row r="885">
-      <c r="A885" s="41"/>
+      <c r="A885" s="42"/>
       <c r="B885" s="9"/>
       <c r="C885" s="9"/>
       <c r="D885" s="9"/>
@@ -27936,7 +27939,7 @@
       <c r="AA885" s="9"/>
     </row>
     <row r="886">
-      <c r="A886" s="41"/>
+      <c r="A886" s="42"/>
       <c r="B886" s="9"/>
       <c r="C886" s="9"/>
       <c r="D886" s="9"/>
@@ -27965,7 +27968,7 @@
       <c r="AA886" s="9"/>
     </row>
     <row r="887">
-      <c r="A887" s="41"/>
+      <c r="A887" s="42"/>
       <c r="B887" s="9"/>
       <c r="C887" s="9"/>
       <c r="D887" s="9"/>
@@ -27994,7 +27997,7 @@
       <c r="AA887" s="9"/>
     </row>
     <row r="888">
-      <c r="A888" s="41"/>
+      <c r="A888" s="42"/>
       <c r="B888" s="9"/>
       <c r="C888" s="9"/>
       <c r="D888" s="9"/>
@@ -28023,7 +28026,7 @@
       <c r="AA888" s="9"/>
     </row>
     <row r="889">
-      <c r="A889" s="41"/>
+      <c r="A889" s="42"/>
       <c r="B889" s="9"/>
       <c r="C889" s="9"/>
       <c r="D889" s="9"/>
@@ -28052,7 +28055,7 @@
       <c r="AA889" s="9"/>
     </row>
     <row r="890">
-      <c r="A890" s="41"/>
+      <c r="A890" s="42"/>
       <c r="B890" s="9"/>
       <c r="C890" s="9"/>
       <c r="D890" s="9"/>
@@ -28081,7 +28084,7 @@
       <c r="AA890" s="9"/>
     </row>
     <row r="891">
-      <c r="A891" s="41"/>
+      <c r="A891" s="42"/>
       <c r="B891" s="9"/>
       <c r="C891" s="9"/>
       <c r="D891" s="9"/>
@@ -28110,7 +28113,7 @@
       <c r="AA891" s="9"/>
     </row>
     <row r="892">
-      <c r="A892" s="41"/>
+      <c r="A892" s="42"/>
       <c r="B892" s="9"/>
       <c r="C892" s="9"/>
       <c r="D892" s="9"/>
@@ -28139,7 +28142,7 @@
       <c r="AA892" s="9"/>
     </row>
     <row r="893">
-      <c r="A893" s="41"/>
+      <c r="A893" s="42"/>
       <c r="B893" s="9"/>
       <c r="C893" s="9"/>
       <c r="D893" s="9"/>
@@ -28168,7 +28171,7 @@
       <c r="AA893" s="9"/>
     </row>
     <row r="894">
-      <c r="A894" s="41"/>
+      <c r="A894" s="42"/>
       <c r="B894" s="9"/>
       <c r="C894" s="9"/>
       <c r="D894" s="9"/>
@@ -28197,7 +28200,7 @@
       <c r="AA894" s="9"/>
     </row>
     <row r="895">
-      <c r="A895" s="41"/>
+      <c r="A895" s="42"/>
       <c r="B895" s="9"/>
       <c r="C895" s="9"/>
       <c r="D895" s="9"/>
@@ -28226,7 +28229,7 @@
       <c r="AA895" s="9"/>
     </row>
     <row r="896">
-      <c r="A896" s="41"/>
+      <c r="A896" s="42"/>
       <c r="B896" s="9"/>
       <c r="C896" s="9"/>
       <c r="D896" s="9"/>
@@ -28255,7 +28258,7 @@
       <c r="AA896" s="9"/>
     </row>
     <row r="897">
-      <c r="A897" s="41"/>
+      <c r="A897" s="42"/>
       <c r="B897" s="9"/>
       <c r="C897" s="9"/>
       <c r="D897" s="9"/>
@@ -28284,7 +28287,7 @@
       <c r="AA897" s="9"/>
     </row>
     <row r="898">
-      <c r="A898" s="41"/>
+      <c r="A898" s="42"/>
       <c r="B898" s="9"/>
       <c r="C898" s="9"/>
       <c r="D898" s="9"/>
@@ -28313,7 +28316,7 @@
       <c r="AA898" s="9"/>
     </row>
     <row r="899">
-      <c r="A899" s="41"/>
+      <c r="A899" s="42"/>
       <c r="B899" s="9"/>
       <c r="C899" s="9"/>
       <c r="D899" s="9"/>
@@ -28342,7 +28345,7 @@
       <c r="AA899" s="9"/>
     </row>
     <row r="900">
-      <c r="A900" s="41"/>
+      <c r="A900" s="42"/>
       <c r="B900" s="9"/>
       <c r="C900" s="9"/>
       <c r="D900" s="9"/>
@@ -28371,7 +28374,7 @@
       <c r="AA900" s="9"/>
     </row>
     <row r="901">
-      <c r="A901" s="41"/>
+      <c r="A901" s="42"/>
       <c r="B901" s="9"/>
       <c r="C901" s="9"/>
       <c r="D901" s="9"/>
@@ -28400,7 +28403,7 @@
       <c r="AA901" s="9"/>
     </row>
     <row r="902">
-      <c r="A902" s="41"/>
+      <c r="A902" s="42"/>
       <c r="B902" s="9"/>
       <c r="C902" s="9"/>
       <c r="D902" s="9"/>
@@ -28429,7 +28432,7 @@
       <c r="AA902" s="9"/>
     </row>
     <row r="903">
-      <c r="A903" s="41"/>
+      <c r="A903" s="42"/>
       <c r="B903" s="9"/>
       <c r="C903" s="9"/>
       <c r="D903" s="9"/>
@@ -28458,7 +28461,7 @@
       <c r="AA903" s="9"/>
     </row>
     <row r="904">
-      <c r="A904" s="41"/>
+      <c r="A904" s="42"/>
       <c r="B904" s="9"/>
       <c r="C904" s="9"/>
       <c r="D904" s="9"/>
@@ -28487,7 +28490,7 @@
       <c r="AA904" s="9"/>
     </row>
     <row r="905">
-      <c r="A905" s="41"/>
+      <c r="A905" s="42"/>
       <c r="B905" s="9"/>
       <c r="C905" s="9"/>
       <c r="D905" s="9"/>
@@ -28516,7 +28519,7 @@
       <c r="AA905" s="9"/>
     </row>
     <row r="906">
-      <c r="A906" s="41"/>
+      <c r="A906" s="42"/>
       <c r="B906" s="9"/>
       <c r="C906" s="9"/>
       <c r="D906" s="9"/>
@@ -28545,7 +28548,7 @@
       <c r="AA906" s="9"/>
     </row>
     <row r="907">
-      <c r="A907" s="41"/>
+      <c r="A907" s="42"/>
       <c r="B907" s="9"/>
       <c r="C907" s="9"/>
       <c r="D907" s="9"/>
@@ -28574,7 +28577,7 @@
       <c r="AA907" s="9"/>
     </row>
     <row r="908">
-      <c r="A908" s="41"/>
+      <c r="A908" s="42"/>
       <c r="B908" s="9"/>
       <c r="C908" s="9"/>
       <c r="D908" s="9"/>
@@ -28603,7 +28606,7 @@
       <c r="AA908" s="9"/>
     </row>
     <row r="909">
-      <c r="A909" s="41"/>
+      <c r="A909" s="42"/>
       <c r="B909" s="9"/>
       <c r="C909" s="9"/>
       <c r="D909" s="9"/>
@@ -28632,7 +28635,7 @@
       <c r="AA909" s="9"/>
     </row>
     <row r="910">
-      <c r="A910" s="41"/>
+      <c r="A910" s="42"/>
       <c r="B910" s="9"/>
       <c r="C910" s="9"/>
       <c r="D910" s="9"/>
@@ -28661,7 +28664,7 @@
       <c r="AA910" s="9"/>
     </row>
     <row r="911">
-      <c r="A911" s="41"/>
+      <c r="A911" s="42"/>
       <c r="B911" s="9"/>
       <c r="C911" s="9"/>
       <c r="D911" s="9"/>
@@ -28690,7 +28693,7 @@
       <c r="AA911" s="9"/>
     </row>
     <row r="912">
-      <c r="A912" s="41"/>
+      <c r="A912" s="42"/>
       <c r="B912" s="9"/>
       <c r="C912" s="9"/>
       <c r="D912" s="9"/>
@@ -28719,7 +28722,7 @@
       <c r="AA912" s="9"/>
     </row>
     <row r="913">
-      <c r="A913" s="41"/>
+      <c r="A913" s="42"/>
       <c r="B913" s="9"/>
       <c r="C913" s="9"/>
       <c r="D913" s="9"/>
@@ -28748,7 +28751,7 @@
       <c r="AA913" s="9"/>
     </row>
     <row r="914">
-      <c r="A914" s="41"/>
+      <c r="A914" s="42"/>
       <c r="B914" s="9"/>
       <c r="C914" s="9"/>
       <c r="D914" s="9"/>
@@ -28777,7 +28780,7 @@
       <c r="AA914" s="9"/>
     </row>
     <row r="915">
-      <c r="A915" s="41"/>
+      <c r="A915" s="42"/>
       <c r="B915" s="9"/>
       <c r="C915" s="9"/>
       <c r="D915" s="9"/>
@@ -28806,7 +28809,7 @@
       <c r="AA915" s="9"/>
     </row>
     <row r="916">
-      <c r="A916" s="41"/>
+      <c r="A916" s="42"/>
       <c r="B916" s="9"/>
       <c r="C916" s="9"/>
       <c r="D916" s="9"/>
@@ -28835,7 +28838,7 @@
       <c r="AA916" s="9"/>
     </row>
     <row r="917">
-      <c r="A917" s="41"/>
+      <c r="A917" s="42"/>
       <c r="B917" s="9"/>
       <c r="C917" s="9"/>
       <c r="D917" s="9"/>
@@ -28864,7 +28867,7 @@
       <c r="AA917" s="9"/>
     </row>
     <row r="918">
-      <c r="A918" s="41"/>
+      <c r="A918" s="42"/>
       <c r="B918" s="9"/>
       <c r="C918" s="9"/>
       <c r="D918" s="9"/>
@@ -28893,7 +28896,7 @@
       <c r="AA918" s="9"/>
     </row>
     <row r="919">
-      <c r="A919" s="41"/>
+      <c r="A919" s="42"/>
       <c r="B919" s="9"/>
       <c r="C919" s="9"/>
       <c r="D919" s="9"/>
@@ -28922,7 +28925,7 @@
       <c r="AA919" s="9"/>
     </row>
     <row r="920">
-      <c r="A920" s="41"/>
+      <c r="A920" s="42"/>
       <c r="B920" s="9"/>
       <c r="C920" s="9"/>
       <c r="D920" s="9"/>
@@ -28951,7 +28954,7 @@
       <c r="AA920" s="9"/>
     </row>
     <row r="921">
-      <c r="A921" s="41"/>
+      <c r="A921" s="42"/>
       <c r="B921" s="9"/>
       <c r="C921" s="9"/>
       <c r="D921" s="9"/>
@@ -28980,7 +28983,7 @@
       <c r="AA921" s="9"/>
     </row>
     <row r="922">
-      <c r="A922" s="41"/>
+      <c r="A922" s="42"/>
       <c r="B922" s="9"/>
       <c r="C922" s="9"/>
       <c r="D922" s="9"/>
@@ -29009,7 +29012,7 @@
       <c r="AA922" s="9"/>
     </row>
     <row r="923">
-      <c r="A923" s="41"/>
+      <c r="A923" s="42"/>
       <c r="B923" s="9"/>
       <c r="C923" s="9"/>
       <c r="D923" s="9"/>
@@ -29038,7 +29041,7 @@
       <c r="AA923" s="9"/>
     </row>
     <row r="924">
-      <c r="A924" s="41"/>
+      <c r="A924" s="42"/>
       <c r="B924" s="9"/>
       <c r="C924" s="9"/>
       <c r="D924" s="9"/>
@@ -29067,7 +29070,7 @@
       <c r="AA924" s="9"/>
     </row>
     <row r="925">
-      <c r="A925" s="41"/>
+      <c r="A925" s="42"/>
       <c r="B925" s="9"/>
       <c r="C925" s="9"/>
       <c r="D925" s="9"/>
@@ -29096,7 +29099,7 @@
       <c r="AA925" s="9"/>
     </row>
     <row r="926">
-      <c r="A926" s="41"/>
+      <c r="A926" s="42"/>
       <c r="B926" s="9"/>
       <c r="C926" s="9"/>
       <c r="D926" s="9"/>
@@ -29125,7 +29128,7 @@
       <c r="AA926" s="9"/>
     </row>
     <row r="927">
-      <c r="A927" s="41"/>
+      <c r="A927" s="42"/>
       <c r="B927" s="9"/>
       <c r="C927" s="9"/>
       <c r="D927" s="9"/>
@@ -29154,7 +29157,7 @@
       <c r="AA927" s="9"/>
     </row>
     <row r="928">
-      <c r="A928" s="41"/>
+      <c r="A928" s="42"/>
       <c r="B928" s="9"/>
       <c r="C928" s="9"/>
       <c r="D928" s="9"/>
@@ -29183,7 +29186,7 @@
       <c r="AA928" s="9"/>
     </row>
     <row r="929">
-      <c r="A929" s="41"/>
+      <c r="A929" s="42"/>
       <c r="B929" s="9"/>
       <c r="C929" s="9"/>
       <c r="D929" s="9"/>
@@ -29212,7 +29215,7 @@
       <c r="AA929" s="9"/>
     </row>
     <row r="930">
-      <c r="A930" s="41"/>
+      <c r="A930" s="42"/>
       <c r="B930" s="9"/>
       <c r="C930" s="9"/>
       <c r="D930" s="9"/>
@@ -29241,7 +29244,7 @@
       <c r="AA930" s="9"/>
     </row>
     <row r="931">
-      <c r="A931" s="41"/>
+      <c r="A931" s="42"/>
       <c r="B931" s="9"/>
       <c r="C931" s="9"/>
       <c r="D931" s="9"/>
@@ -29270,7 +29273,7 @@
       <c r="AA931" s="9"/>
     </row>
     <row r="932">
-      <c r="A932" s="41"/>
+      <c r="A932" s="42"/>
       <c r="B932" s="9"/>
       <c r="C932" s="9"/>
       <c r="D932" s="9"/>
@@ -29299,7 +29302,7 @@
       <c r="AA932" s="9"/>
     </row>
     <row r="933">
-      <c r="A933" s="41"/>
+      <c r="A933" s="42"/>
       <c r="B933" s="9"/>
       <c r="C933" s="9"/>
       <c r="D933" s="9"/>
@@ -29328,7 +29331,7 @@
       <c r="AA933" s="9"/>
     </row>
     <row r="934">
-      <c r="A934" s="41"/>
+      <c r="A934" s="42"/>
       <c r="B934" s="9"/>
       <c r="C934" s="9"/>
       <c r="D934" s="9"/>
@@ -29357,7 +29360,7 @@
       <c r="AA934" s="9"/>
     </row>
     <row r="935">
-      <c r="A935" s="41"/>
+      <c r="A935" s="42"/>
       <c r="B935" s="9"/>
       <c r="C935" s="9"/>
       <c r="D935" s="9"/>
@@ -29386,7 +29389,7 @@
       <c r="AA935" s="9"/>
     </row>
     <row r="936">
-      <c r="A936" s="41"/>
+      <c r="A936" s="42"/>
       <c r="B936" s="9"/>
       <c r="C936" s="9"/>
       <c r="D936" s="9"/>
@@ -29415,7 +29418,7 @@
       <c r="AA936" s="9"/>
     </row>
     <row r="937">
-      <c r="A937" s="41"/>
+      <c r="A937" s="42"/>
       <c r="B937" s="9"/>
       <c r="C937" s="9"/>
       <c r="D937" s="9"/>
@@ -29444,7 +29447,7 @@
       <c r="AA937" s="9"/>
     </row>
     <row r="938">
-      <c r="A938" s="41"/>
+      <c r="A938" s="42"/>
       <c r="B938" s="9"/>
       <c r="C938" s="9"/>
       <c r="D938" s="9"/>
@@ -29473,7 +29476,7 @@
       <c r="AA938" s="9"/>
     </row>
     <row r="939">
-      <c r="A939" s="41"/>
+      <c r="A939" s="42"/>
       <c r="B939" s="9"/>
       <c r="C939" s="9"/>
       <c r="D939" s="9"/>
@@ -29502,7 +29505,7 @@
       <c r="AA939" s="9"/>
     </row>
     <row r="940">
-      <c r="A940" s="41"/>
+      <c r="A940" s="42"/>
       <c r="B940" s="9"/>
       <c r="C940" s="9"/>
       <c r="D940" s="9"/>
@@ -29531,7 +29534,7 @@
       <c r="AA940" s="9"/>
     </row>
     <row r="941">
-      <c r="A941" s="41"/>
+      <c r="A941" s="42"/>
       <c r="B941" s="9"/>
       <c r="C941" s="9"/>
       <c r="D941" s="9"/>
@@ -29560,7 +29563,7 @@
       <c r="AA941" s="9"/>
     </row>
     <row r="942">
-      <c r="A942" s="41"/>
+      <c r="A942" s="42"/>
       <c r="B942" s="9"/>
       <c r="C942" s="9"/>
       <c r="D942" s="9"/>
@@ -29589,7 +29592,7 @@
       <c r="AA942" s="9"/>
     </row>
     <row r="943">
-      <c r="A943" s="41"/>
+      <c r="A943" s="42"/>
       <c r="B943" s="9"/>
       <c r="C943" s="9"/>
       <c r="D943" s="9"/>
@@ -29618,7 +29621,7 @@
       <c r="AA943" s="9"/>
     </row>
     <row r="944">
-      <c r="A944" s="41"/>
+      <c r="A944" s="42"/>
       <c r="B944" s="9"/>
       <c r="C944" s="9"/>
       <c r="D944" s="9"/>
@@ -29647,7 +29650,7 @@
       <c r="AA944" s="9"/>
     </row>
     <row r="945">
-      <c r="A945" s="41"/>
+      <c r="A945" s="42"/>
       <c r="B945" s="9"/>
       <c r="C945" s="9"/>
       <c r="D945" s="9"/>
@@ -29676,7 +29679,7 @@
       <c r="AA945" s="9"/>
     </row>
     <row r="946">
-      <c r="A946" s="41"/>
+      <c r="A946" s="42"/>
       <c r="B946" s="9"/>
       <c r="C946" s="9"/>
       <c r="D946" s="9"/>
@@ -29705,7 +29708,7 @@
       <c r="AA946" s="9"/>
     </row>
     <row r="947">
-      <c r="A947" s="41"/>
+      <c r="A947" s="42"/>
       <c r="B947" s="9"/>
       <c r="C947" s="9"/>
       <c r="D947" s="9"/>
@@ -29734,7 +29737,7 @@
       <c r="AA947" s="9"/>
     </row>
     <row r="948">
-      <c r="A948" s="41"/>
+      <c r="A948" s="42"/>
       <c r="B948" s="9"/>
       <c r="C948" s="9"/>
       <c r="D948" s="9"/>
@@ -29763,7 +29766,7 @@
       <c r="AA948" s="9"/>
     </row>
     <row r="949">
-      <c r="A949" s="41"/>
+      <c r="A949" s="42"/>
       <c r="B949" s="9"/>
       <c r="C949" s="9"/>
       <c r="D949" s="9"/>
@@ -29792,7 +29795,7 @@
       <c r="AA949" s="9"/>
     </row>
     <row r="950">
-      <c r="A950" s="41"/>
+      <c r="A950" s="42"/>
       <c r="B950" s="9"/>
       <c r="C950" s="9"/>
       <c r="D950" s="9"/>
@@ -29821,7 +29824,7 @@
       <c r="AA950" s="9"/>
     </row>
     <row r="951">
-      <c r="A951" s="41"/>
+      <c r="A951" s="42"/>
       <c r="B951" s="9"/>
       <c r="C951" s="9"/>
       <c r="D951" s="9"/>
@@ -29850,7 +29853,7 @@
       <c r="AA951" s="9"/>
     </row>
     <row r="952">
-      <c r="A952" s="41"/>
+      <c r="A952" s="42"/>
       <c r="B952" s="9"/>
       <c r="C952" s="9"/>
       <c r="D952" s="9"/>
@@ -29879,7 +29882,7 @@
       <c r="AA952" s="9"/>
     </row>
     <row r="953">
-      <c r="A953" s="41"/>
+      <c r="A953" s="42"/>
       <c r="B953" s="9"/>
       <c r="C953" s="9"/>
       <c r="D953" s="9"/>
@@ -29908,7 +29911,7 @@
       <c r="AA953" s="9"/>
     </row>
     <row r="954">
-      <c r="A954" s="41"/>
+      <c r="A954" s="42"/>
       <c r="B954" s="9"/>
       <c r="C954" s="9"/>
       <c r="D954" s="9"/>
@@ -29937,7 +29940,7 @@
       <c r="AA954" s="9"/>
     </row>
     <row r="955">
-      <c r="A955" s="41"/>
+      <c r="A955" s="42"/>
       <c r="B955" s="9"/>
       <c r="C955" s="9"/>
       <c r="D955" s="9"/>
@@ -29966,7 +29969,7 @@
       <c r="AA955" s="9"/>
     </row>
     <row r="956">
-      <c r="A956" s="41"/>
+      <c r="A956" s="42"/>
       <c r="B956" s="9"/>
       <c r="C956" s="9"/>
       <c r="D956" s="9"/>
@@ -29995,7 +29998,7 @@
       <c r="AA956" s="9"/>
     </row>
     <row r="957">
-      <c r="A957" s="41"/>
+      <c r="A957" s="42"/>
       <c r="B957" s="9"/>
       <c r="C957" s="9"/>
       <c r="D957" s="9"/>
@@ -30024,7 +30027,7 @@
       <c r="AA957" s="9"/>
     </row>
     <row r="958">
-      <c r="A958" s="41"/>
+      <c r="A958" s="42"/>
       <c r="B958" s="9"/>
       <c r="C958" s="9"/>
       <c r="D958" s="9"/>
@@ -30053,7 +30056,7 @@
       <c r="AA958" s="9"/>
     </row>
     <row r="959">
-      <c r="A959" s="41"/>
+      <c r="A959" s="42"/>
       <c r="B959" s="9"/>
       <c r="C959" s="9"/>
       <c r="D959" s="9"/>
@@ -30082,7 +30085,7 @@
       <c r="AA959" s="9"/>
     </row>
     <row r="960">
-      <c r="A960" s="41"/>
+      <c r="A960" s="42"/>
       <c r="B960" s="9"/>
       <c r="C960" s="9"/>
       <c r="D960" s="9"/>
@@ -30111,7 +30114,7 @@
       <c r="AA960" s="9"/>
     </row>
     <row r="961">
-      <c r="A961" s="41"/>
+      <c r="A961" s="42"/>
       <c r="B961" s="9"/>
       <c r="C961" s="9"/>
       <c r="D961" s="9"/>
@@ -30140,7 +30143,7 @@
       <c r="AA961" s="9"/>
     </row>
     <row r="962">
-      <c r="A962" s="41"/>
+      <c r="A962" s="42"/>
       <c r="B962" s="9"/>
       <c r="C962" s="9"/>
       <c r="D962" s="9"/>
@@ -30169,7 +30172,7 @@
       <c r="AA962" s="9"/>
     </row>
     <row r="963">
-      <c r="A963" s="41"/>
+      <c r="A963" s="42"/>
       <c r="B963" s="9"/>
       <c r="C963" s="9"/>
       <c r="D963" s="9"/>
@@ -30198,7 +30201,7 @@
       <c r="AA963" s="9"/>
     </row>
     <row r="964">
-      <c r="A964" s="41"/>
+      <c r="A964" s="42"/>
       <c r="B964" s="9"/>
       <c r="C964" s="9"/>
       <c r="D964" s="9"/>
@@ -30227,7 +30230,7 @@
       <c r="AA964" s="9"/>
     </row>
     <row r="965">
-      <c r="A965" s="41"/>
+      <c r="A965" s="42"/>
       <c r="B965" s="9"/>
       <c r="C965" s="9"/>
       <c r="D965" s="9"/>
@@ -30256,7 +30259,7 @@
       <c r="AA965" s="9"/>
     </row>
     <row r="966">
-      <c r="A966" s="41"/>
+      <c r="A966" s="42"/>
       <c r="B966" s="9"/>
       <c r="C966" s="9"/>
       <c r="D966" s="9"/>
@@ -30285,7 +30288,7 @@
       <c r="AA966" s="9"/>
     </row>
     <row r="967">
-      <c r="A967" s="41"/>
+      <c r="A967" s="42"/>
       <c r="B967" s="9"/>
       <c r="C967" s="9"/>
       <c r="D967" s="9"/>
@@ -30314,7 +30317,7 @@
       <c r="AA967" s="9"/>
     </row>
     <row r="968">
-      <c r="A968" s="41"/>
+      <c r="A968" s="42"/>
       <c r="B968" s="9"/>
       <c r="C968" s="9"/>
       <c r="D968" s="9"/>
@@ -30343,7 +30346,7 @@
       <c r="AA968" s="9"/>
     </row>
     <row r="969">
-      <c r="A969" s="41"/>
+      <c r="A969" s="42"/>
       <c r="B969" s="9"/>
       <c r="C969" s="9"/>
       <c r="D969" s="9"/>
@@ -30372,7 +30375,7 @@
       <c r="AA969" s="9"/>
     </row>
     <row r="970">
-      <c r="A970" s="41"/>
+      <c r="A970" s="42"/>
       <c r="B970" s="9"/>
       <c r="C970" s="9"/>
       <c r="D970" s="9"/>
@@ -30401,7 +30404,7 @@
       <c r="AA970" s="9"/>
     </row>
     <row r="971">
-      <c r="A971" s="41"/>
+      <c r="A971" s="42"/>
       <c r="B971" s="9"/>
       <c r="C971" s="9"/>
       <c r="D971" s="9"/>
@@ -30430,7 +30433,7 @@
       <c r="AA971" s="9"/>
     </row>
     <row r="972">
-      <c r="A972" s="41"/>
+      <c r="A972" s="42"/>
       <c r="B972" s="9"/>
       <c r="C972" s="9"/>
       <c r="D972" s="9"/>
@@ -30459,7 +30462,7 @@
       <c r="AA972" s="9"/>
     </row>
     <row r="973">
-      <c r="A973" s="41"/>
+      <c r="A973" s="42"/>
       <c r="B973" s="9"/>
       <c r="C973" s="9"/>
       <c r="D973" s="9"/>
@@ -30488,7 +30491,7 @@
       <c r="AA973" s="9"/>
     </row>
     <row r="974">
-      <c r="A974" s="41"/>
+      <c r="A974" s="42"/>
       <c r="B974" s="9"/>
       <c r="C974" s="9"/>
       <c r="D974" s="9"/>
@@ -30517,7 +30520,7 @@
       <c r="AA974" s="9"/>
     </row>
     <row r="975">
-      <c r="A975" s="41"/>
+      <c r="A975" s="42"/>
       <c r="B975" s="9"/>
       <c r="C975" s="9"/>
       <c r="D975" s="9"/>
@@ -30546,7 +30549,7 @@
       <c r="AA975" s="9"/>
     </row>
     <row r="976">
-      <c r="A976" s="41"/>
+      <c r="A976" s="42"/>
       <c r="B976" s="9"/>
       <c r="C976" s="9"/>
       <c r="D976" s="9"/>
@@ -30575,7 +30578,7 @@
       <c r="AA976" s="9"/>
     </row>
     <row r="977">
-      <c r="A977" s="41"/>
+      <c r="A977" s="42"/>
       <c r="B977" s="9"/>
       <c r="C977" s="9"/>
       <c r="D977" s="9"/>
@@ -30604,7 +30607,7 @@
       <c r="AA977" s="9"/>
     </row>
     <row r="978">
-      <c r="A978" s="41"/>
+      <c r="A978" s="42"/>
       <c r="B978" s="9"/>
       <c r="C978" s="9"/>
       <c r="D978" s="9"/>
@@ -30633,7 +30636,7 @@
       <c r="AA978" s="9"/>
     </row>
     <row r="979">
-      <c r="A979" s="41"/>
+      <c r="A979" s="42"/>
       <c r="B979" s="9"/>
       <c r="C979" s="9"/>
       <c r="D979" s="9"/>
@@ -30662,7 +30665,7 @@
       <c r="AA979" s="9"/>
     </row>
     <row r="980">
-      <c r="A980" s="41"/>
+      <c r="A980" s="42"/>
       <c r="B980" s="9"/>
       <c r="C980" s="9"/>
       <c r="D980" s="9"/>
@@ -30691,7 +30694,7 @@
       <c r="AA980" s="9"/>
     </row>
     <row r="981">
-      <c r="A981" s="41"/>
+      <c r="A981" s="42"/>
       <c r="B981" s="9"/>
       <c r="C981" s="9"/>
       <c r="D981" s="9"/>
@@ -30720,7 +30723,7 @@
       <c r="AA981" s="9"/>
     </row>
     <row r="982">
-      <c r="A982" s="41"/>
+      <c r="A982" s="42"/>
       <c r="B982" s="9"/>
       <c r="C982" s="9"/>
       <c r="D982" s="9"/>
@@ -30749,7 +30752,7 @@
       <c r="AA982" s="9"/>
     </row>
     <row r="983">
-      <c r="A983" s="41"/>
+      <c r="A983" s="42"/>
       <c r="B983" s="9"/>
       <c r="C983" s="9"/>
       <c r="D983" s="9"/>
@@ -30778,7 +30781,7 @@
       <c r="AA983" s="9"/>
     </row>
     <row r="984">
-      <c r="A984" s="41"/>
+      <c r="A984" s="42"/>
       <c r="B984" s="9"/>
       <c r="C984" s="9"/>
       <c r="D984" s="9"/>
@@ -30807,7 +30810,7 @@
       <c r="AA984" s="9"/>
     </row>
     <row r="985">
-      <c r="A985" s="41"/>
+      <c r="A985" s="42"/>
       <c r="B985" s="9"/>
       <c r="C985" s="9"/>
       <c r="D985" s="9"/>
@@ -30836,7 +30839,7 @@
       <c r="AA985" s="9"/>
     </row>
     <row r="986">
-      <c r="A986" s="41"/>
+      <c r="A986" s="42"/>
       <c r="B986" s="9"/>
       <c r="C986" s="9"/>
       <c r="D986" s="9"/>
@@ -30865,7 +30868,7 @@
       <c r="AA986" s="9"/>
     </row>
     <row r="987">
-      <c r="A987" s="41"/>
+      <c r="A987" s="42"/>
       <c r="B987" s="9"/>
       <c r="C987" s="9"/>
       <c r="D987" s="9"/>
@@ -30894,7 +30897,7 @@
       <c r="AA987" s="9"/>
     </row>
     <row r="988">
-      <c r="A988" s="41"/>
+      <c r="A988" s="42"/>
       <c r="B988" s="9"/>
       <c r="C988" s="9"/>
       <c r="D988" s="9"/>
@@ -30923,7 +30926,7 @@
       <c r="AA988" s="9"/>
     </row>
     <row r="989">
-      <c r="A989" s="41"/>
+      <c r="A989" s="42"/>
       <c r="B989" s="9"/>
       <c r="C989" s="9"/>
       <c r="D989" s="9"/>
@@ -30952,7 +30955,7 @@
       <c r="AA989" s="9"/>
     </row>
     <row r="990">
-      <c r="A990" s="41"/>
+      <c r="A990" s="42"/>
       <c r="B990" s="9"/>
       <c r="C990" s="9"/>
       <c r="D990" s="9"/>
@@ -30981,7 +30984,7 @@
       <c r="AA990" s="9"/>
     </row>
     <row r="991">
-      <c r="A991" s="41"/>
+      <c r="A991" s="42"/>
       <c r="B991" s="9"/>
       <c r="C991" s="9"/>
       <c r="D991" s="9"/>
@@ -31010,7 +31013,7 @@
       <c r="AA991" s="9"/>
     </row>
     <row r="992">
-      <c r="A992" s="41"/>
+      <c r="A992" s="42"/>
       <c r="B992" s="9"/>
       <c r="C992" s="9"/>
       <c r="D992" s="9"/>
@@ -31039,7 +31042,7 @@
       <c r="AA992" s="9"/>
     </row>
     <row r="993">
-      <c r="A993" s="41"/>
+      <c r="A993" s="42"/>
       <c r="B993" s="9"/>
       <c r="C993" s="9"/>
       <c r="D993" s="9"/>
@@ -31068,7 +31071,7 @@
       <c r="AA993" s="9"/>
     </row>
     <row r="994">
-      <c r="A994" s="41"/>
+      <c r="A994" s="42"/>
       <c r="B994" s="9"/>
       <c r="C994" s="9"/>
       <c r="D994" s="9"/>
@@ -31097,7 +31100,7 @@
       <c r="AA994" s="9"/>
     </row>
     <row r="995">
-      <c r="A995" s="41"/>
+      <c r="A995" s="42"/>
       <c r="B995" s="9"/>
       <c r="C995" s="9"/>
       <c r="D995" s="9"/>
@@ -31126,7 +31129,7 @@
       <c r="AA995" s="9"/>
     </row>
     <row r="996">
-      <c r="A996" s="41"/>
+      <c r="A996" s="42"/>
       <c r="B996" s="9"/>
       <c r="C996" s="9"/>
       <c r="D996" s="9"/>
@@ -31155,7 +31158,7 @@
       <c r="AA996" s="9"/>
     </row>
     <row r="997">
-      <c r="A997" s="41"/>
+      <c r="A997" s="42"/>
       <c r="B997" s="9"/>
       <c r="C997" s="9"/>
       <c r="D997" s="9"/>
@@ -31184,7 +31187,7 @@
       <c r="AA997" s="9"/>
     </row>
     <row r="998">
-      <c r="A998" s="41"/>
+      <c r="A998" s="42"/>
       <c r="B998" s="9"/>
       <c r="C998" s="9"/>
       <c r="D998" s="9"/>
@@ -31213,7 +31216,7 @@
       <c r="AA998" s="9"/>
     </row>
     <row r="999">
-      <c r="A999" s="41"/>
+      <c r="A999" s="42"/>
       <c r="B999" s="9"/>
       <c r="C999" s="9"/>
       <c r="D999" s="9"/>
@@ -31242,7 +31245,7 @@
       <c r="AA999" s="9"/>
     </row>
     <row r="1000">
-      <c r="A1000" s="41"/>
+      <c r="A1000" s="42"/>
       <c r="B1000" s="9"/>
       <c r="C1000" s="9"/>
       <c r="D1000" s="9"/>
@@ -31271,7 +31274,7 @@
       <c r="AA1000" s="9"/>
     </row>
     <row r="1001">
-      <c r="A1001" s="41"/>
+      <c r="A1001" s="42"/>
       <c r="B1001" s="9"/>
       <c r="C1001" s="9"/>
       <c r="D1001" s="9"/>
@@ -31300,7 +31303,7 @@
       <c r="AA1001" s="9"/>
     </row>
     <row r="1002">
-      <c r="A1002" s="41"/>
+      <c r="A1002" s="42"/>
       <c r="B1002" s="9"/>
       <c r="C1002" s="9"/>
       <c r="D1002" s="9"/>
@@ -31329,7 +31332,7 @@
       <c r="AA1002" s="9"/>
     </row>
     <row r="1003">
-      <c r="A1003" s="41"/>
+      <c r="A1003" s="42"/>
       <c r="B1003" s="9"/>
       <c r="C1003" s="9"/>
       <c r="D1003" s="9"/>
@@ -31358,86 +31361,86 @@
       <c r="AA1003" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="265">
-    <mergeCell ref="B116:B121"/>
-    <mergeCell ref="C116:C121"/>
-    <mergeCell ref="A122:A127"/>
-    <mergeCell ref="B122:B127"/>
-    <mergeCell ref="C122:C127"/>
-    <mergeCell ref="A128:A133"/>
-    <mergeCell ref="B128:B133"/>
-    <mergeCell ref="C141:C143"/>
-    <mergeCell ref="D141:D143"/>
-    <mergeCell ref="A138:A140"/>
-    <mergeCell ref="B138:B140"/>
-    <mergeCell ref="C138:C140"/>
-    <mergeCell ref="D138:D140"/>
-    <mergeCell ref="E138:E140"/>
-    <mergeCell ref="B141:B143"/>
-    <mergeCell ref="E141:E143"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="C148:C150"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="B152:B153"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="D148:D150"/>
-    <mergeCell ref="E148:E150"/>
-    <mergeCell ref="D152:D153"/>
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="A141:A143"/>
-    <mergeCell ref="A144:A146"/>
-    <mergeCell ref="B144:B146"/>
-    <mergeCell ref="C144:C146"/>
-    <mergeCell ref="D144:D146"/>
-    <mergeCell ref="E144:E146"/>
-    <mergeCell ref="A148:A150"/>
-    <mergeCell ref="D116:D121"/>
-    <mergeCell ref="E116:E121"/>
-    <mergeCell ref="D122:D127"/>
-    <mergeCell ref="E122:E127"/>
-    <mergeCell ref="H122:H127"/>
-    <mergeCell ref="I122:I127"/>
-    <mergeCell ref="I116:I121"/>
+  <mergeCells count="266">
     <mergeCell ref="A110:A115"/>
     <mergeCell ref="B110:B115"/>
     <mergeCell ref="C110:C115"/>
     <mergeCell ref="D110:D115"/>
     <mergeCell ref="E110:E115"/>
+    <mergeCell ref="B116:B121"/>
+    <mergeCell ref="E116:E121"/>
     <mergeCell ref="A116:A121"/>
-    <mergeCell ref="H116:H121"/>
+    <mergeCell ref="A122:A127"/>
+    <mergeCell ref="B122:B127"/>
+    <mergeCell ref="C122:C127"/>
+    <mergeCell ref="D122:D127"/>
+    <mergeCell ref="E122:E127"/>
+    <mergeCell ref="A128:A133"/>
+    <mergeCell ref="D144:D146"/>
+    <mergeCell ref="E144:E146"/>
+    <mergeCell ref="A138:A140"/>
+    <mergeCell ref="A141:A143"/>
+    <mergeCell ref="B141:B143"/>
+    <mergeCell ref="C141:C143"/>
+    <mergeCell ref="D141:D143"/>
+    <mergeCell ref="E141:E143"/>
+    <mergeCell ref="A144:A146"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="D152:D153"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="B144:B146"/>
+    <mergeCell ref="C144:C146"/>
+    <mergeCell ref="A148:A150"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="C148:C150"/>
+    <mergeCell ref="D148:D150"/>
+    <mergeCell ref="E148:E150"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="C79:C82"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="A95:A101"/>
+    <mergeCell ref="B95:B101"/>
+    <mergeCell ref="C95:C101"/>
+    <mergeCell ref="D95:D101"/>
+    <mergeCell ref="E95:E101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="B104:B109"/>
     <mergeCell ref="C104:C109"/>
     <mergeCell ref="D104:D109"/>
     <mergeCell ref="E104:E109"/>
-    <mergeCell ref="H104:H109"/>
-    <mergeCell ref="I104:I109"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="A104:A109"/>
-    <mergeCell ref="B104:B109"/>
-    <mergeCell ref="C128:C133"/>
+    <mergeCell ref="C116:C121"/>
+    <mergeCell ref="D116:D121"/>
     <mergeCell ref="D128:D133"/>
     <mergeCell ref="E128:E133"/>
-    <mergeCell ref="H128:H133"/>
-    <mergeCell ref="I128:I133"/>
-    <mergeCell ref="H138:H140"/>
-    <mergeCell ref="H141:H143"/>
-    <mergeCell ref="H144:H146"/>
-    <mergeCell ref="A147:I147"/>
-    <mergeCell ref="H148:H150"/>
-    <mergeCell ref="A151:I151"/>
-    <mergeCell ref="H152:H153"/>
+    <mergeCell ref="D134:D136"/>
+    <mergeCell ref="E134:E136"/>
+    <mergeCell ref="D138:D140"/>
+    <mergeCell ref="E138:E140"/>
+    <mergeCell ref="B128:B133"/>
+    <mergeCell ref="C128:C133"/>
     <mergeCell ref="A134:A136"/>
     <mergeCell ref="B134:B136"/>
     <mergeCell ref="C134:C136"/>
-    <mergeCell ref="D134:D136"/>
-    <mergeCell ref="E134:E136"/>
-    <mergeCell ref="H134:H136"/>
-    <mergeCell ref="A137:I137"/>
-    <mergeCell ref="H110:H115"/>
-    <mergeCell ref="I110:I115"/>
+    <mergeCell ref="B138:B140"/>
+    <mergeCell ref="C138:C140"/>
     <mergeCell ref="D30:D31"/>
     <mergeCell ref="E30:E31"/>
     <mergeCell ref="A27:A29"/>
@@ -31499,32 +31502,12 @@
     <mergeCell ref="B38:B42"/>
     <mergeCell ref="C38:C42"/>
     <mergeCell ref="I38:I42"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="E76:E78"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="C79:C82"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="D92:D94"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="H92:H94"/>
-    <mergeCell ref="H95:H101"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="D89:D91"/>
-    <mergeCell ref="E89:E91"/>
-    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="A59:I59"/>
     <mergeCell ref="A53:A55"/>
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="B56:B57"/>
@@ -31532,61 +31515,6 @@
     <mergeCell ref="C60:C61"/>
     <mergeCell ref="D60:D61"/>
     <mergeCell ref="E60:E61"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="E64:E66"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="A68:A72"/>
-    <mergeCell ref="B68:B72"/>
-    <mergeCell ref="C68:C72"/>
-    <mergeCell ref="D68:D72"/>
-    <mergeCell ref="E68:E72"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="E73:E75"/>
-    <mergeCell ref="D79:D82"/>
-    <mergeCell ref="E79:E82"/>
-    <mergeCell ref="D83:D85"/>
-    <mergeCell ref="E83:E85"/>
-    <mergeCell ref="D86:D88"/>
-    <mergeCell ref="E86:E88"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="A95:A101"/>
-    <mergeCell ref="B95:B101"/>
-    <mergeCell ref="C95:C101"/>
-    <mergeCell ref="D95:D101"/>
-    <mergeCell ref="E95:E101"/>
-    <mergeCell ref="H83:H85"/>
-    <mergeCell ref="I83:I85"/>
-    <mergeCell ref="I86:I88"/>
-    <mergeCell ref="I89:I91"/>
-    <mergeCell ref="I92:I94"/>
-    <mergeCell ref="H64:H66"/>
-    <mergeCell ref="H68:H72"/>
-    <mergeCell ref="H76:H78"/>
-    <mergeCell ref="H79:H82"/>
-    <mergeCell ref="H86:H88"/>
-    <mergeCell ref="H89:H91"/>
-    <mergeCell ref="I79:I82"/>
-    <mergeCell ref="I76:I78"/>
-    <mergeCell ref="I46:I48"/>
-    <mergeCell ref="I43:I45"/>
-    <mergeCell ref="I53:I55"/>
-    <mergeCell ref="I49:I52"/>
-    <mergeCell ref="H43:H45"/>
-    <mergeCell ref="H46:H48"/>
-    <mergeCell ref="H49:H52"/>
-    <mergeCell ref="H53:H55"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="H62:H63"/>
     <mergeCell ref="D38:D42"/>
     <mergeCell ref="E38:E42"/>
     <mergeCell ref="D43:D45"/>
@@ -31607,12 +31535,6 @@
     <mergeCell ref="A46:A48"/>
     <mergeCell ref="B46:B48"/>
     <mergeCell ref="C46:C48"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="A59:I59"/>
     <mergeCell ref="A49:A52"/>
     <mergeCell ref="B49:B52"/>
     <mergeCell ref="C49:C52"/>
@@ -31620,10 +31542,92 @@
     <mergeCell ref="E49:E52"/>
     <mergeCell ref="B53:B55"/>
     <mergeCell ref="E53:E55"/>
+    <mergeCell ref="H53:H55"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="H64:H66"/>
+    <mergeCell ref="H43:H45"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="H46:H48"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="H49:H52"/>
+    <mergeCell ref="I49:I52"/>
+    <mergeCell ref="I53:I55"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="C64:C66"/>
+    <mergeCell ref="I86:I88"/>
+    <mergeCell ref="I89:I91"/>
+    <mergeCell ref="I92:I94"/>
+    <mergeCell ref="I104:I109"/>
+    <mergeCell ref="I110:I115"/>
+    <mergeCell ref="I116:I121"/>
+    <mergeCell ref="I122:I127"/>
+    <mergeCell ref="I128:I133"/>
     <mergeCell ref="H73:H75"/>
     <mergeCell ref="I73:I75"/>
+    <mergeCell ref="H76:H78"/>
+    <mergeCell ref="I76:I78"/>
+    <mergeCell ref="H79:H82"/>
+    <mergeCell ref="I79:I82"/>
+    <mergeCell ref="I83:I85"/>
+    <mergeCell ref="H122:H127"/>
+    <mergeCell ref="H128:H133"/>
+    <mergeCell ref="H134:H136"/>
+    <mergeCell ref="H138:H140"/>
+    <mergeCell ref="H141:H143"/>
+    <mergeCell ref="H144:H146"/>
+    <mergeCell ref="H148:H150"/>
+    <mergeCell ref="H152:H153"/>
+    <mergeCell ref="H83:H85"/>
+    <mergeCell ref="H86:H88"/>
+    <mergeCell ref="H95:H101"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="H104:H109"/>
+    <mergeCell ref="H110:H115"/>
+    <mergeCell ref="H116:H121"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="E64:E66"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A68:A72"/>
+    <mergeCell ref="B68:B72"/>
+    <mergeCell ref="C68:C72"/>
+    <mergeCell ref="D68:D72"/>
+    <mergeCell ref="E68:E72"/>
+    <mergeCell ref="H68:H72"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="I68:I72"/>
+    <mergeCell ref="D83:D85"/>
+    <mergeCell ref="D86:D88"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="E73:E75"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="E76:E78"/>
+    <mergeCell ref="D79:D82"/>
+    <mergeCell ref="E79:E82"/>
+    <mergeCell ref="E83:E85"/>
+    <mergeCell ref="E86:E88"/>
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="D89:D91"/>
+    <mergeCell ref="E89:E91"/>
+    <mergeCell ref="H89:H91"/>
+    <mergeCell ref="A147:I147"/>
+    <mergeCell ref="A151:I151"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="H92:H94"/>
+    <mergeCell ref="A137:I137"/>
   </mergeCells>
   <dataValidations>
     <dataValidation type="list" allowBlank="1" sqref="D3 D7 D11 D15 D19 D25 D27 D30 D33 D35 D37:D38 D43 D46 D49 D53 D56 D58 D60 D62 D64 D67:D68 D73 D76 D79 D83 D86 D89 D92 D95 D102 D104 D110 D116 D122 D128 D134 D138 D141 D144 D148 D152 D154">
